--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.3</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.33</v>
@@ -1573,7 +1573,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.11</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.4</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.2</v>
@@ -4843,7 +4843,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.33</v>
@@ -5933,7 +5933,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR26" t="n">
         <v>1.54</v>
@@ -6369,7 +6369,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR27" t="n">
         <v>1.96</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.4</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR32" t="n">
         <v>1.89</v>
@@ -7677,7 +7677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR33" t="n">
         <v>1.61</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.11</v>
@@ -8331,7 +8331,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR36" t="n">
         <v>1.15</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR38" t="n">
         <v>1.58</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.89</v>
@@ -9200,10 +9200,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR40" t="n">
         <v>1.72</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR41" t="n">
         <v>0.91</v>
@@ -9857,7 +9857,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR43" t="n">
         <v>1.5</v>
@@ -10075,7 +10075,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR44" t="n">
         <v>1.68</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.56</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.33</v>
@@ -10729,7 +10729,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR47" t="n">
         <v>0.62</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR48" t="n">
         <v>1.33</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.89</v>
@@ -11383,7 +11383,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR50" t="n">
         <v>1.3</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.33</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.7</v>
@@ -12037,7 +12037,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR53" t="n">
         <v>0.9</v>
@@ -12255,7 +12255,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR54" t="n">
         <v>1.61</v>
@@ -12473,7 +12473,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR55" t="n">
         <v>1.92</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR56" t="n">
         <v>1.6</v>
@@ -12906,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.56</v>
@@ -13124,7 +13124,7 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.33</v>
@@ -13345,7 +13345,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR59" t="n">
         <v>1.4</v>
@@ -13560,10 +13560,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.71</v>
@@ -13781,7 +13781,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.2</v>
@@ -14217,7 +14217,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR63" t="n">
         <v>1.16</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.4</v>
@@ -14868,7 +14868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.11</v>
@@ -15089,7 +15089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR67" t="n">
         <v>1.21</v>
@@ -15304,7 +15304,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>1</v>
@@ -15743,7 +15743,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR70" t="n">
         <v>1.44</v>
@@ -15958,7 +15958,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.3</v>
@@ -16179,7 +16179,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR72" t="n">
         <v>1.29</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR75" t="n">
         <v>1.55</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.3</v>
@@ -17269,7 +17269,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR77" t="n">
         <v>1.84</v>
@@ -17487,7 +17487,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR78" t="n">
         <v>1.45</v>
@@ -17702,7 +17702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.89</v>
@@ -17923,7 +17923,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR80" t="n">
         <v>1.14</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.89</v>
@@ -18792,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.2</v>
@@ -19013,7 +19013,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR85" t="n">
         <v>1.59</v>
@@ -19228,10 +19228,10 @@
         <v>0.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR86" t="n">
         <v>0.97</v>
@@ -19449,7 +19449,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR87" t="n">
         <v>1.57</v>
@@ -19664,10 +19664,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR88" t="n">
         <v>1.4</v>
@@ -19885,7 +19885,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR89" t="n">
         <v>1.44</v>
@@ -20100,10 +20100,10 @@
         <v>0.67</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR90" t="n">
         <v>1.18</v>
@@ -20536,10 +20536,10 @@
         <v>0</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR92" t="n">
         <v>1.49</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR94" t="n">
         <v>2.01</v>
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.33</v>
@@ -21408,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="AP96" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ96" t="n">
         <v>1</v>
@@ -21629,7 +21629,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR97" t="n">
         <v>1.22</v>
@@ -21847,7 +21847,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR98" t="n">
         <v>1.65</v>
@@ -22283,7 +22283,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR100" t="n">
         <v>1.71</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.56</v>
@@ -22719,7 +22719,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR102" t="n">
         <v>1.24</v>
@@ -22934,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.33</v>
@@ -23370,10 +23370,10 @@
         <v>0.25</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR105" t="n">
         <v>1.46</v>
@@ -23591,7 +23591,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR106" t="n">
         <v>1.13</v>
@@ -23809,7 +23809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR107" t="n">
         <v>1.38</v>
@@ -24024,10 +24024,10 @@
         <v>1.75</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR108" t="n">
         <v>1.17</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.7</v>
@@ -24678,7 +24678,7 @@
         <v>0.75</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.2</v>
@@ -25114,10 +25114,10 @@
         <v>0.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR113" t="n">
         <v>1.5</v>
@@ -25332,10 +25332,10 @@
         <v>1.5</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR114" t="n">
         <v>1.87</v>
@@ -25550,10 +25550,10 @@
         <v>1</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR115" t="n">
         <v>1.32</v>
@@ -25986,7 +25986,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.4</v>
@@ -26204,7 +26204,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.33</v>
@@ -27294,10 +27294,10 @@
         <v>1.2</v>
       </c>
       <c r="AP123" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR123" t="n">
         <v>2.04</v>
@@ -27515,7 +27515,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27730,7 +27730,7 @@
         <v>1.2</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.3</v>
@@ -27951,7 +27951,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR126" t="n">
         <v>1.28</v>
@@ -28166,10 +28166,10 @@
         <v>0.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR127" t="n">
         <v>1.54</v>
@@ -28387,7 +28387,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR128" t="n">
         <v>1.3</v>
@@ -28602,7 +28602,7 @@
         <v>0.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ129" t="n">
         <v>1</v>
@@ -28820,7 +28820,7 @@
         <v>1.6</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.89</v>
@@ -29041,7 +29041,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR131" t="n">
         <v>1.06</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.7</v>
@@ -29474,7 +29474,7 @@
         <v>0.6</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.11</v>
@@ -29695,7 +29695,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR134" t="n">
         <v>1.43</v>
@@ -29910,10 +29910,10 @@
         <v>1.4</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR135" t="n">
         <v>1.3</v>
@@ -30131,7 +30131,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR136" t="n">
         <v>1.06</v>
@@ -30349,7 +30349,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR137" t="n">
         <v>1.45</v>
@@ -30564,7 +30564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.11</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ139" t="n">
         <v>1</v>
@@ -31003,7 +31003,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR140" t="n">
         <v>1.37</v>
@@ -31221,7 +31221,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR141" t="n">
         <v>1.43</v>
@@ -31436,10 +31436,10 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR142" t="n">
         <v>2</v>
@@ -31654,7 +31654,7 @@
         <v>1.4</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -31872,7 +31872,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.3</v>
@@ -32093,7 +32093,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR145" t="n">
         <v>1.35</v>
@@ -32311,7 +32311,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR146" t="n">
         <v>1.38</v>
@@ -32526,10 +32526,10 @@
         <v>0.83</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR147" t="n">
         <v>1.71</v>
@@ -32744,10 +32744,10 @@
         <v>0.67</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR148" t="n">
         <v>0.96</v>
@@ -32962,10 +32962,10 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR149" t="n">
         <v>1.6</v>
@@ -33183,7 +33183,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -33619,7 +33619,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR152" t="n">
         <v>1.44</v>
@@ -33834,7 +33834,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.89</v>
@@ -34055,7 +34055,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR154" t="n">
         <v>1.39</v>
@@ -34488,10 +34488,10 @@
         <v>0.5</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR156" t="n">
         <v>1.31</v>
@@ -34709,7 +34709,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR157" t="n">
         <v>1.12</v>
@@ -35360,7 +35360,7 @@
         <v>1</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.33</v>
@@ -35578,7 +35578,7 @@
         <v>0</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.7</v>
@@ -36014,10 +36014,10 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR163" t="n">
         <v>1.77</v>
@@ -36671,7 +36671,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR166" t="n">
         <v>1.43</v>
@@ -36889,7 +36889,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR167" t="n">
         <v>1.02</v>
@@ -37107,7 +37107,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR168" t="n">
         <v>1.81</v>
@@ -37543,7 +37543,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR170" t="n">
         <v>1.28</v>
@@ -37761,7 +37761,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ171" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR171" t="n">
         <v>1.36</v>
@@ -37976,7 +37976,7 @@
         <v>1.71</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.3</v>
@@ -38194,7 +38194,7 @@
         <v>1.83</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.89</v>
@@ -38412,7 +38412,7 @@
         <v>0.86</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.2</v>
@@ -38630,10 +38630,10 @@
         <v>1.14</v>
       </c>
       <c r="AP175" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR175" t="n">
         <v>1.88</v>
@@ -38848,7 +38848,7 @@
         <v>1.43</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.4</v>
@@ -39066,7 +39066,7 @@
         <v>1.29</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.33</v>
@@ -39284,7 +39284,7 @@
         <v>0.43</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.7</v>
@@ -39505,7 +39505,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR179" t="n">
         <v>1.42</v>
@@ -39723,7 +39723,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR180" t="n">
         <v>1.58</v>
@@ -39938,10 +39938,10 @@
         <v>0.86</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR181" t="n">
         <v>1.68</v>
@@ -40159,7 +40159,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR182" t="n">
         <v>1.15</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.89</v>
@@ -40813,7 +40813,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ185" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR185" t="n">
         <v>1.28</v>
@@ -41031,7 +41031,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR186" t="n">
         <v>1.4</v>
@@ -41246,10 +41246,10 @@
         <v>0.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR187" t="n">
         <v>1.28</v>
@@ -42118,7 +42118,7 @@
         <v>1.63</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.4</v>
@@ -42336,7 +42336,7 @@
         <v>1.43</v>
       </c>
       <c r="AP192" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.56</v>
@@ -42557,7 +42557,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR193" t="n">
         <v>1.82</v>
@@ -42772,7 +42772,7 @@
         <v>1.29</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ194" t="n">
         <v>1</v>
@@ -42990,10 +42990,10 @@
         <v>1.43</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR195" t="n">
         <v>1.32</v>
@@ -43208,10 +43208,10 @@
         <v>0.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR196" t="n">
         <v>1.09</v>
@@ -43426,7 +43426,7 @@
         <v>1.57</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.33</v>
@@ -43644,10 +43644,10 @@
         <v>1</v>
       </c>
       <c r="AP198" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR198" t="n">
         <v>1.44</v>
@@ -43862,10 +43862,10 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR199" t="n">
         <v>1.89</v>
@@ -44080,10 +44080,10 @@
         <v>0.75</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR200" t="n">
         <v>1.47</v>
@@ -44516,7 +44516,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.3</v>
@@ -44737,7 +44737,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ203" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR203" t="n">
         <v>1.39</v>
@@ -44952,10 +44952,10 @@
         <v>0.75</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ204" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR204" t="n">
         <v>1.69</v>
@@ -45173,7 +45173,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR205" t="n">
         <v>1.31</v>
@@ -45388,7 +45388,7 @@
         <v>0.86</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.11</v>
@@ -45609,7 +45609,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR207" t="n">
         <v>1.39</v>
@@ -46042,7 +46042,7 @@
         <v>1.38</v>
       </c>
       <c r="AP209" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.56</v>
@@ -46260,7 +46260,7 @@
         <v>1.13</v>
       </c>
       <c r="AP210" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ210" t="n">
         <v>1</v>
@@ -46714,7 +46714,7 @@
         <v>3</v>
       </c>
       <c r="AV212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW212" t="n">
         <v>6</v>
@@ -46726,7 +46726,7 @@
         <v>9</v>
       </c>
       <c r="AZ212" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA212" t="n">
         <v>6</v>
@@ -47156,13 +47156,13 @@
         <v>5</v>
       </c>
       <c r="AX214" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY214" t="n">
         <v>7</v>
       </c>
       <c r="AZ214" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA214" t="n">
         <v>2</v>
@@ -48461,13 +48461,13 @@
         <v>8</v>
       </c>
       <c r="AW220" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX220" t="n">
         <v>3</v>
       </c>
       <c r="AY220" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ220" t="n">
         <v>11</v>
@@ -48519,6 +48519,2622 @@
       </c>
       <c r="BP220" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>8216826</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>46004.39583333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>20</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>3</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2</v>
+      </c>
+      <c r="S221" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X221" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>8216835</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>46004.39583333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>20</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S222" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X222" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>8216855</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>20</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>4</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X223" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8216859</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>20</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2</v>
+      </c>
+      <c r="K224" t="n">
+        <v>3</v>
+      </c>
+      <c r="L224" t="n">
+        <v>3</v>
+      </c>
+      <c r="M224" t="n">
+        <v>2</v>
+      </c>
+      <c r="N224" t="n">
+        <v>5</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['10', '77', '85']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['30', '38']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S224" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U224" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X224" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>8216815</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>20</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2</v>
+      </c>
+      <c r="K225" t="n">
+        <v>4</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+      <c r="M225" t="n">
+        <v>3</v>
+      </c>
+      <c r="N225" t="n">
+        <v>7</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['25', '34', '50', '90+9']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['15', '42', '72']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S225" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U225" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X225" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>8216838</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>20</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['45+1', '48']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2</v>
+      </c>
+      <c r="S226" t="n">
+        <v>4</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X226" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>31</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8216858</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F227" t="n">
+        <v>20</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['56', '84']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X227" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8216866</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>20</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>3</v>
+      </c>
+      <c r="N228" t="n">
+        <v>4</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['22', '53', '64']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R228" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S228" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X228" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8216862</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F229" t="n">
+        <v>20</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2</v>
+      </c>
+      <c r="K229" t="n">
+        <v>3</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>4</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['34', '84']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['3', '18']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R229" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X229" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>8216827</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['70', '82']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S230" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X230" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>8216828</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>20</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>4</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['26', '70']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['42', '54']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S231" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X231" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8216863</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>46004.5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>20</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S232" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X232" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -48679,13 +48679,13 @@
         <v>1</v>
       </c>
       <c r="AW221" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX221" t="n">
         <v>4</v>
       </c>
       <c r="AY221" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ221" t="n">
         <v>5</v>
@@ -49112,19 +49112,19 @@
         <v>5</v>
       </c>
       <c r="AV223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW223" t="n">
         <v>8</v>
       </c>
       <c r="AX223" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY223" t="n">
         <v>13</v>
       </c>
       <c r="AZ223" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA223" t="n">
         <v>6</v>
@@ -49772,13 +49772,13 @@
         <v>21</v>
       </c>
       <c r="AX226" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY226" t="n">
         <v>31</v>
       </c>
       <c r="AZ226" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA226" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,30 @@
     <t>['8', '52', '78']</t>
   </si>
   <si>
+    <t>['10', '50', '59']</t>
+  </si>
+  <si>
+    <t>['46', '60']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['41', '61', '73']</t>
+  </si>
+  <si>
+    <t>['40', '43']</t>
+  </si>
+  <si>
+    <t>['40', '67']</t>
+  </si>
+  <si>
+    <t>['36', '58']</t>
+  </si>
+  <si>
     <t>['17', '45+10', '50']</t>
   </si>
   <si>
@@ -902,9 +926,6 @@
   </si>
   <si>
     <t>['31', '45', '55', '81']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['65', '89']</t>
@@ -1043,6 +1064,21 @@
   </si>
   <si>
     <t>['59', '76']</t>
+  </si>
+  <si>
+    <t>['22', '67']</t>
+  </si>
+  <si>
+    <t>['59', '64']</t>
+  </si>
+  <si>
+    <t>['42', '69']</t>
+  </si>
+  <si>
+    <t>['11', '22', '23', '73', '88']</t>
+  </si>
+  <si>
+    <t>['26', '30', '44']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1744,7 +1780,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1950,7 +1986,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2153,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ4">
         <v>0.9</v>
@@ -2977,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -3105,7 +3141,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q9">
         <v>3.02</v>
@@ -3389,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ10">
         <v>1.11</v>
@@ -3517,7 +3553,7 @@
         <v>103</v>
       </c>
       <c r="P11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>3.5</v>
@@ -3598,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3801,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ12">
         <v>0.78</v>
@@ -4010,7 +4046,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4213,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ14">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4341,7 +4377,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q15">
         <v>3.92</v>
@@ -4422,7 +4458,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4547,7 +4583,7 @@
         <v>106</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4831,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -5040,7 +5076,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ18">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5165,7 +5201,7 @@
         <v>109</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q19">
         <v>2.16</v>
@@ -5246,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5449,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ20">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5655,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
+        <v>1.55</v>
+      </c>
+      <c r="AQ21">
         <v>1.4</v>
-      </c>
-      <c r="AQ21">
-        <v>1.56</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5989,7 +6025,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q23">
         <v>3.04</v>
@@ -6067,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -6273,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ24">
         <v>0.9</v>
@@ -6401,7 +6437,7 @@
         <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6479,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ25">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6607,7 +6643,7 @@
         <v>115</v>
       </c>
       <c r="P26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q26">
         <v>3.15</v>
@@ -6685,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ26">
         <v>0.9</v>
@@ -7019,7 +7055,7 @@
         <v>116</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q28">
         <v>3.38</v>
@@ -7097,10 +7133,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ28">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.63</v>
@@ -7306,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.65</v>
@@ -7431,7 +7467,7 @@
         <v>118</v>
       </c>
       <c r="P30" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7512,7 +7548,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR30">
         <v>1.07</v>
@@ -7715,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>2.17</v>
@@ -7921,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -8255,7 +8291,7 @@
         <v>122</v>
       </c>
       <c r="P34" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q34">
         <v>2.6</v>
@@ -8333,10 +8369,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR34">
         <v>0.85</v>
@@ -8539,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.11</v>
@@ -8873,7 +8909,7 @@
         <v>125</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8954,7 +8990,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ37">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR37">
         <v>0.99</v>
@@ -9363,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ39">
         <v>0.6</v>
@@ -9491,7 +9527,7 @@
         <v>127</v>
       </c>
       <c r="P40" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9569,7 +9605,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ40">
         <v>1.7</v>
@@ -9775,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ41">
         <v>1.2</v>
@@ -9984,7 +10020,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
         <v>0.75</v>
@@ -10190,7 +10226,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10727,7 +10763,7 @@
         <v>129</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q46">
         <v>2.62</v>
@@ -10808,7 +10844,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>0.8</v>
@@ -11011,10 +11047,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR47">
         <v>0.98</v>
@@ -11139,7 +11175,7 @@
         <v>131</v>
       </c>
       <c r="P48" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q48">
         <v>2.04</v>
@@ -11345,7 +11381,7 @@
         <v>132</v>
       </c>
       <c r="P49" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -11423,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ49">
         <v>0.9</v>
@@ -11632,7 +11668,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR50">
         <v>1.31</v>
@@ -11757,7 +11793,7 @@
         <v>133</v>
       </c>
       <c r="P51" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q51">
         <v>3.07</v>
@@ -11835,7 +11871,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51">
         <v>0.9</v>
@@ -11963,7 +11999,7 @@
         <v>134</v>
       </c>
       <c r="P52" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12169,7 +12205,7 @@
         <v>135</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q53">
         <v>3.56</v>
@@ -12250,7 +12286,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ53">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>0.76</v>
@@ -12375,7 +12411,7 @@
         <v>106</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12453,7 +12489,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
         <v>0.8</v>
@@ -12662,7 +12698,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR55">
         <v>1.49</v>
@@ -12787,7 +12823,7 @@
         <v>137</v>
       </c>
       <c r="P56" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q56">
         <v>2.39</v>
@@ -12865,7 +12901,7 @@
         <v>0.5</v>
       </c>
       <c r="AP56">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>0.78</v>
@@ -13074,7 +13110,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.46</v>
@@ -13280,7 +13316,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13483,7 +13519,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ59">
         <v>0.6</v>
@@ -13895,7 +13931,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ61">
         <v>0.8</v>
@@ -14104,7 +14140,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
         <v>1.86</v>
@@ -14229,7 +14265,7 @@
         <v>144</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q63">
         <v>3.47</v>
@@ -14310,7 +14346,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ63">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.02</v>
@@ -14513,10 +14549,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.47</v>
@@ -14719,10 +14755,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ65">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.68</v>
@@ -14847,7 +14883,7 @@
         <v>106</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q66">
         <v>5.25</v>
@@ -15337,7 +15373,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.8</v>
@@ -15465,7 +15501,7 @@
         <v>148</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15546,7 +15582,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15671,7 +15707,7 @@
         <v>149</v>
       </c>
       <c r="P70" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q70">
         <v>2.35</v>
@@ -15752,7 +15788,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR70">
         <v>1.61</v>
@@ -15877,7 +15913,7 @@
         <v>106</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15955,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ71">
         <v>1.11</v>
@@ -16161,7 +16197,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ72">
         <v>0.9</v>
@@ -16370,7 +16406,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ73">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR73">
         <v>1.86</v>
@@ -16573,7 +16609,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ74">
         <v>0.9</v>
@@ -16701,7 +16737,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q75">
         <v>2.81</v>
@@ -16779,7 +16815,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ75">
         <v>0.9</v>
@@ -16907,7 +16943,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -16985,7 +17021,7 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ76">
         <v>0.9</v>
@@ -17113,7 +17149,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q77">
         <v>1.96</v>
@@ -17194,7 +17230,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.61</v>
@@ -17397,7 +17433,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ78">
         <v>0.6</v>
@@ -17525,7 +17561,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q79">
         <v>3.95</v>
@@ -17606,7 +17642,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.44</v>
@@ -17731,7 +17767,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>2.9</v>
@@ -17809,10 +17845,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
+        <v>1.27</v>
+      </c>
+      <c r="AQ80">
         <v>1.4</v>
-      </c>
-      <c r="AQ80">
-        <v>1.56</v>
       </c>
       <c r="AR80">
         <v>1.35</v>
@@ -18015,10 +18051,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ81">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR81">
         <v>0.96</v>
@@ -18224,7 +18260,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR82">
         <v>1.66</v>
@@ -18427,7 +18463,7 @@
         <v>2</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
         <v>1.7</v>
@@ -18555,7 +18591,7 @@
         <v>162</v>
       </c>
       <c r="P84" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q84">
         <v>2.32</v>
@@ -18839,10 +18875,10 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.27</v>
@@ -18967,7 +19003,7 @@
         <v>106</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>3.4</v>
@@ -19045,7 +19081,7 @@
         <v>0.33</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ86">
         <v>0.9</v>
@@ -19379,7 +19415,7 @@
         <v>165</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q88">
         <v>3.52</v>
@@ -19666,7 +19702,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR89">
         <v>1.5</v>
@@ -19869,7 +19905,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ90">
         <v>0.8</v>
@@ -19997,7 +20033,7 @@
         <v>167</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -20078,7 +20114,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR91">
         <v>1.61</v>
@@ -20487,7 +20523,7 @@
         <v>2</v>
       </c>
       <c r="AP93">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ93">
         <v>1.27</v>
@@ -20615,7 +20651,7 @@
         <v>169</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q94">
         <v>2.27</v>
@@ -20902,7 +20938,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR95">
         <v>0.9399999999999999</v>
@@ -21108,7 +21144,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR96">
         <v>1.5</v>
@@ -21233,7 +21269,7 @@
         <v>171</v>
       </c>
       <c r="P97" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21314,7 +21350,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ97">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR97">
         <v>1.94</v>
@@ -21517,10 +21553,10 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ98">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR98">
         <v>1.4</v>
@@ -21723,7 +21759,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ99">
         <v>0.9</v>
@@ -21932,7 +21968,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR100">
         <v>1.41</v>
@@ -22263,7 +22299,7 @@
         <v>175</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22341,7 +22377,7 @@
         <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>0.6</v>
@@ -22547,10 +22583,10 @@
         <v>1.25</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ103">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>1.52</v>
@@ -22753,7 +22789,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ104">
         <v>1.11</v>
@@ -22881,7 +22917,7 @@
         <v>177</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q105">
         <v>3.15</v>
@@ -22959,7 +22995,7 @@
         <v>1.75</v>
       </c>
       <c r="AP105">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ105">
         <v>1.7</v>
@@ -23087,7 +23123,7 @@
         <v>178</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q106">
         <v>3.58</v>
@@ -23293,7 +23329,7 @@
         <v>106</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23371,10 +23407,10 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ107">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23705,7 +23741,7 @@
         <v>106</v>
       </c>
       <c r="P109" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q109">
         <v>3.45</v>
@@ -23989,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ110">
         <v>0.8</v>
@@ -24401,10 +24437,10 @@
         <v>0.75</v>
       </c>
       <c r="AP112">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ112">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.01</v>
@@ -24610,7 +24646,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ113">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24735,7 +24771,7 @@
         <v>106</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q114">
         <v>3.05</v>
@@ -24816,7 +24852,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ114">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR114">
         <v>1.47</v>
@@ -24941,7 +24977,7 @@
         <v>106</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -25019,10 +25055,10 @@
         <v>0.75</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.43</v>
@@ -25147,7 +25183,7 @@
         <v>106</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25353,7 +25389,7 @@
         <v>183</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q117">
         <v>3.8</v>
@@ -25640,7 +25676,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ118">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR118">
         <v>1.92</v>
@@ -25765,7 +25801,7 @@
         <v>184</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q119">
         <v>4.13</v>
@@ -25843,10 +25879,10 @@
         <v>1.6</v>
       </c>
       <c r="AP119">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ119">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR119">
         <v>1.33</v>
@@ -26049,10 +26085,10 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR120">
         <v>1.34</v>
@@ -26177,7 +26213,7 @@
         <v>186</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>2.55</v>
@@ -26255,10 +26291,10 @@
         <v>1.5</v>
       </c>
       <c r="AP121">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR121">
         <v>1.76</v>
@@ -26461,7 +26497,7 @@
         <v>0.6</v>
       </c>
       <c r="AP122">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ122">
         <v>0.6</v>
@@ -27079,7 +27115,7 @@
         <v>1.4</v>
       </c>
       <c r="AP125">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ125">
         <v>1.27</v>
@@ -27207,7 +27243,7 @@
         <v>190</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>2.85</v>
@@ -27288,7 +27324,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ126">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR126">
         <v>1.52</v>
@@ -27491,7 +27527,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ127">
         <v>1.11</v>
@@ -27619,7 +27655,7 @@
         <v>191</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>2.06</v>
@@ -27906,7 +27942,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR129">
         <v>1.94</v>
@@ -28031,7 +28067,7 @@
         <v>106</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q130">
         <v>2.7</v>
@@ -28112,7 +28148,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ130">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR130">
         <v>1.04</v>
@@ -28237,7 +28273,7 @@
         <v>193</v>
       </c>
       <c r="P131" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q131">
         <v>2.7</v>
@@ -28315,7 +28351,7 @@
         <v>0</v>
       </c>
       <c r="AP131">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ131">
         <v>0.8</v>
@@ -28524,7 +28560,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28727,7 +28763,7 @@
         <v>1.2</v>
       </c>
       <c r="AP133">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133">
         <v>0.8</v>
@@ -29139,7 +29175,7 @@
         <v>0.6</v>
       </c>
       <c r="AP135">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ135">
         <v>0.78</v>
@@ -29348,7 +29384,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ136">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.48</v>
@@ -29473,7 +29509,7 @@
         <v>106</v>
       </c>
       <c r="P137" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>3.05</v>
@@ -29551,7 +29587,7 @@
         <v>0.2</v>
       </c>
       <c r="AP137">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ137">
         <v>0.8</v>
@@ -29679,7 +29715,7 @@
         <v>199</v>
       </c>
       <c r="P138" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>3.1</v>
@@ -29760,7 +29796,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ138">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.54</v>
@@ -29963,7 +29999,7 @@
         <v>2</v>
       </c>
       <c r="AP139">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ139">
         <v>1.7</v>
@@ -30172,7 +30208,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR140">
         <v>1.5</v>
@@ -30375,7 +30411,7 @@
         <v>1.33</v>
       </c>
       <c r="AP141">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ141">
         <v>0.9</v>
@@ -30503,7 +30539,7 @@
         <v>127</v>
       </c>
       <c r="P142" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q142">
         <v>2.35</v>
@@ -30581,7 +30617,7 @@
         <v>0.8</v>
       </c>
       <c r="AP142">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ142">
         <v>1.11</v>
@@ -30915,7 +30951,7 @@
         <v>201</v>
       </c>
       <c r="P144" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q144">
         <v>2.55</v>
@@ -30996,7 +31032,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR144">
         <v>1.62</v>
@@ -31121,7 +31157,7 @@
         <v>106</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q145">
         <v>2.06</v>
@@ -31327,7 +31363,7 @@
         <v>202</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>2.62</v>
@@ -31408,7 +31444,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR146">
         <v>1.47</v>
@@ -31611,7 +31647,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ147">
         <v>0.9</v>
@@ -31739,7 +31775,7 @@
         <v>203</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q148">
         <v>3.74</v>
@@ -32435,10 +32471,10 @@
         <v>1.2</v>
       </c>
       <c r="AP151">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32644,7 +32680,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ152">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR152">
         <v>1.95</v>
@@ -32769,7 +32805,7 @@
         <v>208</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>3.05</v>
@@ -32847,7 +32883,7 @@
         <v>0.5</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ153">
         <v>0.9</v>
@@ -33053,10 +33089,10 @@
         <v>1.2</v>
       </c>
       <c r="AP154">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR154">
         <v>1.67</v>
@@ -33259,7 +33295,7 @@
         <v>1.17</v>
       </c>
       <c r="AP155">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ155">
         <v>1.27</v>
@@ -33465,7 +33501,7 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ156">
         <v>1.2</v>
@@ -33880,7 +33916,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ158">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR158">
         <v>1.26</v>
@@ -34005,7 +34041,7 @@
         <v>211</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>2.8</v>
@@ -34211,7 +34247,7 @@
         <v>212</v>
       </c>
       <c r="P160" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q160">
         <v>2.84</v>
@@ -34292,7 +34328,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ160">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR160">
         <v>1.1</v>
@@ -34417,7 +34453,7 @@
         <v>213</v>
       </c>
       <c r="P161" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q161">
         <v>3.15</v>
@@ -34495,10 +34531,10 @@
         <v>1.5</v>
       </c>
       <c r="AP161">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ161">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR161">
         <v>1.32</v>
@@ -34623,7 +34659,7 @@
         <v>106</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q162">
         <v>3.44</v>
@@ -34701,10 +34737,10 @@
         <v>1.83</v>
       </c>
       <c r="AP162">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ162">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR162">
         <v>1.67</v>
@@ -34907,10 +34943,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -35241,7 +35277,7 @@
         <v>215</v>
       </c>
       <c r="P165" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q165">
         <v>3.05</v>
@@ -35319,10 +35355,10 @@
         <v>1.33</v>
       </c>
       <c r="AP165">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ165">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR165">
         <v>1.27</v>
@@ -35731,7 +35767,7 @@
         <v>0.86</v>
       </c>
       <c r="AP167">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ167">
         <v>0.9</v>
@@ -35937,7 +35973,7 @@
         <v>1.14</v>
       </c>
       <c r="AP168">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ168">
         <v>0.9</v>
@@ -36143,7 +36179,7 @@
         <v>0.57</v>
       </c>
       <c r="AP169">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ169">
         <v>0.9</v>
@@ -36352,7 +36388,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ170">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR170">
         <v>1.44</v>
@@ -36558,7 +36594,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ171">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR171">
         <v>0.95</v>
@@ -36761,7 +36797,7 @@
         <v>1.57</v>
       </c>
       <c r="AP172">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ172">
         <v>1.2</v>
@@ -36889,7 +36925,7 @@
         <v>106</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q173">
         <v>2.73</v>
@@ -37301,7 +37337,7 @@
         <v>223</v>
       </c>
       <c r="P175" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37379,10 +37415,10 @@
         <v>1.33</v>
       </c>
       <c r="AP175">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR175">
         <v>1.37</v>
@@ -37588,7 +37624,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ176">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR176">
         <v>1.32</v>
@@ -37713,7 +37749,7 @@
         <v>115</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>2.25</v>
@@ -37794,7 +37830,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ177">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR177">
         <v>1.71</v>
@@ -38203,7 +38239,7 @@
         <v>0.86</v>
       </c>
       <c r="AP179">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ179">
         <v>0.6</v>
@@ -38409,7 +38445,7 @@
         <v>0.71</v>
       </c>
       <c r="AP180">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ180">
         <v>0.8</v>
@@ -38618,7 +38654,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ181">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR181">
         <v>1.55</v>
@@ -38821,7 +38857,7 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ182">
         <v>0.8</v>
@@ -39030,7 +39066,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ183">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR183">
         <v>1.33</v>
@@ -39155,7 +39191,7 @@
         <v>106</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q184">
         <v>2.57</v>
@@ -39233,10 +39269,10 @@
         <v>0.75</v>
       </c>
       <c r="AP184">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ184">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR184">
         <v>1.55</v>
@@ -39773,7 +39809,7 @@
         <v>229</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -39851,10 +39887,10 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR187">
         <v>1.44</v>
@@ -40057,10 +40093,10 @@
         <v>0.38</v>
       </c>
       <c r="AP188">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ188">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR188">
         <v>1.16</v>
@@ -40185,7 +40221,7 @@
         <v>112</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -40263,10 +40299,10 @@
         <v>1.57</v>
       </c>
       <c r="AP189">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ189">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR189">
         <v>1.06</v>
@@ -40472,7 +40508,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ190">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR190">
         <v>1.89</v>
@@ -40597,7 +40633,7 @@
         <v>187</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q191">
         <v>3.98</v>
@@ -40881,7 +40917,7 @@
         <v>0.88</v>
       </c>
       <c r="AP192">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ192">
         <v>0.8</v>
@@ -41009,7 +41045,7 @@
         <v>231</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>2.45</v>
@@ -41087,7 +41123,7 @@
         <v>1.38</v>
       </c>
       <c r="AP193">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ193">
         <v>1.2</v>
@@ -41296,7 +41332,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR194">
         <v>1.65</v>
@@ -41421,7 +41457,7 @@
         <v>106</v>
       </c>
       <c r="P195" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q195">
         <v>2.81</v>
@@ -41627,7 +41663,7 @@
         <v>106</v>
       </c>
       <c r="P196" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q196">
         <v>3</v>
@@ -41833,7 +41869,7 @@
         <v>233</v>
       </c>
       <c r="P197" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -41914,7 +41950,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ197">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR197">
         <v>1.55</v>
@@ -42451,7 +42487,7 @@
         <v>236</v>
       </c>
       <c r="P200" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q200">
         <v>3</v>
@@ -42532,7 +42568,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ200">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR200">
         <v>1.65</v>
@@ -42657,7 +42693,7 @@
         <v>187</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q201">
         <v>4.5</v>
@@ -42735,7 +42771,7 @@
         <v>0.75</v>
       </c>
       <c r="AP201">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ201">
         <v>0.8</v>
@@ -42863,7 +42899,7 @@
         <v>237</v>
       </c>
       <c r="P202" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q202">
         <v>2.44</v>
@@ -42944,7 +42980,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ202">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR202">
         <v>1.58</v>
@@ -43147,7 +43183,7 @@
         <v>1.63</v>
       </c>
       <c r="AP203">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ203">
         <v>1.7</v>
@@ -43353,10 +43389,10 @@
         <v>0.86</v>
       </c>
       <c r="AP204">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ204">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR204">
         <v>1.43</v>
@@ -43481,7 +43517,7 @@
         <v>106</v>
       </c>
       <c r="P205" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q205">
         <v>3.2</v>
@@ -43687,7 +43723,7 @@
         <v>106</v>
       </c>
       <c r="P206" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>2.6</v>
@@ -43971,7 +44007,7 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ207">
         <v>0.9</v>
@@ -44177,10 +44213,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ208">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR208">
         <v>1.39</v>
@@ -44305,7 +44341,7 @@
         <v>241</v>
       </c>
       <c r="P209" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q209">
         <v>2.55</v>
@@ -44386,7 +44422,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR209">
         <v>1.93</v>
@@ -44592,7 +44628,7 @@
         <v>1</v>
       </c>
       <c r="AQ210">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR210">
         <v>1.41</v>
@@ -44795,10 +44831,10 @@
         <v>0.88</v>
       </c>
       <c r="AP211">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ211">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR211">
         <v>1.38</v>
@@ -44923,7 +44959,7 @@
         <v>242</v>
       </c>
       <c r="P212" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q212">
         <v>2.49</v>
@@ -45001,10 +45037,10 @@
         <v>1.5</v>
       </c>
       <c r="AP212">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ212">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR212">
         <v>1.34</v>
@@ -45207,10 +45243,10 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR213">
         <v>1.13</v>
@@ -45413,10 +45449,10 @@
         <v>1.44</v>
       </c>
       <c r="AP214">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ214">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR214">
         <v>1.4</v>
@@ -45541,7 +45577,7 @@
         <v>106</v>
       </c>
       <c r="P215" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q215">
         <v>2.18</v>
@@ -45619,10 +45655,10 @@
         <v>1</v>
       </c>
       <c r="AP215">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ215">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR215">
         <v>1.77</v>
@@ -45747,7 +45783,7 @@
         <v>106</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q216">
         <v>3.27</v>
@@ -45825,10 +45861,10 @@
         <v>1.75</v>
       </c>
       <c r="AP216">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ216">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR216">
         <v>1.4</v>
@@ -45953,7 +45989,7 @@
         <v>103</v>
       </c>
       <c r="P217" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -46031,7 +46067,7 @@
         <v>1.44</v>
       </c>
       <c r="AP217">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ217">
         <v>1.27</v>
@@ -46159,7 +46195,7 @@
         <v>244</v>
       </c>
       <c r="P218" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q218">
         <v>2.86</v>
@@ -46240,7 +46276,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR218">
         <v>1.4</v>
@@ -46443,10 +46479,10 @@
         <v>1.75</v>
       </c>
       <c r="AP219">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR219">
         <v>1.22</v>
@@ -46571,7 +46607,7 @@
         <v>106</v>
       </c>
       <c r="P220" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q220">
         <v>3.3</v>
@@ -46649,10 +46685,10 @@
         <v>0.44</v>
       </c>
       <c r="AP220">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ220">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR220">
         <v>1.36</v>
@@ -47395,7 +47431,7 @@
         <v>246</v>
       </c>
       <c r="P224" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q224">
         <v>3.65</v>
@@ -48013,7 +48049,7 @@
         <v>210</v>
       </c>
       <c r="P227" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q227">
         <v>2.5</v>
@@ -48219,7 +48255,7 @@
         <v>248</v>
       </c>
       <c r="P228" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q228">
         <v>2.15</v>
@@ -48425,7 +48461,7 @@
         <v>249</v>
       </c>
       <c r="P229" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q229">
         <v>2.49</v>
@@ -48837,7 +48873,7 @@
         <v>251</v>
       </c>
       <c r="P231" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q231">
         <v>2.66</v>
@@ -49249,7 +49285,7 @@
         <v>253</v>
       </c>
       <c r="P233" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q233">
         <v>3.2</v>
@@ -49406,6 +49442,2272 @@
       </c>
       <c r="BP233">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>8216873</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>46010.69791666666</v>
+      </c>
+      <c r="F234">
+        <v>21</v>
+      </c>
+      <c r="G234" t="s">
+        <v>89</v>
+      </c>
+      <c r="H234" t="s">
+        <v>90</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234" t="s">
+        <v>254</v>
+      </c>
+      <c r="P234" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q234">
+        <v>3.06</v>
+      </c>
+      <c r="R234">
+        <v>1.88</v>
+      </c>
+      <c r="S234">
+        <v>3.7</v>
+      </c>
+      <c r="T234">
+        <v>1.53</v>
+      </c>
+      <c r="U234">
+        <v>2.5</v>
+      </c>
+      <c r="V234">
+        <v>3.56</v>
+      </c>
+      <c r="W234">
+        <v>1.25</v>
+      </c>
+      <c r="X234">
+        <v>9.9</v>
+      </c>
+      <c r="Y234">
+        <v>1</v>
+      </c>
+      <c r="Z234">
+        <v>2.3</v>
+      </c>
+      <c r="AA234">
+        <v>3.13</v>
+      </c>
+      <c r="AB234">
+        <v>3.2</v>
+      </c>
+      <c r="AC234">
+        <v>1.11</v>
+      </c>
+      <c r="AD234">
+        <v>7.07</v>
+      </c>
+      <c r="AE234">
+        <v>1.42</v>
+      </c>
+      <c r="AF234">
+        <v>2.51</v>
+      </c>
+      <c r="AG234">
+        <v>2.58</v>
+      </c>
+      <c r="AH234">
+        <v>1.5</v>
+      </c>
+      <c r="AI234">
+        <v>2.05</v>
+      </c>
+      <c r="AJ234">
+        <v>1.7</v>
+      </c>
+      <c r="AK234">
+        <v>1.32</v>
+      </c>
+      <c r="AL234">
+        <v>1.37</v>
+      </c>
+      <c r="AM234">
+        <v>1.54</v>
+      </c>
+      <c r="AN234">
+        <v>1.4</v>
+      </c>
+      <c r="AO234">
+        <v>1.3</v>
+      </c>
+      <c r="AP234">
+        <v>1.55</v>
+      </c>
+      <c r="AQ234">
+        <v>1.18</v>
+      </c>
+      <c r="AR234">
+        <v>1.09</v>
+      </c>
+      <c r="AS234">
+        <v>1.05</v>
+      </c>
+      <c r="AT234">
+        <v>2.14</v>
+      </c>
+      <c r="AU234">
+        <v>3</v>
+      </c>
+      <c r="AV234">
+        <v>6</v>
+      </c>
+      <c r="AW234">
+        <v>10</v>
+      </c>
+      <c r="AX234">
+        <v>9</v>
+      </c>
+      <c r="AY234">
+        <v>13</v>
+      </c>
+      <c r="AZ234">
+        <v>15</v>
+      </c>
+      <c r="BA234">
+        <v>4</v>
+      </c>
+      <c r="BB234">
+        <v>1</v>
+      </c>
+      <c r="BC234">
+        <v>5</v>
+      </c>
+      <c r="BD234">
+        <v>1.62</v>
+      </c>
+      <c r="BE234">
+        <v>7.5</v>
+      </c>
+      <c r="BF234">
+        <v>2.65</v>
+      </c>
+      <c r="BG234">
+        <v>1.28</v>
+      </c>
+      <c r="BH234">
+        <v>3.05</v>
+      </c>
+      <c r="BI234">
+        <v>1.62</v>
+      </c>
+      <c r="BJ234">
+        <v>2.24</v>
+      </c>
+      <c r="BK234">
+        <v>2.01</v>
+      </c>
+      <c r="BL234">
+        <v>1.74</v>
+      </c>
+      <c r="BM234">
+        <v>2.53</v>
+      </c>
+      <c r="BN234">
+        <v>1.46</v>
+      </c>
+      <c r="BO234">
+        <v>3.3</v>
+      </c>
+      <c r="BP234">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>8216864</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>46011.39583333334</v>
+      </c>
+      <c r="F235">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>85</v>
+      </c>
+      <c r="H235" t="s">
+        <v>73</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>255</v>
+      </c>
+      <c r="P235" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q235">
+        <v>2.5</v>
+      </c>
+      <c r="R235">
+        <v>2.05</v>
+      </c>
+      <c r="S235">
+        <v>4.75</v>
+      </c>
+      <c r="T235">
+        <v>1.43</v>
+      </c>
+      <c r="U235">
+        <v>2.66</v>
+      </c>
+      <c r="V235">
+        <v>3.3</v>
+      </c>
+      <c r="W235">
+        <v>1.32</v>
+      </c>
+      <c r="X235">
+        <v>9</v>
+      </c>
+      <c r="Y235">
+        <v>1</v>
+      </c>
+      <c r="Z235">
+        <v>1.95</v>
+      </c>
+      <c r="AA235">
+        <v>3.3</v>
+      </c>
+      <c r="AB235">
+        <v>4.4</v>
+      </c>
+      <c r="AC235">
+        <v>1.08</v>
+      </c>
+      <c r="AD235">
+        <v>7.5</v>
+      </c>
+      <c r="AE235">
+        <v>1.4</v>
+      </c>
+      <c r="AF235">
+        <v>2.75</v>
+      </c>
+      <c r="AG235">
+        <v>2.26</v>
+      </c>
+      <c r="AH235">
+        <v>1.62</v>
+      </c>
+      <c r="AI235">
+        <v>2.09</v>
+      </c>
+      <c r="AJ235">
+        <v>1.72</v>
+      </c>
+      <c r="AK235">
+        <v>1.33</v>
+      </c>
+      <c r="AL235">
+        <v>1.25</v>
+      </c>
+      <c r="AM235">
+        <v>1.91</v>
+      </c>
+      <c r="AN235">
+        <v>2.13</v>
+      </c>
+      <c r="AO235">
+        <v>1.33</v>
+      </c>
+      <c r="AP235">
+        <v>2</v>
+      </c>
+      <c r="AQ235">
+        <v>1.3</v>
+      </c>
+      <c r="AR235">
+        <v>1.12</v>
+      </c>
+      <c r="AS235">
+        <v>1.32</v>
+      </c>
+      <c r="AT235">
+        <v>2.44</v>
+      </c>
+      <c r="AU235">
+        <v>4</v>
+      </c>
+      <c r="AV235">
+        <v>4</v>
+      </c>
+      <c r="AW235">
+        <v>10</v>
+      </c>
+      <c r="AX235">
+        <v>8</v>
+      </c>
+      <c r="AY235">
+        <v>14</v>
+      </c>
+      <c r="AZ235">
+        <v>12</v>
+      </c>
+      <c r="BA235">
+        <v>5</v>
+      </c>
+      <c r="BB235">
+        <v>2</v>
+      </c>
+      <c r="BC235">
+        <v>7</v>
+      </c>
+      <c r="BD235">
+        <v>1.52</v>
+      </c>
+      <c r="BE235">
+        <v>7.5</v>
+      </c>
+      <c r="BF235">
+        <v>2.75</v>
+      </c>
+      <c r="BG235">
+        <v>1.26</v>
+      </c>
+      <c r="BH235">
+        <v>3.4</v>
+      </c>
+      <c r="BI235">
+        <v>1.52</v>
+      </c>
+      <c r="BJ235">
+        <v>2.36</v>
+      </c>
+      <c r="BK235">
+        <v>1.87</v>
+      </c>
+      <c r="BL235">
+        <v>1.87</v>
+      </c>
+      <c r="BM235">
+        <v>2.38</v>
+      </c>
+      <c r="BN235">
+        <v>1.55</v>
+      </c>
+      <c r="BO235">
+        <v>3.07</v>
+      </c>
+      <c r="BP235">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>8216712</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>46011.39583333334</v>
+      </c>
+      <c r="F236">
+        <v>21</v>
+      </c>
+      <c r="G236" t="s">
+        <v>78</v>
+      </c>
+      <c r="H236" t="s">
+        <v>77</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>2</v>
+      </c>
+      <c r="O236" t="s">
+        <v>106</v>
+      </c>
+      <c r="P236" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q236">
+        <v>2.59</v>
+      </c>
+      <c r="R236">
+        <v>2.21</v>
+      </c>
+      <c r="S236">
+        <v>4.4</v>
+      </c>
+      <c r="T236">
+        <v>1.43</v>
+      </c>
+      <c r="U236">
+        <v>2.81</v>
+      </c>
+      <c r="V236">
+        <v>2.75</v>
+      </c>
+      <c r="W236">
+        <v>1.35</v>
+      </c>
+      <c r="X236">
+        <v>8</v>
+      </c>
+      <c r="Y236">
+        <v>1.02</v>
+      </c>
+      <c r="Z236">
+        <v>1.95</v>
+      </c>
+      <c r="AA236">
+        <v>3.15</v>
+      </c>
+      <c r="AB236">
+        <v>4.1</v>
+      </c>
+      <c r="AC236">
+        <v>1.01</v>
+      </c>
+      <c r="AD236">
+        <v>8</v>
+      </c>
+      <c r="AE236">
+        <v>1.29</v>
+      </c>
+      <c r="AF236">
+        <v>3.1</v>
+      </c>
+      <c r="AG236">
+        <v>2.1</v>
+      </c>
+      <c r="AH236">
+        <v>1.72</v>
+      </c>
+      <c r="AI236">
+        <v>1.85</v>
+      </c>
+      <c r="AJ236">
+        <v>1.85</v>
+      </c>
+      <c r="AK236">
+        <v>1.3</v>
+      </c>
+      <c r="AL236">
+        <v>1.35</v>
+      </c>
+      <c r="AM236">
+        <v>1.8</v>
+      </c>
+      <c r="AN236">
+        <v>1.89</v>
+      </c>
+      <c r="AO236">
+        <v>0.7</v>
+      </c>
+      <c r="AP236">
+        <v>1.7</v>
+      </c>
+      <c r="AQ236">
+        <v>0.91</v>
+      </c>
+      <c r="AR236">
+        <v>1.36</v>
+      </c>
+      <c r="AS236">
+        <v>1.16</v>
+      </c>
+      <c r="AT236">
+        <v>2.52</v>
+      </c>
+      <c r="AU236">
+        <v>3</v>
+      </c>
+      <c r="AV236">
+        <v>3</v>
+      </c>
+      <c r="AW236">
+        <v>19</v>
+      </c>
+      <c r="AX236">
+        <v>5</v>
+      </c>
+      <c r="AY236">
+        <v>22</v>
+      </c>
+      <c r="AZ236">
+        <v>8</v>
+      </c>
+      <c r="BA236">
+        <v>6</v>
+      </c>
+      <c r="BB236">
+        <v>1</v>
+      </c>
+      <c r="BC236">
+        <v>7</v>
+      </c>
+      <c r="BD236">
+        <v>1.55</v>
+      </c>
+      <c r="BE236">
+        <v>7.5</v>
+      </c>
+      <c r="BF236">
+        <v>2.7</v>
+      </c>
+      <c r="BG236">
+        <v>1.24</v>
+      </c>
+      <c r="BH236">
+        <v>3.49</v>
+      </c>
+      <c r="BI236">
+        <v>1.46</v>
+      </c>
+      <c r="BJ236">
+        <v>2.55</v>
+      </c>
+      <c r="BK236">
+        <v>1.76</v>
+      </c>
+      <c r="BL236">
+        <v>2</v>
+      </c>
+      <c r="BM236">
+        <v>2.19</v>
+      </c>
+      <c r="BN236">
+        <v>1.63</v>
+      </c>
+      <c r="BO236">
+        <v>2.77</v>
+      </c>
+      <c r="BP236">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>8216821</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F237">
+        <v>21</v>
+      </c>
+      <c r="G237" t="s">
+        <v>91</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>256</v>
+      </c>
+      <c r="P237" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q237">
+        <v>4.18</v>
+      </c>
+      <c r="R237">
+        <v>2.09</v>
+      </c>
+      <c r="S237">
+        <v>2.7</v>
+      </c>
+      <c r="T237">
+        <v>1.4</v>
+      </c>
+      <c r="U237">
+        <v>2.77</v>
+      </c>
+      <c r="V237">
+        <v>2.8</v>
+      </c>
+      <c r="W237">
+        <v>1.38</v>
+      </c>
+      <c r="X237">
+        <v>6.9</v>
+      </c>
+      <c r="Y237">
+        <v>1.04</v>
+      </c>
+      <c r="Z237">
+        <v>3.25</v>
+      </c>
+      <c r="AA237">
+        <v>3.4</v>
+      </c>
+      <c r="AB237">
+        <v>2.1</v>
+      </c>
+      <c r="AC237">
+        <v>1.06</v>
+      </c>
+      <c r="AD237">
+        <v>9.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.3</v>
+      </c>
+      <c r="AF237">
+        <v>3.2</v>
+      </c>
+      <c r="AG237">
+        <v>1.95</v>
+      </c>
+      <c r="AH237">
+        <v>1.85</v>
+      </c>
+      <c r="AI237">
+        <v>1.67</v>
+      </c>
+      <c r="AJ237">
+        <v>2.05</v>
+      </c>
+      <c r="AK237">
+        <v>1.7</v>
+      </c>
+      <c r="AL237">
+        <v>1.3</v>
+      </c>
+      <c r="AM237">
+        <v>1.31</v>
+      </c>
+      <c r="AN237">
+        <v>1.56</v>
+      </c>
+      <c r="AO237">
+        <v>1.89</v>
+      </c>
+      <c r="AP237">
+        <v>1.4</v>
+      </c>
+      <c r="AQ237">
+        <v>2</v>
+      </c>
+      <c r="AR237">
+        <v>1.3</v>
+      </c>
+      <c r="AS237">
+        <v>1.31</v>
+      </c>
+      <c r="AT237">
+        <v>2.61</v>
+      </c>
+      <c r="AU237">
+        <v>3</v>
+      </c>
+      <c r="AV237">
+        <v>6</v>
+      </c>
+      <c r="AW237">
+        <v>15</v>
+      </c>
+      <c r="AX237">
+        <v>3</v>
+      </c>
+      <c r="AY237">
+        <v>18</v>
+      </c>
+      <c r="AZ237">
+        <v>9</v>
+      </c>
+      <c r="BA237">
+        <v>5</v>
+      </c>
+      <c r="BB237">
+        <v>0</v>
+      </c>
+      <c r="BC237">
+        <v>5</v>
+      </c>
+      <c r="BD237">
+        <v>2.31</v>
+      </c>
+      <c r="BE237">
+        <v>8</v>
+      </c>
+      <c r="BF237">
+        <v>1.82</v>
+      </c>
+      <c r="BG237">
+        <v>1.26</v>
+      </c>
+      <c r="BH237">
+        <v>3.15</v>
+      </c>
+      <c r="BI237">
+        <v>1.54</v>
+      </c>
+      <c r="BJ237">
+        <v>2.33</v>
+      </c>
+      <c r="BK237">
+        <v>2.18</v>
+      </c>
+      <c r="BL237">
+        <v>1.83</v>
+      </c>
+      <c r="BM237">
+        <v>2.39</v>
+      </c>
+      <c r="BN237">
+        <v>1.51</v>
+      </c>
+      <c r="BO237">
+        <v>3.12</v>
+      </c>
+      <c r="BP237">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>8216844</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F238">
+        <v>21</v>
+      </c>
+      <c r="G238" t="s">
+        <v>76</v>
+      </c>
+      <c r="H238" t="s">
+        <v>79</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>3</v>
+      </c>
+      <c r="K238">
+        <v>4</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>5</v>
+      </c>
+      <c r="N238">
+        <v>6</v>
+      </c>
+      <c r="O238" t="s">
+        <v>216</v>
+      </c>
+      <c r="P238" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q238">
+        <v>2.56</v>
+      </c>
+      <c r="R238">
+        <v>2.25</v>
+      </c>
+      <c r="S238">
+        <v>4.3</v>
+      </c>
+      <c r="T238">
+        <v>1.33</v>
+      </c>
+      <c r="U238">
+        <v>3.17</v>
+      </c>
+      <c r="V238">
+        <v>2.55</v>
+      </c>
+      <c r="W238">
+        <v>1.44</v>
+      </c>
+      <c r="X238">
+        <v>6.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.06</v>
+      </c>
+      <c r="Z238">
+        <v>1.88</v>
+      </c>
+      <c r="AA238">
+        <v>3.7</v>
+      </c>
+      <c r="AB238">
+        <v>3.7</v>
+      </c>
+      <c r="AC238">
+        <v>1.05</v>
+      </c>
+      <c r="AD238">
+        <v>11</v>
+      </c>
+      <c r="AE238">
+        <v>1.27</v>
+      </c>
+      <c r="AF238">
+        <v>3.85</v>
+      </c>
+      <c r="AG238">
+        <v>1.8</v>
+      </c>
+      <c r="AH238">
+        <v>1.97</v>
+      </c>
+      <c r="AI238">
+        <v>1.73</v>
+      </c>
+      <c r="AJ238">
+        <v>2</v>
+      </c>
+      <c r="AK238">
+        <v>1.26</v>
+      </c>
+      <c r="AL238">
+        <v>1.3</v>
+      </c>
+      <c r="AM238">
+        <v>1.85</v>
+      </c>
+      <c r="AN238">
+        <v>1.4</v>
+      </c>
+      <c r="AO238">
+        <v>1.2</v>
+      </c>
+      <c r="AP238">
+        <v>1.27</v>
+      </c>
+      <c r="AQ238">
+        <v>1.36</v>
+      </c>
+      <c r="AR238">
+        <v>1.34</v>
+      </c>
+      <c r="AS238">
+        <v>1.04</v>
+      </c>
+      <c r="AT238">
+        <v>2.38</v>
+      </c>
+      <c r="AU238">
+        <v>3</v>
+      </c>
+      <c r="AV238">
+        <v>7</v>
+      </c>
+      <c r="AW238">
+        <v>9</v>
+      </c>
+      <c r="AX238">
+        <v>7</v>
+      </c>
+      <c r="AY238">
+        <v>12</v>
+      </c>
+      <c r="AZ238">
+        <v>14</v>
+      </c>
+      <c r="BA238">
+        <v>15</v>
+      </c>
+      <c r="BB238">
+        <v>4</v>
+      </c>
+      <c r="BC238">
+        <v>19</v>
+      </c>
+      <c r="BD238">
+        <v>1.42</v>
+      </c>
+      <c r="BE238">
+        <v>8</v>
+      </c>
+      <c r="BF238">
+        <v>2.88</v>
+      </c>
+      <c r="BG238">
+        <v>1.21</v>
+      </c>
+      <c r="BH238">
+        <v>4.2</v>
+      </c>
+      <c r="BI238">
+        <v>1.4</v>
+      </c>
+      <c r="BJ238">
+        <v>2.73</v>
+      </c>
+      <c r="BK238">
+        <v>1.84</v>
+      </c>
+      <c r="BL238">
+        <v>2.13</v>
+      </c>
+      <c r="BM238">
+        <v>2.06</v>
+      </c>
+      <c r="BN238">
+        <v>1.72</v>
+      </c>
+      <c r="BO238">
+        <v>2.57</v>
+      </c>
+      <c r="BP238">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>8216879</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F239">
+        <v>21</v>
+      </c>
+      <c r="G239" t="s">
+        <v>72</v>
+      </c>
+      <c r="H239" t="s">
+        <v>74</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>3</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239" t="s">
+        <v>257</v>
+      </c>
+      <c r="P239" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q239">
+        <v>4.17</v>
+      </c>
+      <c r="R239">
+        <v>1.95</v>
+      </c>
+      <c r="S239">
+        <v>2.6</v>
+      </c>
+      <c r="T239">
+        <v>1.45</v>
+      </c>
+      <c r="U239">
+        <v>2.57</v>
+      </c>
+      <c r="V239">
+        <v>3.04</v>
+      </c>
+      <c r="W239">
+        <v>1.33</v>
+      </c>
+      <c r="X239">
+        <v>6.4</v>
+      </c>
+      <c r="Y239">
+        <v>1.03</v>
+      </c>
+      <c r="Z239">
+        <v>3.4</v>
+      </c>
+      <c r="AA239">
+        <v>3.25</v>
+      </c>
+      <c r="AB239">
+        <v>2.12</v>
+      </c>
+      <c r="AC239">
+        <v>1.03</v>
+      </c>
+      <c r="AD239">
+        <v>7.4</v>
+      </c>
+      <c r="AE239">
+        <v>1.33</v>
+      </c>
+      <c r="AF239">
+        <v>3.1</v>
+      </c>
+      <c r="AG239">
+        <v>2</v>
+      </c>
+      <c r="AH239">
+        <v>1.65</v>
+      </c>
+      <c r="AI239">
+        <v>1.77</v>
+      </c>
+      <c r="AJ239">
+        <v>1.85</v>
+      </c>
+      <c r="AK239">
+        <v>1.37</v>
+      </c>
+      <c r="AL239">
+        <v>1.25</v>
+      </c>
+      <c r="AM239">
+        <v>1.3</v>
+      </c>
+      <c r="AN239">
+        <v>1.6</v>
+      </c>
+      <c r="AO239">
+        <v>1</v>
+      </c>
+      <c r="AP239">
+        <v>1.45</v>
+      </c>
+      <c r="AQ239">
+        <v>1.18</v>
+      </c>
+      <c r="AR239">
+        <v>1.41</v>
+      </c>
+      <c r="AS239">
+        <v>1.36</v>
+      </c>
+      <c r="AT239">
+        <v>2.77</v>
+      </c>
+      <c r="AU239">
+        <v>1</v>
+      </c>
+      <c r="AV239">
+        <v>6</v>
+      </c>
+      <c r="AW239">
+        <v>3</v>
+      </c>
+      <c r="AX239">
+        <v>3</v>
+      </c>
+      <c r="AY239">
+        <v>4</v>
+      </c>
+      <c r="AZ239">
+        <v>9</v>
+      </c>
+      <c r="BA239">
+        <v>5</v>
+      </c>
+      <c r="BB239">
+        <v>4</v>
+      </c>
+      <c r="BC239">
+        <v>9</v>
+      </c>
+      <c r="BD239">
+        <v>2.2</v>
+      </c>
+      <c r="BE239">
+        <v>6.65</v>
+      </c>
+      <c r="BF239">
+        <v>1.83</v>
+      </c>
+      <c r="BG239">
+        <v>1.18</v>
+      </c>
+      <c r="BH239">
+        <v>3.5</v>
+      </c>
+      <c r="BI239">
+        <v>1.34</v>
+      </c>
+      <c r="BJ239">
+        <v>3</v>
+      </c>
+      <c r="BK239">
+        <v>1.59</v>
+      </c>
+      <c r="BL239">
+        <v>2.27</v>
+      </c>
+      <c r="BM239">
+        <v>1.93</v>
+      </c>
+      <c r="BN239">
+        <v>1.81</v>
+      </c>
+      <c r="BO239">
+        <v>2.4</v>
+      </c>
+      <c r="BP239">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>8216849</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F240">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>88</v>
+      </c>
+      <c r="H240" t="s">
+        <v>87</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>258</v>
+      </c>
+      <c r="P240" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q240">
+        <v>3.3</v>
+      </c>
+      <c r="R240">
+        <v>2.13</v>
+      </c>
+      <c r="S240">
+        <v>2.75</v>
+      </c>
+      <c r="T240">
+        <v>1.36</v>
+      </c>
+      <c r="U240">
+        <v>2.89</v>
+      </c>
+      <c r="V240">
+        <v>2.5</v>
+      </c>
+      <c r="W240">
+        <v>1.43</v>
+      </c>
+      <c r="X240">
+        <v>6</v>
+      </c>
+      <c r="Y240">
+        <v>1.07</v>
+      </c>
+      <c r="Z240">
+        <v>2.78</v>
+      </c>
+      <c r="AA240">
+        <v>3.45</v>
+      </c>
+      <c r="AB240">
+        <v>2.38</v>
+      </c>
+      <c r="AC240">
+        <v>1.05</v>
+      </c>
+      <c r="AD240">
+        <v>11</v>
+      </c>
+      <c r="AE240">
+        <v>1.22</v>
+      </c>
+      <c r="AF240">
+        <v>3.6</v>
+      </c>
+      <c r="AG240">
+        <v>1.81</v>
+      </c>
+      <c r="AH240">
+        <v>1.95</v>
+      </c>
+      <c r="AI240">
+        <v>1.63</v>
+      </c>
+      <c r="AJ240">
+        <v>2.14</v>
+      </c>
+      <c r="AK240">
+        <v>1.3</v>
+      </c>
+      <c r="AL240">
+        <v>1.3</v>
+      </c>
+      <c r="AM240">
+        <v>1.4</v>
+      </c>
+      <c r="AN240">
+        <v>1.56</v>
+      </c>
+      <c r="AO240">
+        <v>1.33</v>
+      </c>
+      <c r="AP240">
+        <v>1.7</v>
+      </c>
+      <c r="AQ240">
+        <v>1.2</v>
+      </c>
+      <c r="AR240">
+        <v>1.36</v>
+      </c>
+      <c r="AS240">
+        <v>1.4</v>
+      </c>
+      <c r="AT240">
+        <v>2.76</v>
+      </c>
+      <c r="AU240">
+        <v>7</v>
+      </c>
+      <c r="AV240">
+        <v>1</v>
+      </c>
+      <c r="AW240">
+        <v>9</v>
+      </c>
+      <c r="AX240">
+        <v>8</v>
+      </c>
+      <c r="AY240">
+        <v>16</v>
+      </c>
+      <c r="AZ240">
+        <v>9</v>
+      </c>
+      <c r="BA240">
+        <v>6</v>
+      </c>
+      <c r="BB240">
+        <v>3</v>
+      </c>
+      <c r="BC240">
+        <v>9</v>
+      </c>
+      <c r="BD240">
+        <v>2.15</v>
+      </c>
+      <c r="BE240">
+        <v>6.45</v>
+      </c>
+      <c r="BF240">
+        <v>2</v>
+      </c>
+      <c r="BG240">
+        <v>1.19</v>
+      </c>
+      <c r="BH240">
+        <v>3.95</v>
+      </c>
+      <c r="BI240">
+        <v>1.33</v>
+      </c>
+      <c r="BJ240">
+        <v>2.82</v>
+      </c>
+      <c r="BK240">
+        <v>1.59</v>
+      </c>
+      <c r="BL240">
+        <v>2.2</v>
+      </c>
+      <c r="BM240">
+        <v>2.05</v>
+      </c>
+      <c r="BN240">
+        <v>1.76</v>
+      </c>
+      <c r="BO240">
+        <v>2.6</v>
+      </c>
+      <c r="BP240">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>8216880</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F241">
+        <v>21</v>
+      </c>
+      <c r="G241" t="s">
+        <v>93</v>
+      </c>
+      <c r="H241" t="s">
+        <v>86</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241">
+        <v>3</v>
+      </c>
+      <c r="O241" t="s">
+        <v>259</v>
+      </c>
+      <c r="P241" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q241">
+        <v>3.1</v>
+      </c>
+      <c r="R241">
+        <v>2</v>
+      </c>
+      <c r="S241">
+        <v>3.1</v>
+      </c>
+      <c r="T241">
+        <v>1.39</v>
+      </c>
+      <c r="U241">
+        <v>2.7</v>
+      </c>
+      <c r="V241">
+        <v>2.81</v>
+      </c>
+      <c r="W241">
+        <v>1.4</v>
+      </c>
+      <c r="X241">
+        <v>6.9</v>
+      </c>
+      <c r="Y241">
+        <v>1.08</v>
+      </c>
+      <c r="Z241">
+        <v>2.8</v>
+      </c>
+      <c r="AA241">
+        <v>3.45</v>
+      </c>
+      <c r="AB241">
+        <v>2.6</v>
+      </c>
+      <c r="AC241">
+        <v>1.01</v>
+      </c>
+      <c r="AD241">
+        <v>8.9</v>
+      </c>
+      <c r="AE241">
+        <v>1.3</v>
+      </c>
+      <c r="AF241">
+        <v>3.3</v>
+      </c>
+      <c r="AG241">
+        <v>1.99</v>
+      </c>
+      <c r="AH241">
+        <v>1.8</v>
+      </c>
+      <c r="AI241">
+        <v>1.73</v>
+      </c>
+      <c r="AJ241">
+        <v>2.05</v>
+      </c>
+      <c r="AK241">
+        <v>1.33</v>
+      </c>
+      <c r="AL241">
+        <v>1.25</v>
+      </c>
+      <c r="AM241">
+        <v>1.44</v>
+      </c>
+      <c r="AN241">
+        <v>1.7</v>
+      </c>
+      <c r="AO241">
+        <v>1.11</v>
+      </c>
+      <c r="AP241">
+        <v>1.82</v>
+      </c>
+      <c r="AQ241">
+        <v>1</v>
+      </c>
+      <c r="AR241">
+        <v>1.76</v>
+      </c>
+      <c r="AS241">
+        <v>1.73</v>
+      </c>
+      <c r="AT241">
+        <v>3.49</v>
+      </c>
+      <c r="AU241">
+        <v>3</v>
+      </c>
+      <c r="AV241">
+        <v>1</v>
+      </c>
+      <c r="AW241">
+        <v>7</v>
+      </c>
+      <c r="AX241">
+        <v>14</v>
+      </c>
+      <c r="AY241">
+        <v>10</v>
+      </c>
+      <c r="AZ241">
+        <v>15</v>
+      </c>
+      <c r="BA241">
+        <v>5</v>
+      </c>
+      <c r="BB241">
+        <v>7</v>
+      </c>
+      <c r="BC241">
+        <v>12</v>
+      </c>
+      <c r="BD241">
+        <v>1.95</v>
+      </c>
+      <c r="BE241">
+        <v>7.5</v>
+      </c>
+      <c r="BF241">
+        <v>2.14</v>
+      </c>
+      <c r="BG241">
+        <v>1.26</v>
+      </c>
+      <c r="BH241">
+        <v>3.37</v>
+      </c>
+      <c r="BI241">
+        <v>1.48</v>
+      </c>
+      <c r="BJ241">
+        <v>2.47</v>
+      </c>
+      <c r="BK241">
+        <v>1.8</v>
+      </c>
+      <c r="BL241">
+        <v>1.88</v>
+      </c>
+      <c r="BM241">
+        <v>2.25</v>
+      </c>
+      <c r="BN241">
+        <v>1.6</v>
+      </c>
+      <c r="BO241">
+        <v>2.85</v>
+      </c>
+      <c r="BP241">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>8216867</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F242">
+        <v>21</v>
+      </c>
+      <c r="G242" t="s">
+        <v>82</v>
+      </c>
+      <c r="H242" t="s">
+        <v>84</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>106</v>
+      </c>
+      <c r="P242" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q242">
+        <v>2.95</v>
+      </c>
+      <c r="R242">
+        <v>2.11</v>
+      </c>
+      <c r="S242">
+        <v>3.25</v>
+      </c>
+      <c r="T242">
+        <v>1.36</v>
+      </c>
+      <c r="U242">
+        <v>2.88</v>
+      </c>
+      <c r="V242">
+        <v>2.7</v>
+      </c>
+      <c r="W242">
+        <v>1.44</v>
+      </c>
+      <c r="X242">
+        <v>6.05</v>
+      </c>
+      <c r="Y242">
+        <v>1.09</v>
+      </c>
+      <c r="Z242">
+        <v>2.28</v>
+      </c>
+      <c r="AA242">
+        <v>3.45</v>
+      </c>
+      <c r="AB242">
+        <v>2.92</v>
+      </c>
+      <c r="AC242">
+        <v>1.01</v>
+      </c>
+      <c r="AD242">
+        <v>9</v>
+      </c>
+      <c r="AE242">
+        <v>1.22</v>
+      </c>
+      <c r="AF242">
+        <v>3.54</v>
+      </c>
+      <c r="AG242">
+        <v>1.83</v>
+      </c>
+      <c r="AH242">
+        <v>2</v>
+      </c>
+      <c r="AI242">
+        <v>1.74</v>
+      </c>
+      <c r="AJ242">
+        <v>2.25</v>
+      </c>
+      <c r="AK242">
+        <v>1.25</v>
+      </c>
+      <c r="AL242">
+        <v>1.3</v>
+      </c>
+      <c r="AM242">
+        <v>1.57</v>
+      </c>
+      <c r="AN242">
+        <v>0.67</v>
+      </c>
+      <c r="AO242">
+        <v>1</v>
+      </c>
+      <c r="AP242">
+        <v>0.6</v>
+      </c>
+      <c r="AQ242">
+        <v>1.2</v>
+      </c>
+      <c r="AR242">
+        <v>1.54</v>
+      </c>
+      <c r="AS242">
+        <v>1.05</v>
+      </c>
+      <c r="AT242">
+        <v>2.59</v>
+      </c>
+      <c r="AU242">
+        <v>2</v>
+      </c>
+      <c r="AV242">
+        <v>6</v>
+      </c>
+      <c r="AW242">
+        <v>10</v>
+      </c>
+      <c r="AX242">
+        <v>7</v>
+      </c>
+      <c r="AY242">
+        <v>12</v>
+      </c>
+      <c r="AZ242">
+        <v>13</v>
+      </c>
+      <c r="BA242">
+        <v>8</v>
+      </c>
+      <c r="BB242">
+        <v>5</v>
+      </c>
+      <c r="BC242">
+        <v>13</v>
+      </c>
+      <c r="BD242">
+        <v>1.74</v>
+      </c>
+      <c r="BE242">
+        <v>7.5</v>
+      </c>
+      <c r="BF242">
+        <v>2.35</v>
+      </c>
+      <c r="BG242">
+        <v>1.25</v>
+      </c>
+      <c r="BH242">
+        <v>3.44</v>
+      </c>
+      <c r="BI242">
+        <v>1.46</v>
+      </c>
+      <c r="BJ242">
+        <v>2.52</v>
+      </c>
+      <c r="BK242">
+        <v>2.01</v>
+      </c>
+      <c r="BL242">
+        <v>2.01</v>
+      </c>
+      <c r="BM242">
+        <v>2.22</v>
+      </c>
+      <c r="BN242">
+        <v>1.62</v>
+      </c>
+      <c r="BO242">
+        <v>2.7</v>
+      </c>
+      <c r="BP242">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>8216872</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F243">
+        <v>21</v>
+      </c>
+      <c r="G243" t="s">
+        <v>80</v>
+      </c>
+      <c r="H243" t="s">
+        <v>71</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>260</v>
+      </c>
+      <c r="P243" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q243">
+        <v>2.8</v>
+      </c>
+      <c r="R243">
+        <v>2.05</v>
+      </c>
+      <c r="S243">
+        <v>3.3</v>
+      </c>
+      <c r="T243">
+        <v>1.35</v>
+      </c>
+      <c r="U243">
+        <v>2.81</v>
+      </c>
+      <c r="V243">
+        <v>2.73</v>
+      </c>
+      <c r="W243">
+        <v>1.39</v>
+      </c>
+      <c r="X243">
+        <v>6.1</v>
+      </c>
+      <c r="Y243">
+        <v>1.04</v>
+      </c>
+      <c r="Z243">
+        <v>2.28</v>
+      </c>
+      <c r="AA243">
+        <v>3.35</v>
+      </c>
+      <c r="AB243">
+        <v>2.9</v>
+      </c>
+      <c r="AC243">
+        <v>1</v>
+      </c>
+      <c r="AD243">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE243">
+        <v>1.26</v>
+      </c>
+      <c r="AF243">
+        <v>3.38</v>
+      </c>
+      <c r="AG243">
+        <v>1.81</v>
+      </c>
+      <c r="AH243">
+        <v>2.05</v>
+      </c>
+      <c r="AI243">
+        <v>1.62</v>
+      </c>
+      <c r="AJ243">
+        <v>2.02</v>
+      </c>
+      <c r="AK243">
+        <v>1.33</v>
+      </c>
+      <c r="AL243">
+        <v>1.34</v>
+      </c>
+      <c r="AM243">
+        <v>1.5</v>
+      </c>
+      <c r="AN243">
+        <v>2.3</v>
+      </c>
+      <c r="AO243">
+        <v>1.89</v>
+      </c>
+      <c r="AP243">
+        <v>2.36</v>
+      </c>
+      <c r="AQ243">
+        <v>1.7</v>
+      </c>
+      <c r="AR243">
+        <v>1.39</v>
+      </c>
+      <c r="AS243">
+        <v>1.41</v>
+      </c>
+      <c r="AT243">
+        <v>2.8</v>
+      </c>
+      <c r="AU243">
+        <v>7</v>
+      </c>
+      <c r="AV243">
+        <v>4</v>
+      </c>
+      <c r="AW243">
+        <v>11</v>
+      </c>
+      <c r="AX243">
+        <v>7</v>
+      </c>
+      <c r="AY243">
+        <v>18</v>
+      </c>
+      <c r="AZ243">
+        <v>11</v>
+      </c>
+      <c r="BA243">
+        <v>4</v>
+      </c>
+      <c r="BB243">
+        <v>3</v>
+      </c>
+      <c r="BC243">
+        <v>7</v>
+      </c>
+      <c r="BD243">
+        <v>2.1</v>
+      </c>
+      <c r="BE243">
+        <v>8.5</v>
+      </c>
+      <c r="BF243">
+        <v>1.91</v>
+      </c>
+      <c r="BG243">
+        <v>1.28</v>
+      </c>
+      <c r="BH243">
+        <v>3.42</v>
+      </c>
+      <c r="BI243">
+        <v>1.52</v>
+      </c>
+      <c r="BJ243">
+        <v>2.44</v>
+      </c>
+      <c r="BK243">
+        <v>1.82</v>
+      </c>
+      <c r="BL243">
+        <v>1.86</v>
+      </c>
+      <c r="BM243">
+        <v>2.31</v>
+      </c>
+      <c r="BN243">
+        <v>1.6</v>
+      </c>
+      <c r="BO243">
+        <v>3.08</v>
+      </c>
+      <c r="BP243">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>8216871</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>46011.5</v>
+      </c>
+      <c r="F244">
+        <v>21</v>
+      </c>
+      <c r="G244" t="s">
+        <v>92</v>
+      </c>
+      <c r="H244" t="s">
+        <v>75</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>261</v>
+      </c>
+      <c r="P244" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q244">
+        <v>3.3</v>
+      </c>
+      <c r="R244">
+        <v>2.29</v>
+      </c>
+      <c r="S244">
+        <v>2.99</v>
+      </c>
+      <c r="T244">
+        <v>1.36</v>
+      </c>
+      <c r="U244">
+        <v>2.89</v>
+      </c>
+      <c r="V244">
+        <v>2.62</v>
+      </c>
+      <c r="W244">
+        <v>1.44</v>
+      </c>
+      <c r="X244">
+        <v>5.95</v>
+      </c>
+      <c r="Y244">
+        <v>1.07</v>
+      </c>
+      <c r="Z244">
+        <v>2.8</v>
+      </c>
+      <c r="AA244">
+        <v>3.32</v>
+      </c>
+      <c r="AB244">
+        <v>2.42</v>
+      </c>
+      <c r="AC244">
+        <v>1.04</v>
+      </c>
+      <c r="AD244">
+        <v>9</v>
+      </c>
+      <c r="AE244">
+        <v>1.22</v>
+      </c>
+      <c r="AF244">
+        <v>3.8</v>
+      </c>
+      <c r="AG244">
+        <v>1.92</v>
+      </c>
+      <c r="AH244">
+        <v>2</v>
+      </c>
+      <c r="AI244">
+        <v>1.6</v>
+      </c>
+      <c r="AJ244">
+        <v>2.25</v>
+      </c>
+      <c r="AK244">
+        <v>1.33</v>
+      </c>
+      <c r="AL244">
+        <v>1.28</v>
+      </c>
+      <c r="AM244">
+        <v>1.4</v>
+      </c>
+      <c r="AN244">
+        <v>1.6</v>
+      </c>
+      <c r="AO244">
+        <v>1.56</v>
+      </c>
+      <c r="AP244">
+        <v>1.73</v>
+      </c>
+      <c r="AQ244">
+        <v>1.4</v>
+      </c>
+      <c r="AR244">
+        <v>1.16</v>
+      </c>
+      <c r="AS244">
+        <v>1.28</v>
+      </c>
+      <c r="AT244">
+        <v>2.44</v>
+      </c>
+      <c r="AU244">
+        <v>5</v>
+      </c>
+      <c r="AV244">
+        <v>8</v>
+      </c>
+      <c r="AW244">
+        <v>9</v>
+      </c>
+      <c r="AX244">
+        <v>10</v>
+      </c>
+      <c r="AY244">
+        <v>14</v>
+      </c>
+      <c r="AZ244">
+        <v>18</v>
+      </c>
+      <c r="BA244">
+        <v>2</v>
+      </c>
+      <c r="BB244">
+        <v>9</v>
+      </c>
+      <c r="BC244">
+        <v>11</v>
+      </c>
+      <c r="BD244">
+        <v>1.8</v>
+      </c>
+      <c r="BE244">
+        <v>7.5</v>
+      </c>
+      <c r="BF244">
+        <v>2.2</v>
+      </c>
+      <c r="BG244">
+        <v>1.26</v>
+      </c>
+      <c r="BH244">
+        <v>3.4</v>
+      </c>
+      <c r="BI244">
+        <v>1.42</v>
+      </c>
+      <c r="BJ244">
+        <v>2.55</v>
+      </c>
+      <c r="BK244">
+        <v>1.79</v>
+      </c>
+      <c r="BL244">
+        <v>1.96</v>
+      </c>
+      <c r="BM244">
+        <v>2.24</v>
+      </c>
+      <c r="BN244">
+        <v>1.6</v>
+      </c>
+      <c r="BO244">
+        <v>2.8</v>
+      </c>
+      <c r="BP244">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -52379,22 +52379,22 @@
         <v>2.59</v>
       </c>
       <c r="AU238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV238" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW238" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX238" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY238" t="n">
         <v>12</v>
       </c>
       <c r="AZ238" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA238" t="n">
         <v>8</v>
@@ -53039,13 +53039,13 @@
         <v>1</v>
       </c>
       <c r="AW241" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX241" t="n">
         <v>8</v>
       </c>
       <c r="AY241" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ241" t="n">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP244"/>
+  <dimension ref="A1:BP256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.18</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.2</v>
@@ -1355,7 +1355,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.2</v>
@@ -2663,7 +2663,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.27</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.36</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.3</v>
@@ -5497,7 +5497,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR26" t="n">
         <v>1.96</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR27" t="n">
         <v>1.54</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.18</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.27</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR35" t="n">
         <v>1.89</v>
@@ -8549,7 +8549,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR37" t="n">
         <v>1.61</v>
@@ -8767,7 +8767,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR38" t="n">
         <v>0.62</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.2</v>
@@ -9203,7 +9203,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR40" t="n">
         <v>1.68</v>
@@ -9421,7 +9421,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR41" t="n">
         <v>1.5</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR42" t="n">
         <v>0.91</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.7</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR44" t="n">
         <v>1.58</v>
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.4</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR48" t="n">
         <v>1.33</v>
@@ -11165,7 +11165,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR49" t="n">
         <v>1.3</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.7</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.3</v>
@@ -12037,7 +12037,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR53" t="n">
         <v>1.61</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.4</v>
@@ -12473,7 +12473,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR55" t="n">
         <v>1.4</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.2</v>
@@ -12909,7 +12909,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.92</v>
@@ -13124,10 +13124,10 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13345,7 +13345,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR59" t="n">
         <v>0.9</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.91</v>
@@ -13781,7 +13781,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.36</v>
@@ -14217,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR63" t="n">
         <v>1.16</v>
@@ -14432,7 +14432,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.18</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.27</v>
@@ -14868,7 +14868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.18</v>
@@ -15525,7 +15525,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR69" t="n">
         <v>1.21</v>
@@ -15961,7 +15961,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.44</v>
@@ -16179,7 +16179,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR72" t="n">
         <v>1.29</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.2</v>
@@ -16830,7 +16830,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ75" t="n">
         <v>2</v>
@@ -17051,7 +17051,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR76" t="n">
         <v>1.84</v>
@@ -17269,7 +17269,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.18</v>
@@ -17705,7 +17705,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR79" t="n">
         <v>1.55</v>
@@ -17923,7 +17923,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR80" t="n">
         <v>1.45</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.18</v>
@@ -18577,7 +18577,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR83" t="n">
         <v>1.44</v>
@@ -18792,10 +18792,10 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,10 +19010,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR85" t="n">
         <v>1.4</v>
@@ -19228,7 +19228,7 @@
         <v>2.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.7</v>
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.36</v>
@@ -19664,10 +19664,10 @@
         <v>0.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -20103,7 +20103,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -20318,10 +20318,10 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>1.18</v>
@@ -20539,7 +20539,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR92" t="n">
         <v>1.59</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR94" t="n">
         <v>2.01</v>
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.2</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR96" t="n">
         <v>1.22</v>
@@ -21629,7 +21629,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.3</v>
@@ -22065,7 +22065,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR99" t="n">
         <v>1.65</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.4</v>
@@ -22937,7 +22937,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR103" t="n">
         <v>1.24</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.2</v>
@@ -23373,7 +23373,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR105" t="n">
         <v>1.13</v>
@@ -23588,10 +23588,10 @@
         <v>0.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -24242,10 +24242,10 @@
         <v>0.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -24460,7 +24460,7 @@
         <v>0.75</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.36</v>
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.91</v>
@@ -25114,10 +25114,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR113" t="n">
         <v>1.87</v>
@@ -25332,10 +25332,10 @@
         <v>1.75</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR114" t="n">
         <v>1.17</v>
@@ -25553,7 +25553,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR115" t="n">
         <v>1.38</v>
@@ -25768,10 +25768,10 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -25986,7 +25986,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.27</v>
@@ -26204,7 +26204,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.3</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.18</v>
@@ -27294,7 +27294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ123" t="n">
         <v>2</v>
@@ -27515,7 +27515,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27733,7 +27733,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR125" t="n">
         <v>1.3</v>
@@ -27951,7 +27951,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR126" t="n">
         <v>1.28</v>
@@ -28384,10 +28384,10 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR128" t="n">
         <v>2.04</v>
@@ -28602,7 +28602,7 @@
         <v>0.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.2</v>
@@ -28820,10 +28820,10 @@
         <v>0.4</v>
       </c>
       <c r="AP130" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR130" t="n">
         <v>1.54</v>
@@ -29041,7 +29041,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR131" t="n">
         <v>1.06</v>
@@ -29259,7 +29259,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR132" t="n">
         <v>1.43</v>
@@ -29474,10 +29474,10 @@
         <v>1.4</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR133" t="n">
         <v>1.3</v>
@@ -29692,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.91</v>
@@ -29913,7 +29913,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR135" t="n">
         <v>1.06</v>
@@ -30131,7 +30131,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR136" t="n">
         <v>1.45</v>
@@ -30346,7 +30346,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ137" t="n">
         <v>1</v>
@@ -30564,7 +30564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.2</v>
@@ -31003,7 +31003,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR140" t="n">
         <v>1.37</v>
@@ -31218,7 +31218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.2</v>
@@ -31439,7 +31439,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR142" t="n">
         <v>1.38</v>
@@ -31657,7 +31657,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR143" t="n">
         <v>1.43</v>
@@ -31872,10 +31872,10 @@
         <v>0.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR144" t="n">
         <v>2</v>
@@ -32090,10 +32090,10 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR145" t="n">
         <v>0.96</v>
@@ -32308,10 +32308,10 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR146" t="n">
         <v>1.6</v>
@@ -32526,7 +32526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.18</v>
@@ -32744,10 +32744,10 @@
         <v>0.83</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR148" t="n">
         <v>1.71</v>
@@ -32965,7 +32965,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR149" t="n">
         <v>1.35</v>
@@ -33183,7 +33183,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -33619,7 +33619,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR152" t="n">
         <v>1.44</v>
@@ -33834,7 +33834,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.7</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.3</v>
@@ -34706,10 +34706,10 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR157" t="n">
         <v>1.31</v>
@@ -34927,7 +34927,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR158" t="n">
         <v>1.12</v>
@@ -35360,7 +35360,7 @@
         <v>0</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.91</v>
@@ -35581,7 +35581,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR161" t="n">
         <v>1.39</v>
@@ -36232,10 +36232,10 @@
         <v>1.67</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR164" t="n">
         <v>1.77</v>
@@ -36671,7 +36671,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR166" t="n">
         <v>1.43</v>
@@ -36889,7 +36889,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR167" t="n">
         <v>1.02</v>
@@ -37107,7 +37107,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR168" t="n">
         <v>1.81</v>
@@ -37325,7 +37325,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR169" t="n">
         <v>1.28</v>
@@ -37543,7 +37543,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37758,7 +37758,7 @@
         <v>1.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.18</v>
@@ -37976,7 +37976,7 @@
         <v>1.43</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.27</v>
@@ -38194,10 +38194,10 @@
         <v>1.14</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR173" t="n">
         <v>1.88</v>
@@ -38412,7 +38412,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.3</v>
@@ -38630,7 +38630,7 @@
         <v>1.83</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.7</v>
@@ -39066,7 +39066,7 @@
         <v>0.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.36</v>
@@ -39287,7 +39287,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR178" t="n">
         <v>1.42</v>
@@ -39502,7 +39502,7 @@
         <v>0.43</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.91</v>
@@ -39720,10 +39720,10 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR180" t="n">
         <v>1.68</v>
@@ -39941,7 +39941,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR181" t="n">
         <v>1.58</v>
@@ -40159,7 +40159,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR182" t="n">
         <v>1.15</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ183" t="n">
         <v>2</v>
@@ -41028,7 +41028,7 @@
         <v>1.43</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.4</v>
@@ -41246,10 +41246,10 @@
         <v>0.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR187" t="n">
         <v>1.28</v>
@@ -41467,7 +41467,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR188" t="n">
         <v>1.4</v>
@@ -41685,7 +41685,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR189" t="n">
         <v>1.82</v>
@@ -41903,7 +41903,7 @@
         <v>2</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR190" t="n">
         <v>1.28</v>
@@ -42554,7 +42554,7 @@
         <v>1.63</v>
       </c>
       <c r="AP193" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.27</v>
@@ -42772,10 +42772,10 @@
         <v>1.43</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR194" t="n">
         <v>1.32</v>
@@ -42990,7 +42990,7 @@
         <v>1.29</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.18</v>
@@ -43208,7 +43208,7 @@
         <v>1.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.2</v>
@@ -43426,10 +43426,10 @@
         <v>0.57</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR197" t="n">
         <v>1.09</v>
@@ -43644,7 +43644,7 @@
         <v>0.86</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ198" t="n">
         <v>1</v>
@@ -43862,10 +43862,10 @@
         <v>0.75</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44080,10 +44080,10 @@
         <v>1</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR200" t="n">
         <v>1.89</v>
@@ -44298,10 +44298,10 @@
         <v>0.75</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR201" t="n">
         <v>1.47</v>
@@ -44737,7 +44737,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR203" t="n">
         <v>1.39</v>
@@ -44952,7 +44952,7 @@
         <v>1.5</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.18</v>
@@ -45170,10 +45170,10 @@
         <v>1</v>
       </c>
       <c r="AP205" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR205" t="n">
         <v>1.44</v>
@@ -45391,7 +45391,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR206" t="n">
         <v>1.39</v>
@@ -45609,7 +45609,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR207" t="n">
         <v>1.31</v>
@@ -46042,7 +46042,7 @@
         <v>1.38</v>
       </c>
       <c r="AP209" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.4</v>
@@ -46260,7 +46260,7 @@
         <v>1.13</v>
       </c>
       <c r="AP210" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.18</v>
@@ -48658,10 +48658,10 @@
         <v>0.89</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR221" t="n">
         <v>1.23</v>
@@ -48876,10 +48876,10 @@
         <v>0.89</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR222" t="n">
         <v>1.72</v>
@@ -49094,10 +49094,10 @@
         <v>1.22</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR223" t="n">
         <v>1.14</v>
@@ -49312,10 +49312,10 @@
         <v>0.88</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ224" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR224" t="n">
         <v>1.65</v>
@@ -49530,10 +49530,10 @@
         <v>0.89</v>
       </c>
       <c r="AP225" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR225" t="n">
         <v>1.39</v>
@@ -49748,10 +49748,10 @@
         <v>0.78</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR226" t="n">
         <v>1.39</v>
@@ -49966,10 +49966,10 @@
         <v>0.89</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR227" t="n">
         <v>1.92</v>
@@ -50184,10 +50184,10 @@
         <v>0.67</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR228" t="n">
         <v>1.87</v>
@@ -50402,10 +50402,10 @@
         <v>0.89</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR229" t="n">
         <v>1.69</v>
@@ -50620,10 +50620,10 @@
         <v>1.56</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR230" t="n">
         <v>1.51</v>
@@ -50838,10 +50838,10 @@
         <v>1.25</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR231" t="n">
         <v>1.29</v>
@@ -51056,10 +51056,10 @@
         <v>1</v>
       </c>
       <c r="AP232" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR232" t="n">
         <v>1.42</v>
@@ -53751,6 +53751,2622 @@
       </c>
       <c r="BP244" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8216886</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>22</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S245" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U245" t="n">
+        <v>3</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X245" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>8216884</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F246" t="n">
+        <v>22</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>3</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['45', '90']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S246" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X246" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8216890</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>22</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>3</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['28', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R247" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S247" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V247" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X247" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8216883</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>22</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>4</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>5</v>
+      </c>
+      <c r="L248" t="n">
+        <v>5</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="n">
+        <v>6</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['3', '23', '28', '44', '84']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S248" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V248" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X248" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL248" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8216882</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>22</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S249" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X249" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN249" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8216888</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>22</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>3</v>
+      </c>
+      <c r="K250" t="n">
+        <v>3</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>4</v>
+      </c>
+      <c r="N250" t="n">
+        <v>5</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['14', '18', '20', '86']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S250" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X250" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN250" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>8216885</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>22</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>4</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>4</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['7', '44', '70', '78']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="R251" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S251" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X251" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN251" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>8216868</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F252" t="n">
+        <v>22</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>3</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['45+1', '90+3']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S252" t="n">
+        <v>6</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="V252" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X252" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8216713</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>22</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>3</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>3</v>
+      </c>
+      <c r="L253" t="n">
+        <v>5</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>5</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['5', '15', '32', '50', '58']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S253" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X253" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>8216829</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F254" t="n">
+        <v>22</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S254" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V254" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X254" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN254" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO254" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP254" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>8216881</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>22</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R255" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U255" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="V255" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X255" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL255" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN255" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO255" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP255" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>8216746</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>46017.5</v>
+      </c>
+      <c r="F256" t="n">
+        <v>22</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>2</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K256" t="n">
+        <v>3</v>
+      </c>
+      <c r="L256" t="n">
+        <v>2</v>
+      </c>
+      <c r="M256" t="n">
+        <v>3</v>
+      </c>
+      <c r="N256" t="n">
+        <v>5</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['2', '13']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['25', '58', '83']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S256" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U256" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X256" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN256" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -54347,16 +54347,16 @@
         <v>5</v>
       </c>
       <c r="AW247" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX247" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY247" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ247" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA247" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -53911,13 +53911,13 @@
         <v>1</v>
       </c>
       <c r="AW245" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX245" t="n">
         <v>5</v>
       </c>
       <c r="AY245" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ245" t="n">
         <v>6</v>
@@ -54998,19 +54998,19 @@
         <v>2</v>
       </c>
       <c r="AV250" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW250" t="n">
         <v>6</v>
       </c>
       <c r="AX250" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY250" t="n">
         <v>8</v>
       </c>
       <c r="AZ250" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA250" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -55440,13 +55440,13 @@
         <v>16</v>
       </c>
       <c r="AX252" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY252" t="n">
         <v>28</v>
       </c>
       <c r="AZ252" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA252" t="n">
         <v>9</v>
@@ -55649,7 +55649,7 @@
         <v>2.97</v>
       </c>
       <c r="AU253" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV253" t="n">
         <v>0</v>
@@ -55661,7 +55661,7 @@
         <v>9</v>
       </c>
       <c r="AY253" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ253" t="n">
         <v>9</v>
@@ -56094,13 +56094,13 @@
         <v>9</v>
       </c>
       <c r="AX255" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY255" t="n">
         <v>13</v>
       </c>
       <c r="AZ255" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA255" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP256"/>
+  <dimension ref="A1:BP268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.18</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.2</v>
@@ -1573,7 +1573,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.2</v>
@@ -2663,7 +2663,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.27</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.36</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.3</v>
@@ -5497,7 +5497,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1.36</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR26" t="n">
         <v>1.96</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR27" t="n">
         <v>1.54</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.18</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.27</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR35" t="n">
         <v>1.89</v>
@@ -8549,7 +8549,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR37" t="n">
         <v>1.61</v>
@@ -8767,7 +8767,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR38" t="n">
         <v>0.62</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.2</v>
@@ -9203,7 +9203,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR40" t="n">
         <v>1.68</v>
@@ -9421,7 +9421,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1.5</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>0.91</v>
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.7</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR44" t="n">
         <v>1.58</v>
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.4</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ48" t="n">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.3</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.7</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.3</v>
@@ -12037,7 +12037,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR53" t="n">
         <v>1.61</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.4</v>
@@ -12473,7 +12473,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR55" t="n">
         <v>1.4</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.2</v>
@@ -13124,10 +13124,10 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13345,7 +13345,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR59" t="n">
         <v>0.9</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.91</v>
@@ -13781,7 +13781,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.36</v>
@@ -14217,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR63" t="n">
         <v>1.16</v>
@@ -14432,7 +14432,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.18</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.27</v>
@@ -14868,7 +14868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.18</v>
@@ -15525,7 +15525,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR69" t="n">
         <v>1.21</v>
@@ -15961,7 +15961,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR71" t="n">
         <v>1.44</v>
@@ -16179,7 +16179,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR72" t="n">
         <v>1.29</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.2</v>
@@ -16830,7 +16830,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ75" t="n">
         <v>2</v>
@@ -17051,7 +17051,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR76" t="n">
         <v>1.84</v>
@@ -17269,7 +17269,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.18</v>
@@ -17705,7 +17705,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR79" t="n">
         <v>1.55</v>
@@ -17923,7 +17923,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR80" t="n">
         <v>1.45</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.18</v>
@@ -18577,7 +18577,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR83" t="n">
         <v>1.44</v>
@@ -18792,10 +18792,10 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,10 +19010,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR85" t="n">
         <v>1.4</v>
@@ -19228,7 +19228,7 @@
         <v>2.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.7</v>
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.36</v>
@@ -19664,10 +19664,10 @@
         <v>0.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -20103,7 +20103,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20539,7 +20539,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR92" t="n">
         <v>1.59</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR94" t="n">
         <v>2.01</v>
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.2</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR96" t="n">
         <v>1.22</v>
@@ -21629,7 +21629,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.3</v>
@@ -22065,7 +22065,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR99" t="n">
         <v>1.65</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.4</v>
@@ -22937,7 +22937,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR103" t="n">
         <v>1.24</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.2</v>
@@ -23373,7 +23373,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR105" t="n">
         <v>1.13</v>
@@ -23588,10 +23588,10 @@
         <v>0.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -24242,7 +24242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109" t="n">
         <v>1</v>
@@ -24460,7 +24460,7 @@
         <v>0.75</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.36</v>
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.91</v>
@@ -25114,10 +25114,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR113" t="n">
         <v>1.87</v>
@@ -25332,10 +25332,10 @@
         <v>1.75</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR114" t="n">
         <v>1.17</v>
@@ -25553,7 +25553,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR115" t="n">
         <v>1.38</v>
@@ -25768,10 +25768,10 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -25986,7 +25986,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.27</v>
@@ -26204,7 +26204,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.3</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.18</v>
@@ -27294,7 +27294,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ123" t="n">
         <v>2</v>
@@ -27515,7 +27515,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27733,7 +27733,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR125" t="n">
         <v>1.3</v>
@@ -27951,7 +27951,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR126" t="n">
         <v>1.28</v>
@@ -28384,10 +28384,10 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR128" t="n">
         <v>2.04</v>
@@ -28602,7 +28602,7 @@
         <v>0.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.2</v>
@@ -28820,10 +28820,10 @@
         <v>0.4</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.54</v>
@@ -29041,7 +29041,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR131" t="n">
         <v>1.06</v>
@@ -29259,7 +29259,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR132" t="n">
         <v>1.43</v>
@@ -29474,10 +29474,10 @@
         <v>1.4</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR133" t="n">
         <v>1.3</v>
@@ -29692,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.91</v>
@@ -29913,7 +29913,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR135" t="n">
         <v>1.06</v>
@@ -30346,7 +30346,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137" t="n">
         <v>1</v>
@@ -30564,7 +30564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.2</v>
@@ -31003,7 +31003,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR140" t="n">
         <v>1.37</v>
@@ -31218,7 +31218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.2</v>
@@ -31439,7 +31439,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR142" t="n">
         <v>1.38</v>
@@ -31657,7 +31657,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR143" t="n">
         <v>1.43</v>
@@ -31872,7 +31872,7 @@
         <v>0.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32090,10 +32090,10 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR145" t="n">
         <v>0.96</v>
@@ -32308,10 +32308,10 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR146" t="n">
         <v>1.6</v>
@@ -32526,7 +32526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.18</v>
@@ -32744,10 +32744,10 @@
         <v>0.83</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR148" t="n">
         <v>1.71</v>
@@ -32965,7 +32965,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR149" t="n">
         <v>1.35</v>
@@ -33183,7 +33183,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -33619,7 +33619,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR152" t="n">
         <v>1.44</v>
@@ -33834,7 +33834,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.7</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.3</v>
@@ -34706,10 +34706,10 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR157" t="n">
         <v>1.31</v>
@@ -34927,7 +34927,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR158" t="n">
         <v>1.12</v>
@@ -35360,7 +35360,7 @@
         <v>0</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.91</v>
@@ -35581,7 +35581,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR161" t="n">
         <v>1.39</v>
@@ -36232,10 +36232,10 @@
         <v>1.67</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR164" t="n">
         <v>1.77</v>
@@ -36671,7 +36671,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR166" t="n">
         <v>1.43</v>
@@ -36889,7 +36889,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR167" t="n">
         <v>1.02</v>
@@ -37107,7 +37107,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ168" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR168" t="n">
         <v>1.81</v>
@@ -37325,7 +37325,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR169" t="n">
         <v>1.28</v>
@@ -37543,7 +37543,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR170" t="n">
         <v>1.36</v>
@@ -37758,7 +37758,7 @@
         <v>1.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.18</v>
@@ -37976,7 +37976,7 @@
         <v>1.43</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172" t="n">
         <v>1.27</v>
@@ -38194,10 +38194,10 @@
         <v>1.14</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR173" t="n">
         <v>1.88</v>
@@ -38412,7 +38412,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.3</v>
@@ -38630,7 +38630,7 @@
         <v>1.83</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.7</v>
@@ -39066,7 +39066,7 @@
         <v>0.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.36</v>
@@ -39287,7 +39287,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR178" t="n">
         <v>1.42</v>
@@ -39502,7 +39502,7 @@
         <v>0.43</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.91</v>
@@ -39720,10 +39720,10 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR180" t="n">
         <v>1.68</v>
@@ -39941,7 +39941,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR181" t="n">
         <v>1.58</v>
@@ -40159,7 +40159,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR182" t="n">
         <v>1.15</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ183" t="n">
         <v>2</v>
@@ -41028,7 +41028,7 @@
         <v>1.43</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.4</v>
@@ -41246,10 +41246,10 @@
         <v>0.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR187" t="n">
         <v>1.28</v>
@@ -41467,7 +41467,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR188" t="n">
         <v>1.4</v>
@@ -41685,7 +41685,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR189" t="n">
         <v>1.82</v>
@@ -41903,7 +41903,7 @@
         <v>2</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR190" t="n">
         <v>1.28</v>
@@ -42554,7 +42554,7 @@
         <v>1.63</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.27</v>
@@ -42772,10 +42772,10 @@
         <v>1.43</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR194" t="n">
         <v>1.32</v>
@@ -42990,7 +42990,7 @@
         <v>1.29</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.18</v>
@@ -43208,7 +43208,7 @@
         <v>1.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.2</v>
@@ -43426,7 +43426,7 @@
         <v>0.57</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -43644,7 +43644,7 @@
         <v>0.86</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ198" t="n">
         <v>1</v>
@@ -43862,10 +43862,10 @@
         <v>0.75</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44080,10 +44080,10 @@
         <v>1</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR200" t="n">
         <v>1.89</v>
@@ -44298,10 +44298,10 @@
         <v>0.75</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR201" t="n">
         <v>1.47</v>
@@ -44737,7 +44737,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR203" t="n">
         <v>1.39</v>
@@ -44952,7 +44952,7 @@
         <v>1.5</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.18</v>
@@ -45170,10 +45170,10 @@
         <v>1</v>
       </c>
       <c r="AP205" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ205" t="n">
         <v>0.91</v>
-      </c>
-      <c r="AQ205" t="n">
-        <v>1</v>
       </c>
       <c r="AR205" t="n">
         <v>1.44</v>
@@ -45391,7 +45391,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR206" t="n">
         <v>1.39</v>
@@ -45609,7 +45609,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR207" t="n">
         <v>1.31</v>
@@ -46042,7 +46042,7 @@
         <v>1.38</v>
       </c>
       <c r="AP209" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ209" t="n">
         <v>1.4</v>
@@ -46260,7 +46260,7 @@
         <v>1.13</v>
       </c>
       <c r="AP210" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.18</v>
@@ -48658,10 +48658,10 @@
         <v>0.89</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR221" t="n">
         <v>1.23</v>
@@ -48876,10 +48876,10 @@
         <v>0.89</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR222" t="n">
         <v>1.72</v>
@@ -49094,10 +49094,10 @@
         <v>1.22</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR223" t="n">
         <v>1.14</v>
@@ -49312,7 +49312,7 @@
         <v>0.88</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ224" t="n">
         <v>1</v>
@@ -49530,10 +49530,10 @@
         <v>0.89</v>
       </c>
       <c r="AP225" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR225" t="n">
         <v>1.39</v>
@@ -49748,10 +49748,10 @@
         <v>0.78</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR226" t="n">
         <v>1.39</v>
@@ -49966,10 +49966,10 @@
         <v>0.89</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR227" t="n">
         <v>1.92</v>
@@ -50184,10 +50184,10 @@
         <v>0.67</v>
       </c>
       <c r="AP228" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR228" t="n">
         <v>1.87</v>
@@ -50402,10 +50402,10 @@
         <v>0.89</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR229" t="n">
         <v>1.69</v>
@@ -50620,10 +50620,10 @@
         <v>1.56</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR230" t="n">
         <v>1.51</v>
@@ -50838,10 +50838,10 @@
         <v>1.25</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR231" t="n">
         <v>1.29</v>
@@ -51056,10 +51056,10 @@
         <v>1</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR232" t="n">
         <v>1.42</v>
@@ -53890,10 +53890,10 @@
         <v>0.9</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR245" t="n">
         <v>1.47</v>
@@ -54108,10 +54108,10 @@
         <v>0.9</v>
       </c>
       <c r="AP246" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ246" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR246" t="n">
         <v>1.62</v>
@@ -54326,10 +54326,10 @@
         <v>1.2</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR247" t="n">
         <v>1.52</v>
@@ -54544,10 +54544,10 @@
         <v>1.11</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR248" t="n">
         <v>1.41</v>
@@ -54762,10 +54762,10 @@
         <v>1.7</v>
       </c>
       <c r="AP249" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ249" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AQ249" t="n">
-        <v>1.64</v>
       </c>
       <c r="AR249" t="n">
         <v>1.17</v>
@@ -54980,7 +54980,7 @@
         <v>0.78</v>
       </c>
       <c r="AP250" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ250" t="n">
         <v>1</v>
@@ -55198,10 +55198,10 @@
         <v>0.8</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR251" t="n">
         <v>1.67</v>
@@ -55416,10 +55416,10 @@
         <v>0.8</v>
       </c>
       <c r="AP252" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR252" t="n">
         <v>1.94</v>
@@ -55634,10 +55634,10 @@
         <v>0.9</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR253" t="n">
         <v>1.68</v>
@@ -55852,10 +55852,10 @@
         <v>0.8</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ254" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR254" t="n">
         <v>1.2</v>
@@ -56070,10 +56070,10 @@
         <v>0.6</v>
       </c>
       <c r="AP255" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AR255" t="n">
         <v>1.93</v>
@@ -56288,10 +56288,10 @@
         <v>0.9</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR256" t="n">
         <v>1.45</v>
@@ -56367,6 +56367,2622 @@
       </c>
       <c r="BP256" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>8216869</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F257" t="n">
+        <v>23</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['64', '87']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R257" t="n">
+        <v>2</v>
+      </c>
+      <c r="S257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X257" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN257" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP257" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>8217152</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F258" t="n">
+        <v>23</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>3</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['64', '82']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S258" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V258" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X258" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL258" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM258" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN258" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO258" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP258" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>8216893</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F259" t="n">
+        <v>23</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R259" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S259" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U259" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V259" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X259" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL259" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM259" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN259" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO259" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP259" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>8217151</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>23</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S260" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V260" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X260" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL260" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM260" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN260" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO260" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP260" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>8216747</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>23</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="n">
+        <v>2</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R261" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S261" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X261" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL261" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN261" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO261" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP261" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>8216887</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>23</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>2</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2</v>
+      </c>
+      <c r="L262" t="n">
+        <v>4</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>4</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['11', '19', '62', '90+3']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R262" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S262" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V262" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X262" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL262" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BP262" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>8216891</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>23</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>3</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>3</v>
+      </c>
+      <c r="L263" t="n">
+        <v>3</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>3</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['8', '19', '37']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S263" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X263" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>8216894</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F264" t="n">
+        <v>23</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>2</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['45+5', '83']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S264" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V264" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>8216714</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F265" t="n">
+        <v>23</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R265" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S265" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X265" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL265" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN265" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO265" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BP265" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>8216896</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F266" t="n">
+        <v>23</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="R266" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X266" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL266" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN266" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO266" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP266" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>8216892</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F267" t="n">
+        <v>23</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['8', '72']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R267" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S267" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U267" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V267" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X267" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL267" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM267" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN267" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO267" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP267" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>8216898</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>23</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2</v>
+      </c>
+      <c r="L268" t="n">
+        <v>4</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2</v>
+      </c>
+      <c r="N268" t="n">
+        <v>6</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['29', '60', '83', '90+8']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['25', '74']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S268" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V268" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X268" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL268" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM268" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN268" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO268" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BP268" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -56530,13 +56530,13 @@
         <v>11</v>
       </c>
       <c r="AX257" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY257" t="n">
         <v>16</v>
       </c>
       <c r="AZ257" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA257" t="n">
         <v>8</v>
@@ -56748,13 +56748,13 @@
         <v>18</v>
       </c>
       <c r="AX258" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY258" t="n">
         <v>22</v>
       </c>
       <c r="AZ258" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA258" t="n">
         <v>6</v>
@@ -56963,13 +56963,13 @@
         <v>3</v>
       </c>
       <c r="AW259" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX259" t="n">
         <v>4</v>
       </c>
       <c r="AY259" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ259" t="n">
         <v>7</v>
@@ -57393,7 +57393,7 @@
         <v>2.94</v>
       </c>
       <c r="AU261" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV261" t="n">
         <v>3</v>
@@ -57405,7 +57405,7 @@
         <v>0</v>
       </c>
       <c r="AY261" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ261" t="n">
         <v>3</v>
@@ -58056,22 +58056,22 @@
         <v>12</v>
       </c>
       <c r="AX264" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY264" t="n">
         <v>17</v>
       </c>
       <c r="AZ264" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA264" t="n">
         <v>8</v>
       </c>
       <c r="BB264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC264" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD264" t="n">
         <v>1.29</v>
@@ -58268,7 +58268,7 @@
         <v>1</v>
       </c>
       <c r="AV265" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW265" t="n">
         <v>10</v>
@@ -58280,7 +58280,7 @@
         <v>11</v>
       </c>
       <c r="AZ265" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA265" t="n">
         <v>7</v>
@@ -58710,13 +58710,13 @@
         <v>12</v>
       </c>
       <c r="AX267" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY267" t="n">
         <v>14</v>
       </c>
       <c r="AZ267" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA267" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -56539,13 +56539,13 @@
         <v>11</v>
       </c>
       <c r="BA257" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC257" t="n">
         <v>8</v>
-      </c>
-      <c r="BB257" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC257" t="n">
-        <v>9</v>
       </c>
       <c r="BD257" t="n">
         <v>1.89</v>
@@ -57181,13 +57181,13 @@
         <v>1</v>
       </c>
       <c r="AW260" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX260" t="n">
         <v>6</v>
       </c>
       <c r="AY260" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ260" t="n">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP268"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.91</v>
@@ -2445,7 +2445,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.75</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.67</v>
@@ -4407,7 +4407,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.67</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.25</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.91</v>
@@ -6805,7 +6805,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR29" t="n">
         <v>1.07</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR30" t="n">
         <v>1.63</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR32" t="n">
         <v>2.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>0.99</v>
@@ -7895,7 +7895,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR34" t="n">
         <v>1.57</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR36" t="n">
         <v>0.85</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.75</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.5</v>
@@ -8985,7 +8985,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR39" t="n">
         <v>0.75</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.75</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.5</v>
@@ -9857,7 +9857,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR43" t="n">
         <v>1.52</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR46" t="n">
         <v>0.98</v>
@@ -10729,7 +10729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR47" t="n">
         <v>0.8</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11383,7 +11383,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR50" t="n">
         <v>1.31</v>
@@ -11819,7 +11819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR52" t="n">
         <v>1.49</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.67</v>
@@ -12255,7 +12255,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR54" t="n">
         <v>0.76</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.75</v>
@@ -12691,7 +12691,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR56" t="n">
         <v>1.46</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13342,7 +13342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.75</v>
@@ -13563,7 +13563,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR60" t="n">
         <v>1.44</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.67</v>
@@ -13999,7 +13999,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.75</v>
@@ -14435,7 +14435,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR64" t="n">
         <v>1.19</v>
@@ -14653,7 +14653,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR65" t="n">
         <v>1.56</v>
@@ -15089,7 +15089,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.61</v>
@@ -15304,10 +15304,10 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR68" t="n">
         <v>1.68</v>
@@ -15522,7 +15522,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.75</v>
@@ -15740,10 +15740,10 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR70" t="n">
         <v>1.47</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.91</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.25</v>
@@ -16394,10 +16394,10 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73" t="n">
         <v>1.27</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>1.4</v>
       </c>
       <c r="AR73" t="n">
         <v>1.35</v>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR74" t="n">
         <v>1.61</v>
@@ -16833,7 +16833,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR75" t="n">
         <v>1.44</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.25</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17487,7 +17487,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>1.86</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.75</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.75</v>
@@ -18138,10 +18138,10 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR81" t="n">
         <v>0.96</v>
@@ -18359,7 +18359,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -18574,7 +18574,7 @@
         <v>0.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.75</v>
@@ -19231,7 +19231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19449,7 +19449,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19882,7 +19882,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.5</v>
@@ -20536,7 +20536,7 @@
         <v>2</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.67</v>
@@ -20754,10 +20754,10 @@
         <v>2</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR93" t="n">
         <v>1.21</v>
@@ -21193,7 +21193,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -21408,7 +21408,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.75</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.91</v>
@@ -21847,7 +21847,7 @@
         <v>2</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR98" t="n">
         <v>1.5</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.25</v>
@@ -22280,10 +22280,10 @@
         <v>1.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22498,10 +22498,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -22719,7 +22719,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR102" t="n">
         <v>1.94</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.75</v>
@@ -23155,7 +23155,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR104" t="n">
         <v>1.41</v>
@@ -23370,7 +23370,7 @@
         <v>1.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.5</v>
@@ -23806,10 +23806,10 @@
         <v>0.75</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24024,10 +24024,10 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR108" t="n">
         <v>1.63</v>
@@ -24463,7 +24463,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24678,7 +24678,7 @@
         <v>0.75</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -24899,7 +24899,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR112" t="n">
         <v>1.63</v>
@@ -25550,7 +25550,7 @@
         <v>0</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.67</v>
@@ -25989,7 +25989,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR117" t="n">
         <v>1</v>
@@ -26207,7 +26207,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR118" t="n">
         <v>1.92</v>
@@ -26422,10 +26422,10 @@
         <v>1.6</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -26640,10 +26640,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR120" t="n">
         <v>1.76</v>
@@ -26858,10 +26858,10 @@
         <v>1</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR121" t="n">
         <v>1.34</v>
@@ -27079,7 +27079,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR122" t="n">
         <v>1.04</v>
@@ -27297,7 +27297,7 @@
         <v>2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR123" t="n">
         <v>1.52</v>
@@ -27512,7 +27512,7 @@
         <v>0.75</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.91</v>
@@ -27730,7 +27730,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.75</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.25</v>
@@ -28166,10 +28166,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR127" t="n">
         <v>1.39</v>
@@ -28605,7 +28605,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR129" t="n">
         <v>1.94</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.67</v>
@@ -29256,7 +29256,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.75</v>
@@ -29695,7 +29695,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR134" t="n">
         <v>1.55</v>
@@ -29910,7 +29910,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.67</v>
@@ -30128,7 +30128,7 @@
         <v>0.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ136" t="n">
         <v>1</v>
@@ -30785,7 +30785,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.5</v>
@@ -31221,7 +31221,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR141" t="n">
         <v>1.62</v>
@@ -31436,7 +31436,7 @@
         <v>0.8</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.91</v>
@@ -31654,7 +31654,7 @@
         <v>1.33</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.75</v>
@@ -32529,7 +32529,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR147" t="n">
         <v>1.47</v>
@@ -32962,7 +32962,7 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.75</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.91</v>
@@ -33398,10 +33398,10 @@
         <v>1.2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR151" t="n">
         <v>1.34</v>
@@ -33616,7 +33616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ152" t="n">
         <v>1</v>
@@ -33837,7 +33837,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -34052,10 +34052,10 @@
         <v>1.2</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34270,10 +34270,10 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR155" t="n">
         <v>1.32</v>
@@ -34491,7 +34491,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR156" t="n">
         <v>1.26</v>
@@ -34924,7 +34924,7 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.5</v>
@@ -35142,10 +35142,10 @@
         <v>1.17</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR159" t="n">
         <v>0.97</v>
@@ -35363,7 +35363,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR160" t="n">
         <v>1.1</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.67</v>
@@ -35796,10 +35796,10 @@
         <v>1.83</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ162" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR162" t="n">
         <v>1.67</v>
@@ -36014,10 +36014,10 @@
         <v>1</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR163" t="n">
         <v>1.46</v>
@@ -36450,10 +36450,10 @@
         <v>1.33</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR165" t="n">
         <v>1.27</v>
@@ -36668,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.5</v>
@@ -36886,7 +36886,7 @@
         <v>1.14</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.25</v>
@@ -37104,7 +37104,7 @@
         <v>0.86</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ168" t="n">
         <v>0.75</v>
@@ -37322,7 +37322,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.5</v>
@@ -37540,7 +37540,7 @@
         <v>0.57</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ170" t="n">
         <v>1</v>
@@ -37761,7 +37761,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR171" t="n">
         <v>1.32</v>
@@ -37979,7 +37979,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR172" t="n">
         <v>1.58</v>
@@ -38415,7 +38415,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR174" t="n">
         <v>1.71</v>
@@ -38633,7 +38633,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR175" t="n">
         <v>0.95</v>
@@ -38848,10 +38848,10 @@
         <v>1.33</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR176" t="n">
         <v>1.37</v>
@@ -39069,7 +39069,7 @@
         <v>2</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR177" t="n">
         <v>1.44</v>
@@ -39284,7 +39284,7 @@
         <v>1</v>
       </c>
       <c r="AP178" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.67</v>
@@ -39505,7 +39505,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR179" t="n">
         <v>1.55</v>
@@ -39938,7 +39938,7 @@
         <v>0.71</v>
       </c>
       <c r="AP181" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.75</v>
@@ -40156,7 +40156,7 @@
         <v>0.86</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.75</v>
@@ -40377,7 +40377,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ183" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR183" t="n">
         <v>1.33</v>
@@ -40592,10 +40592,10 @@
         <v>0.75</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR184" t="n">
         <v>1.55</v>
@@ -40810,10 +40810,10 @@
         <v>1.57</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR185" t="n">
         <v>1.06</v>
@@ -41031,7 +41031,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR186" t="n">
         <v>1.89</v>
@@ -41464,7 +41464,7 @@
         <v>0.88</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ188" t="n">
         <v>0.67</v>
@@ -41682,7 +41682,7 @@
         <v>1.38</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.5</v>
@@ -41900,7 +41900,7 @@
         <v>0.88</v>
       </c>
       <c r="AP190" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ190" t="n">
         <v>0.67</v>
@@ -42118,10 +42118,10 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR191" t="n">
         <v>1.44</v>
@@ -42336,10 +42336,10 @@
         <v>0.38</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR192" t="n">
         <v>1.16</v>
@@ -42557,7 +42557,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR193" t="n">
         <v>1.41</v>
@@ -42993,7 +42993,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR195" t="n">
         <v>1.65</v>
@@ -43211,7 +43211,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR196" t="n">
         <v>1.55</v>
@@ -44516,10 +44516,10 @@
         <v>0.86</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR202" t="n">
         <v>1.43</v>
@@ -44734,7 +44734,7 @@
         <v>1.63</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ203" t="n">
         <v>1.5</v>
@@ -44955,7 +44955,7 @@
         <v>2</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR204" t="n">
         <v>1.58</v>
@@ -45388,7 +45388,7 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.75</v>
@@ -45606,7 +45606,7 @@
         <v>0.75</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.75</v>
@@ -45824,10 +45824,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR208" t="n">
         <v>1.39</v>
@@ -46045,7 +46045,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR209" t="n">
         <v>1.41</v>
@@ -46263,7 +46263,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR210" t="n">
         <v>1.93</v>
@@ -46478,10 +46478,10 @@
         <v>1.75</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ211" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR211" t="n">
         <v>1.4</v>
@@ -46696,10 +46696,10 @@
         <v>1.44</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR212" t="n">
         <v>1.19</v>
@@ -46914,10 +46914,10 @@
         <v>1.44</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR213" t="n">
         <v>1.4</v>
@@ -47132,7 +47132,7 @@
         <v>0.88</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ214" t="n">
         <v>1</v>
@@ -47350,10 +47350,10 @@
         <v>1.5</v>
       </c>
       <c r="AP215" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR215" t="n">
         <v>1.34</v>
@@ -47568,10 +47568,10 @@
         <v>1</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR216" t="n">
         <v>1.77</v>
@@ -47786,10 +47786,10 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR217" t="n">
         <v>1.13</v>
@@ -48004,10 +48004,10 @@
         <v>1.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR218" t="n">
         <v>1.22</v>
@@ -48222,10 +48222,10 @@
         <v>0.75</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR219" t="n">
         <v>1.4</v>
@@ -48440,10 +48440,10 @@
         <v>0.44</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR220" t="n">
         <v>1.36</v>
@@ -51274,10 +51274,10 @@
         <v>1.4</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR233" t="n">
         <v>1.42</v>
@@ -51492,10 +51492,10 @@
         <v>1.3</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR234" t="n">
         <v>1.09</v>
@@ -51710,10 +51710,10 @@
         <v>1.33</v>
       </c>
       <c r="AP235" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR235" t="n">
         <v>1.12</v>
@@ -51928,10 +51928,10 @@
         <v>0.7</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR236" t="n">
         <v>1.36</v>
@@ -52146,10 +52146,10 @@
         <v>1</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR237" t="n">
         <v>1.41</v>
@@ -52364,10 +52364,10 @@
         <v>1.89</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ238" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR238" t="n">
         <v>1.3</v>
@@ -52582,10 +52582,10 @@
         <v>1</v>
       </c>
       <c r="AP239" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR239" t="n">
         <v>1.54</v>
@@ -52800,10 +52800,10 @@
         <v>1.56</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR240" t="n">
         <v>1.16</v>
@@ -53018,10 +53018,10 @@
         <v>1.89</v>
       </c>
       <c r="AP241" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR241" t="n">
         <v>1.39</v>
@@ -53236,10 +53236,10 @@
         <v>1.33</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR242" t="n">
         <v>1.36</v>
@@ -53454,10 +53454,10 @@
         <v>1.2</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR243" t="n">
         <v>1.34</v>
@@ -53672,7 +53672,7 @@
         <v>1.11</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ244" t="n">
         <v>1</v>
@@ -58983,6 +58983,2622 @@
       </c>
       <c r="BP268" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>8217174</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>24</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>2</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S269" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V269" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X269" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL269" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM269" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN269" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO269" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BP269" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>8217181</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>24</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="n">
+        <v>2</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>4</v>
+      </c>
+      <c r="R270" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S270" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U270" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V270" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X270" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL270" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM270" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN270" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO270" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP270" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>8216889</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>24</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="n">
+        <v>2</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R271" t="n">
+        <v>2</v>
+      </c>
+      <c r="S271" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V271" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X271" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL271" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM271" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN271" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO271" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP271" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>8216904</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>24</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S272" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V272" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X272" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN272" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO272" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP272" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>8216903</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F273" t="n">
+        <v>24</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>2</v>
+      </c>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['61', '73']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S273" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U273" t="n">
+        <v>3</v>
+      </c>
+      <c r="V273" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X273" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL273" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM273" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO273" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP273" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>8217172</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F274" t="n">
+        <v>24</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="R274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S274" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V274" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X274" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL274" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM274" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO274" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP274" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>8216900</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F275" t="n">
+        <v>24</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>5</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>6</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['54', '58', '73', '86', '90+4']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R275" t="n">
+        <v>2</v>
+      </c>
+      <c r="S275" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X275" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL275" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM275" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN275" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO275" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BP275" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>8216899</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F276" t="n">
+        <v>24</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="n">
+        <v>3</v>
+      </c>
+      <c r="N276" t="n">
+        <v>4</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['24', '69', '86']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R276" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S276" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X276" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL276" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM276" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN276" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO276" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP276" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>8216836</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>24</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>2</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2</v>
+      </c>
+      <c r="L277" t="n">
+        <v>3</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>3</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['22', '37', '67']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R277" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T277" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X277" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL277" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM277" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN277" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP277" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>8216897</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>24</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S278" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V278" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X278" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL278" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM278" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN278" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO278" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP278" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>8216874</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F279" t="n">
+        <v>24</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>4</v>
+      </c>
+      <c r="R279" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S279" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V279" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X279" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL279" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM279" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN279" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO279" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BP279" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>8216902</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>46023.5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>24</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>2</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>2</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['18', '37']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S280" t="n">
+        <v>4</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V280" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X280" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM280" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN280" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO280" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP280" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -59573,7 +59573,7 @@
         <v>2.8</v>
       </c>
       <c r="AU271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV271" t="n">
         <v>3</v>
@@ -59585,7 +59585,7 @@
         <v>3</v>
       </c>
       <c r="AY271" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ271" t="n">
         <v>6</v>
@@ -60236,13 +60236,13 @@
         <v>11</v>
       </c>
       <c r="AX274" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY274" t="n">
         <v>16</v>
       </c>
       <c r="AZ274" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA274" t="n">
         <v>6</v>
@@ -60890,13 +60890,13 @@
         <v>7</v>
       </c>
       <c r="AX277" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY277" t="n">
         <v>15</v>
       </c>
       <c r="AZ277" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA277" t="n">
         <v>2</v>
@@ -61105,13 +61105,13 @@
         <v>3</v>
       </c>
       <c r="AW278" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX278" t="n">
         <v>5</v>
       </c>
       <c r="AY278" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ278" t="n">
         <v>8</v>
@@ -61317,22 +61317,22 @@
         <v>2.42</v>
       </c>
       <c r="AU279" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW279" t="n">
         <v>6</v>
       </c>
-      <c r="AV279" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW279" t="n">
-        <v>5</v>
-      </c>
       <c r="AX279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY279" t="n">
         <v>11</v>
       </c>
       <c r="AZ279" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA279" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -59579,13 +59579,13 @@
         <v>3</v>
       </c>
       <c r="AW271" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX271" t="n">
         <v>3</v>
       </c>
       <c r="AY271" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ271" t="n">
         <v>6</v>
@@ -60672,13 +60672,13 @@
         <v>3</v>
       </c>
       <c r="AX276" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY276" t="n">
         <v>5</v>
       </c>
       <c r="AZ276" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA276" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.25</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.75</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.18</v>
@@ -2663,7 +2663,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.5</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.17</v>
@@ -4625,7 +4625,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1.91</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.17</v>
@@ -7023,7 +7023,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR30" t="n">
         <v>1.63</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR33" t="n">
         <v>0.99</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.67</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR40" t="n">
         <v>1.68</v>
@@ -9639,7 +9639,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR42" t="n">
         <v>0.91</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.75</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.67</v>
@@ -10729,7 +10729,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR47" t="n">
         <v>0.8</v>
@@ -11165,7 +11165,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR49" t="n">
         <v>1.3</v>
@@ -11819,7 +11819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR52" t="n">
         <v>1.49</v>
@@ -12255,7 +12255,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR54" t="n">
         <v>0.76</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.5</v>
@@ -13345,7 +13345,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR59" t="n">
         <v>0.9</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.83</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.33</v>
@@ -14868,7 +14868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ66" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR67" t="n">
         <v>1.61</v>
@@ -15307,7 +15307,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR68" t="n">
         <v>1.68</v>
@@ -15522,7 +15522,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.75</v>
@@ -16397,7 +16397,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR73" t="n">
         <v>1.35</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.25</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR75" t="n">
         <v>1.44</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.25</v>
@@ -17269,7 +17269,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17487,7 +17487,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR78" t="n">
         <v>1.86</v>
@@ -17923,7 +17923,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR80" t="n">
         <v>1.45</v>
@@ -20975,7 +20975,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR94" t="n">
         <v>2.01</v>
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.18</v>
@@ -21411,7 +21411,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR96" t="n">
         <v>1.22</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.92</v>
@@ -21844,10 +21844,10 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR98" t="n">
         <v>1.5</v>
@@ -22283,7 +22283,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22501,7 +22501,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -22716,10 +22716,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR102" t="n">
         <v>1.94</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.75</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.25</v>
@@ -25986,7 +25986,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.17</v>
@@ -26204,10 +26204,10 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR118" t="n">
         <v>1.92</v>
@@ -26425,7 +26425,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -26640,7 +26640,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.18</v>
@@ -26861,7 +26861,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR121" t="n">
         <v>1.34</v>
@@ -27076,10 +27076,10 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR122" t="n">
         <v>1.04</v>
@@ -27294,10 +27294,10 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR123" t="n">
         <v>1.52</v>
@@ -27733,7 +27733,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR125" t="n">
         <v>1.3</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.25</v>
@@ -28384,7 +28384,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.75</v>
@@ -28820,10 +28820,10 @@
         <v>0.4</v>
       </c>
       <c r="AP130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ130" t="n">
         <v>0.92</v>
-      </c>
-      <c r="AQ130" t="n">
-        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.54</v>
@@ -30564,7 +30564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
         <v>1</v>
@@ -31872,7 +31872,7 @@
         <v>0.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32090,7 +32090,7 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.75</v>
@@ -32311,7 +32311,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR146" t="n">
         <v>1.6</v>
@@ -32526,10 +32526,10 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR147" t="n">
         <v>1.47</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.92</v>
@@ -33619,7 +33619,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR152" t="n">
         <v>1.44</v>
@@ -34052,7 +34052,7 @@
         <v>1.2</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.17</v>
@@ -34273,7 +34273,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR155" t="n">
         <v>1.32</v>
@@ -34491,7 +34491,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR156" t="n">
         <v>1.26</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.67</v>
@@ -35799,7 +35799,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR162" t="n">
         <v>1.67</v>
@@ -36453,7 +36453,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR165" t="n">
         <v>1.27</v>
@@ -36668,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.5</v>
@@ -36886,7 +36886,7 @@
         <v>0.86</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.75</v>
@@ -37325,7 +37325,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR169" t="n">
         <v>1.33</v>
@@ -38197,7 +38197,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR173" t="n">
         <v>1.36</v>
@@ -38415,7 +38415,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR174" t="n">
         <v>1.71</v>
@@ -38630,7 +38630,7 @@
         <v>1.83</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.64</v>
@@ -39066,7 +39066,7 @@
         <v>0.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.33</v>
@@ -40159,7 +40159,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR182" t="n">
         <v>1.15</v>
@@ -40377,7 +40377,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR183" t="n">
         <v>1.34</v>
@@ -41031,7 +41031,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR186" t="n">
         <v>1.89</v>
@@ -41249,7 +41249,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR187" t="n">
         <v>1.28</v>
@@ -41464,7 +41464,7 @@
         <v>1.38</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.5</v>
@@ -41682,7 +41682,7 @@
         <v>0.88</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.67</v>
@@ -43426,7 +43426,7 @@
         <v>0.57</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -43865,7 +43865,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44080,7 +44080,7 @@
         <v>1</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.25</v>
@@ -44952,10 +44952,10 @@
         <v>1.5</v>
       </c>
       <c r="AP204" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR204" t="n">
         <v>1.58</v>
@@ -45170,7 +45170,7 @@
         <v>1</v>
       </c>
       <c r="AP205" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.92</v>
@@ -45827,7 +45827,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR208" t="n">
         <v>1.39</v>
@@ -46042,10 +46042,10 @@
         <v>1.38</v>
       </c>
       <c r="AP209" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR209" t="n">
         <v>1.41</v>
@@ -46260,7 +46260,7 @@
         <v>1.13</v>
       </c>
       <c r="AP210" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.17</v>
@@ -46481,7 +46481,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR211" t="n">
         <v>1.4</v>
@@ -47135,7 +47135,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR214" t="n">
         <v>1.4</v>
@@ -47786,7 +47786,7 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.33</v>
@@ -48004,7 +48004,7 @@
         <v>0.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.25</v>
@@ -48658,10 +48658,10 @@
         <v>0.89</v>
       </c>
       <c r="AP221" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR221" t="n">
         <v>1.72</v>
@@ -49094,7 +49094,7 @@
         <v>0.89</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ223" t="n">
         <v>0.67</v>
@@ -49312,7 +49312,7 @@
         <v>1.22</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ224" t="n">
         <v>1.5</v>
@@ -49530,7 +49530,7 @@
         <v>0.89</v>
       </c>
       <c r="AP225" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.67</v>
@@ -50623,7 +50623,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR230" t="n">
         <v>1.87</v>
@@ -51274,7 +51274,7 @@
         <v>1.4</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.17</v>
@@ -51495,7 +51495,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR234" t="n">
         <v>1.09</v>
@@ -51931,7 +51931,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR236" t="n">
         <v>1.12</v>
@@ -52149,7 +52149,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR237" t="n">
         <v>1.16</v>
@@ -52800,7 +52800,7 @@
         <v>1.11</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ240" t="n">
         <v>1</v>
@@ -53239,7 +53239,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR242" t="n">
         <v>1.3</v>
@@ -54765,7 +54765,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ249" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR249" t="n">
         <v>1.62</v>
@@ -54980,7 +54980,7 @@
         <v>0.78</v>
       </c>
       <c r="AP250" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ250" t="n">
         <v>1</v>
@@ -55634,7 +55634,7 @@
         <v>0.9</v>
       </c>
       <c r="AP253" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ253" t="n">
         <v>0.75</v>
@@ -55852,7 +55852,7 @@
         <v>0.8</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ254" t="n">
         <v>0.67</v>
@@ -56070,10 +56070,10 @@
         <v>0.6</v>
       </c>
       <c r="AP255" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR255" t="n">
         <v>1.93</v>
@@ -56509,7 +56509,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR257" t="n">
         <v>1.44</v>
@@ -56724,7 +56724,7 @@
         <v>1.64</v>
       </c>
       <c r="AP258" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.5</v>
@@ -57596,7 +57596,7 @@
         <v>0.73</v>
       </c>
       <c r="AP262" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ262" t="n">
         <v>0.67</v>
@@ -58032,7 +58032,7 @@
         <v>1</v>
       </c>
       <c r="AP264" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ264" t="n">
         <v>0.92</v>
@@ -58253,7 +58253,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR265" t="n">
         <v>1.12</v>
@@ -58468,7 +58468,7 @@
         <v>0.73</v>
       </c>
       <c r="AP266" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ266" t="n">
         <v>0.75</v>
@@ -59125,7 +59125,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR269" t="n">
         <v>1.11</v>
@@ -60430,7 +60430,7 @@
         <v>1.7</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.64</v>
@@ -60869,7 +60869,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR277" t="n">
         <v>1.21</v>
@@ -61087,7 +61087,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR278" t="n">
         <v>1.34</v>
@@ -61302,10 +61302,10 @@
         <v>1.3</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR279" t="n">
         <v>1.37</v>
@@ -62035,6 +62035,1314 @@
       </c>
       <c r="BP282" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>8216860</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>46026.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>25</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="n">
+        <v>2</v>
+      </c>
+      <c r="N283" t="n">
+        <v>3</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['25', '67']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R283" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S283" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X283" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL283" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM283" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN283" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP283" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>8216911</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>46026.5</v>
+      </c>
+      <c r="F284" t="n">
+        <v>25</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>2</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['12', '67']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R284" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S284" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T284" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X284" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL284" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM284" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN284" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO284" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BP284" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>8216895</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>46026.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>25</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="n">
+        <v>3</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>3</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['21', '63', '77']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S285" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V285" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X285" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM285" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN285" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO285" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP285" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>8216908</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>46026.5</v>
+      </c>
+      <c r="F286" t="n">
+        <v>25</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R286" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S286" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V286" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X286" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL286" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM286" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN286" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO286" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BP286" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>8216906</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>46026.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>25</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="R287" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S287" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X287" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM287" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN287" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO287" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BP287" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>8216870</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>46026.5</v>
+      </c>
+      <c r="F288" t="n">
+        <v>25</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>2</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>3</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="n">
+        <v>2</v>
+      </c>
+      <c r="N288" t="n">
+        <v>4</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['18', '43']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['20', '89']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R288" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S288" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V288" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X288" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL288" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM288" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN288" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO288" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP288" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -62416,13 +62416,13 @@
         <v>6</v>
       </c>
       <c r="AX284" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY284" t="n">
         <v>13</v>
       </c>
       <c r="AZ284" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA284" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.23</v>
@@ -2881,7 +2881,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.17</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.92</v>
@@ -6805,7 +6805,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR29" t="n">
         <v>1.07</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.75</v>
@@ -7241,7 +7241,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR31" t="n">
         <v>1.65</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.18</v>
@@ -9421,7 +9421,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR41" t="n">
         <v>1.5</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.92</v>
@@ -9857,7 +9857,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR43" t="n">
         <v>1.52</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.42</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR50" t="n">
         <v>1.31</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.08</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.42</v>
@@ -13127,7 +13127,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -14435,7 +14435,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR64" t="n">
         <v>1.19</v>
@@ -14871,7 +14871,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR66" t="n">
         <v>1.02</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.92</v>
@@ -18359,7 +18359,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -19228,10 +19228,10 @@
         <v>2.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.33</v>
@@ -19664,7 +19664,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.75</v>
@@ -19882,10 +19882,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20103,7 +20103,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -23370,10 +23370,10 @@
         <v>1.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR105" t="n">
         <v>1.13</v>
@@ -23809,7 +23809,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24027,7 +24027,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR108" t="n">
         <v>1.63</v>
@@ -24242,7 +24242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ109" t="n">
         <v>1</v>
@@ -24681,7 +24681,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR111" t="n">
         <v>1.01</v>
@@ -25114,7 +25114,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.67</v>
@@ -25332,7 +25332,7 @@
         <v>1.75</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.5</v>
@@ -29692,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.83</v>
@@ -29910,7 +29910,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.67</v>
@@ -30349,7 +30349,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -30567,7 +30567,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR138" t="n">
         <v>1.54</v>
@@ -31003,7 +31003,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR140" t="n">
         <v>1.37</v>
@@ -32308,7 +32308,7 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.77</v>
@@ -32744,7 +32744,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.25</v>
@@ -33837,7 +33837,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -34055,7 +34055,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34924,7 +34924,7 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.5</v>
@@ -35360,7 +35360,7 @@
         <v>0</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.83</v>
@@ -36671,7 +36671,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR166" t="n">
         <v>1.43</v>
@@ -37322,7 +37322,7 @@
         <v>1.71</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.23</v>
@@ -37540,7 +37540,7 @@
         <v>1.43</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.17</v>
@@ -38633,7 +38633,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR175" t="n">
         <v>0.95</v>
@@ -39720,7 +39720,7 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.67</v>
@@ -40156,7 +40156,7 @@
         <v>0.86</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.77</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.75</v>
@@ -40813,7 +40813,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR185" t="n">
         <v>1.06</v>
@@ -42121,7 +42121,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR191" t="n">
         <v>1.44</v>
@@ -42336,7 +42336,7 @@
         <v>0.38</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ192" t="n">
         <v>0.83</v>
@@ -42772,10 +42772,10 @@
         <v>1.29</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR194" t="n">
         <v>1.65</v>
@@ -42990,10 +42990,10 @@
         <v>1.43</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR195" t="n">
         <v>1.33</v>
@@ -43208,7 +43208,7 @@
         <v>1.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.18</v>
@@ -43644,10 +43644,10 @@
         <v>0.86</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR198" t="n">
         <v>1.65</v>
@@ -44737,7 +44737,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR203" t="n">
         <v>1.39</v>
@@ -46263,7 +46263,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR210" t="n">
         <v>1.93</v>
@@ -46696,7 +46696,7 @@
         <v>1.44</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.17</v>
@@ -47135,7 +47135,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR214" t="n">
         <v>1.38</v>
@@ -47789,7 +47789,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR217" t="n">
         <v>1.13</v>
@@ -48007,7 +48007,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR218" t="n">
         <v>1.22</v>
@@ -49094,10 +49094,10 @@
         <v>1.56</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR223" t="n">
         <v>1.51</v>
@@ -50838,7 +50838,7 @@
         <v>0.89</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.75</v>
@@ -51056,7 +51056,7 @@
         <v>1.25</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.92</v>
@@ -52149,7 +52149,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR237" t="n">
         <v>1.39</v>
@@ -52364,7 +52364,7 @@
         <v>1.56</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.42</v>
@@ -52803,7 +52803,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR240" t="n">
         <v>1.76</v>
@@ -53457,7 +53457,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR243" t="n">
         <v>1.41</v>
@@ -53890,7 +53890,7 @@
         <v>0.9</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.75</v>
@@ -54329,7 +54329,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR247" t="n">
         <v>1.17</v>
@@ -54544,7 +54544,7 @@
         <v>1.2</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ248" t="n">
         <v>1.5</v>
@@ -55198,7 +55198,7 @@
         <v>0.8</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.75</v>
@@ -56945,7 +56945,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ259" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR259" t="n">
         <v>1.9</v>
@@ -57378,7 +57378,7 @@
         <v>0.82</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ261" t="n">
         <v>0.75</v>
@@ -57814,7 +57814,7 @@
         <v>1</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ263" t="n">
         <v>1</v>
@@ -58686,7 +58686,7 @@
         <v>0.73</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ267" t="n">
         <v>0.67</v>
@@ -59125,7 +59125,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR269" t="n">
         <v>1.45</v>
@@ -59997,7 +59997,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR273" t="n">
         <v>1.69</v>
@@ -60651,7 +60651,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR276" t="n">
         <v>1.35</v>
@@ -61084,7 +61084,7 @@
         <v>1.18</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ278" t="n">
         <v>1.23</v>
@@ -63343,6 +63343,878 @@
       </c>
       <c r="BP288" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>8216831</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>46032.39583333334</v>
+      </c>
+      <c r="F289" t="n">
+        <v>26</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>2</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+      <c r="N289" t="n">
+        <v>3</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['55', '64']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S289" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V289" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X289" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL289" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM289" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN289" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO289" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP289" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>8216919</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>46032.39583333334</v>
+      </c>
+      <c r="F290" t="n">
+        <v>26</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R290" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S290" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X290" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM290" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN290" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO290" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP290" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>8217184</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>46032.5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>26</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="n">
+        <v>3</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1</v>
+      </c>
+      <c r="N291" t="n">
+        <v>4</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['34', '54', '66']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="R291" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S291" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V291" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X291" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL291" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM291" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO291" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BP291" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>8216917</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>46032.5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>26</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K292" t="n">
+        <v>2</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="N292" t="n">
+        <v>2</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="R292" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S292" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V292" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X292" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL292" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM292" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN292" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO292" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP292" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -63503,13 +63503,13 @@
         <v>3</v>
       </c>
       <c r="AW289" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX289" t="n">
         <v>12</v>
       </c>
       <c r="AY289" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ289" t="n">
         <v>15</v>
@@ -63942,13 +63942,13 @@
         <v>9</v>
       </c>
       <c r="AX291" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY291" t="n">
         <v>16</v>
       </c>
       <c r="AZ291" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA291" t="n">
         <v>5</v>
@@ -64157,13 +64157,13 @@
         <v>4</v>
       </c>
       <c r="AW292" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX292" t="n">
         <v>7</v>
       </c>
       <c r="AY292" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ292" t="n">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP292"/>
+  <dimension ref="A1:BP304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.23</v>
@@ -1355,7 +1355,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.92</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.25</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.17</v>
@@ -4189,7 +4189,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.42</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.08</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.92</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.25</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR27" t="n">
         <v>1.54</v>
@@ -6805,7 +6805,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.07</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.75</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR31" t="n">
         <v>1.65</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.25</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.17</v>
@@ -8113,7 +8113,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR35" t="n">
         <v>1.89</v>
@@ -8331,7 +8331,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR36" t="n">
         <v>0.85</v>
@@ -8549,7 +8549,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR37" t="n">
         <v>1.61</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR38" t="n">
         <v>0.62</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.18</v>
@@ -9421,7 +9421,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR41" t="n">
         <v>1.5</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.92</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR43" t="n">
         <v>1.52</v>
@@ -10293,7 +10293,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR46" t="n">
         <v>0.98</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.42</v>
@@ -10947,7 +10947,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR48" t="n">
         <v>1.33</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR50" t="n">
         <v>1.31</v>
@@ -11601,7 +11601,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.08</v>
@@ -12037,7 +12037,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR53" t="n">
         <v>1.61</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.42</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.75</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.18</v>
@@ -12909,7 +12909,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR57" t="n">
         <v>1.92</v>
@@ -13127,7 +13127,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13342,7 +13342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.77</v>
@@ -13563,7 +13563,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR60" t="n">
         <v>1.44</v>
@@ -13781,7 +13781,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -13999,7 +13999,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14217,7 +14217,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR63" t="n">
         <v>1.16</v>
@@ -14432,10 +14432,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.19</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.17</v>
@@ -14871,7 +14871,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR66" t="n">
         <v>1.02</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.23</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.75</v>
@@ -15525,7 +15525,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR69" t="n">
         <v>1.21</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.25</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.92</v>
@@ -18138,10 +18138,10 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR81" t="n">
         <v>0.96</v>
@@ -18356,10 +18356,10 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -18574,10 +18574,10 @@
         <v>0.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR83" t="n">
         <v>1.44</v>
@@ -18792,10 +18792,10 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,10 +19010,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR85" t="n">
         <v>1.4</v>
@@ -19228,10 +19228,10 @@
         <v>2.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,10 +19446,10 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19664,10 +19664,10 @@
         <v>0.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -19882,10 +19882,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20100,10 +20100,10 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -20318,10 +20318,10 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR91" t="n">
         <v>1.18</v>
@@ -20536,10 +20536,10 @@
         <v>2</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR92" t="n">
         <v>1.59</v>
@@ -23370,10 +23370,10 @@
         <v>1.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR105" t="n">
         <v>1.13</v>
@@ -23588,10 +23588,10 @@
         <v>0.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -23806,10 +23806,10 @@
         <v>0.75</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24024,10 +24024,10 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR108" t="n">
         <v>1.63</v>
@@ -24242,10 +24242,10 @@
         <v>0.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -24460,10 +24460,10 @@
         <v>0.75</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24678,10 +24678,10 @@
         <v>0.75</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR111" t="n">
         <v>1.01</v>
@@ -24896,10 +24896,10 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR112" t="n">
         <v>1.63</v>
@@ -25114,10 +25114,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR113" t="n">
         <v>1.87</v>
@@ -25332,10 +25332,10 @@
         <v>1.75</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR114" t="n">
         <v>1.17</v>
@@ -25550,10 +25550,10 @@
         <v>0</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR115" t="n">
         <v>1.38</v>
@@ -25768,10 +25768,10 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -29038,10 +29038,10 @@
         <v>0</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR131" t="n">
         <v>1.06</v>
@@ -29256,10 +29256,10 @@
         <v>0.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR132" t="n">
         <v>1.43</v>
@@ -29474,10 +29474,10 @@
         <v>1.4</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133" t="n">
         <v>1.3</v>
@@ -29692,10 +29692,10 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR134" t="n">
         <v>1.55</v>
@@ -29910,10 +29910,10 @@
         <v>1.2</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR135" t="n">
         <v>1.06</v>
@@ -30128,10 +30128,10 @@
         <v>0.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR136" t="n">
         <v>1.45</v>
@@ -30346,10 +30346,10 @@
         <v>0.6</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -30567,7 +30567,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR138" t="n">
         <v>1.54</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.25</v>
@@ -31003,7 +31003,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR140" t="n">
         <v>1.37</v>
@@ -31218,7 +31218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.18</v>
@@ -31654,10 +31654,10 @@
         <v>1.33</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR143" t="n">
         <v>1.43</v>
@@ -31875,7 +31875,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR144" t="n">
         <v>2</v>
@@ -32093,7 +32093,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR145" t="n">
         <v>0.96</v>
@@ -32308,7 +32308,7 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.77</v>
@@ -32744,7 +32744,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.25</v>
@@ -33398,10 +33398,10 @@
         <v>1.2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR151" t="n">
         <v>1.34</v>
@@ -33616,7 +33616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.92</v>
@@ -33837,7 +33837,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -34055,7 +34055,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.08</v>
@@ -34706,10 +34706,10 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR157" t="n">
         <v>1.31</v>
@@ -34924,10 +34924,10 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR158" t="n">
         <v>1.12</v>
@@ -35142,7 +35142,7 @@
         <v>1.17</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.17</v>
@@ -35360,10 +35360,10 @@
         <v>0</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR160" t="n">
         <v>1.1</v>
@@ -35581,7 +35581,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR161" t="n">
         <v>1.39</v>
@@ -36014,10 +36014,10 @@
         <v>1</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR163" t="n">
         <v>1.46</v>
@@ -36232,10 +36232,10 @@
         <v>1.67</v>
       </c>
       <c r="AP164" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR164" t="n">
         <v>1.77</v>
@@ -36671,7 +36671,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR166" t="n">
         <v>1.43</v>
@@ -37104,7 +37104,7 @@
         <v>1.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.25</v>
@@ -37322,7 +37322,7 @@
         <v>1.71</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.23</v>
@@ -37540,7 +37540,7 @@
         <v>1.43</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.17</v>
@@ -37761,7 +37761,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR171" t="n">
         <v>1.28</v>
@@ -37979,7 +37979,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR172" t="n">
         <v>1.88</v>
@@ -38194,7 +38194,7 @@
         <v>0.57</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.92</v>
@@ -38412,7 +38412,7 @@
         <v>1.29</v>
       </c>
       <c r="AP174" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.08</v>
@@ -38633,7 +38633,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR175" t="n">
         <v>0.95</v>
@@ -39069,7 +39069,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR177" t="n">
         <v>1.44</v>
@@ -39287,7 +39287,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR178" t="n">
         <v>1.42</v>
@@ -39502,10 +39502,10 @@
         <v>0.43</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR179" t="n">
         <v>1.55</v>
@@ -39720,10 +39720,10 @@
         <v>0.86</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR180" t="n">
         <v>1.68</v>
@@ -39941,7 +39941,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR181" t="n">
         <v>1.58</v>
@@ -40156,7 +40156,7 @@
         <v>0.86</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.77</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.75</v>
@@ -40595,7 +40595,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR184" t="n">
         <v>1.55</v>
@@ -40810,10 +40810,10 @@
         <v>1.57</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR185" t="n">
         <v>1.06</v>
@@ -41246,7 +41246,7 @@
         <v>0.63</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.92</v>
@@ -41467,7 +41467,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR188" t="n">
         <v>1.82</v>
@@ -41685,7 +41685,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR189" t="n">
         <v>1.4</v>
@@ -41903,7 +41903,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ190" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR190" t="n">
         <v>1.28</v>
@@ -42118,10 +42118,10 @@
         <v>1</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR191" t="n">
         <v>1.44</v>
@@ -42336,10 +42336,10 @@
         <v>0.38</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR192" t="n">
         <v>1.16</v>
@@ -42554,7 +42554,7 @@
         <v>1.63</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ193" t="n">
         <v>1.17</v>
@@ -42772,10 +42772,10 @@
         <v>1.29</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR194" t="n">
         <v>1.65</v>
@@ -42990,10 +42990,10 @@
         <v>1.43</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR195" t="n">
         <v>1.33</v>
@@ -43208,7 +43208,7 @@
         <v>1.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.18</v>
@@ -43429,7 +43429,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR197" t="n">
         <v>1.09</v>
@@ -43644,10 +43644,10 @@
         <v>0.86</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR198" t="n">
         <v>1.65</v>
@@ -43862,7 +43862,7 @@
         <v>0.75</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.77</v>
@@ -44298,7 +44298,7 @@
         <v>0.75</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ201" t="n">
         <v>0.75</v>
@@ -44734,10 +44734,10 @@
         <v>1.63</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR203" t="n">
         <v>1.39</v>
@@ -45391,7 +45391,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR206" t="n">
         <v>1.39</v>
@@ -45609,7 +45609,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR207" t="n">
         <v>1.31</v>
@@ -45824,7 +45824,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.08</v>
@@ -46263,7 +46263,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR210" t="n">
         <v>1.93</v>
@@ -46696,7 +46696,7 @@
         <v>1.44</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.17</v>
@@ -46914,7 +46914,7 @@
         <v>1.44</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.23</v>
@@ -47132,10 +47132,10 @@
         <v>0.88</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ214" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR214" t="n">
         <v>1.38</v>
@@ -47571,7 +47571,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR216" t="n">
         <v>1.77</v>
@@ -47786,10 +47786,10 @@
         <v>1</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR217" t="n">
         <v>1.13</v>
@@ -48007,7 +48007,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR218" t="n">
         <v>1.22</v>
@@ -48443,7 +48443,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR220" t="n">
         <v>1.36</v>
@@ -48876,7 +48876,7 @@
         <v>0.89</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.25</v>
@@ -49094,10 +49094,10 @@
         <v>1.56</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR223" t="n">
         <v>1.51</v>
@@ -49315,7 +49315,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ224" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR224" t="n">
         <v>1.39</v>
@@ -49533,7 +49533,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR225" t="n">
         <v>1.14</v>
@@ -49751,7 +49751,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR226" t="n">
         <v>1.92</v>
@@ -49966,7 +49966,7 @@
         <v>1</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.75</v>
@@ -50184,10 +50184,10 @@
         <v>0.78</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ228" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR228" t="n">
         <v>1.39</v>
@@ -50402,10 +50402,10 @@
         <v>0.88</v>
       </c>
       <c r="AP229" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR229" t="n">
         <v>1.65</v>
@@ -50838,10 +50838,10 @@
         <v>0.89</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR231" t="n">
         <v>1.69</v>
@@ -51056,7 +51056,7 @@
         <v>1.25</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.92</v>
@@ -51492,7 +51492,7 @@
         <v>1.3</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.23</v>
@@ -51710,10 +51710,10 @@
         <v>0.7</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR235" t="n">
         <v>1.36</v>
@@ -52149,7 +52149,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR237" t="n">
         <v>1.39</v>
@@ -52364,7 +52364,7 @@
         <v>1.56</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.42</v>
@@ -52803,7 +52803,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ240" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR240" t="n">
         <v>1.76</v>
@@ -53021,7 +53021,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR241" t="n">
         <v>1.34</v>
@@ -53236,7 +53236,7 @@
         <v>1.33</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.18</v>
@@ -53457,7 +53457,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR243" t="n">
         <v>1.41</v>
@@ -53672,7 +53672,7 @@
         <v>1.89</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ244" t="n">
         <v>1.75</v>
@@ -53890,7 +53890,7 @@
         <v>0.9</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.75</v>
@@ -54108,7 +54108,7 @@
         <v>1.11</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ246" t="n">
         <v>0.92</v>
@@ -54326,10 +54326,10 @@
         <v>1.7</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ247" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR247" t="n">
         <v>1.17</v>
@@ -54544,10 +54544,10 @@
         <v>1.2</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ248" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR248" t="n">
         <v>1.52</v>
@@ -54983,7 +54983,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR250" t="n">
         <v>1.33</v>
@@ -55198,10 +55198,10 @@
         <v>0.8</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ251" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR251" t="n">
         <v>1.67</v>
@@ -55416,7 +55416,7 @@
         <v>0.9</v>
       </c>
       <c r="AP252" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.92</v>
@@ -55637,7 +55637,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR253" t="n">
         <v>1.94</v>
@@ -55855,7 +55855,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ254" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR254" t="n">
         <v>1.68</v>
@@ -56073,7 +56073,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR255" t="n">
         <v>1.21</v>
@@ -56288,7 +56288,7 @@
         <v>0.9</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.25</v>
@@ -56506,7 +56506,7 @@
         <v>0.82</v>
       </c>
       <c r="AP257" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ257" t="n">
         <v>0.92</v>
@@ -56945,7 +56945,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ259" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR259" t="n">
         <v>1.9</v>
@@ -57160,10 +57160,10 @@
         <v>0.82</v>
       </c>
       <c r="AP260" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AQ260" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR260" t="n">
         <v>1.64</v>
@@ -57378,7 +57378,7 @@
         <v>0.82</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ261" t="n">
         <v>0.75</v>
@@ -57599,7 +57599,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ262" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR262" t="n">
         <v>1.24</v>
@@ -57814,10 +57814,10 @@
         <v>1</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR263" t="n">
         <v>1.48</v>
@@ -58250,7 +58250,7 @@
         <v>0.55</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ265" t="n">
         <v>0.77</v>
@@ -58471,7 +58471,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR266" t="n">
         <v>1.29</v>
@@ -58686,10 +58686,10 @@
         <v>0.73</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ267" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR267" t="n">
         <v>1.51</v>
@@ -58904,10 +58904,10 @@
         <v>1.36</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR268" t="n">
         <v>1.47</v>
@@ -59125,7 +59125,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR269" t="n">
         <v>1.45</v>
@@ -59343,7 +59343,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR270" t="n">
         <v>1.16</v>
@@ -59558,7 +59558,7 @@
         <v>2</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ271" t="n">
         <v>1.75</v>
@@ -59776,7 +59776,7 @@
         <v>1.27</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ272" t="n">
         <v>1.17</v>
@@ -59997,7 +59997,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR273" t="n">
         <v>1.69</v>
@@ -60651,7 +60651,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ276" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR276" t="n">
         <v>1.35</v>
@@ -60869,7 +60869,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ277" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR277" t="n">
         <v>1.51</v>
@@ -61084,7 +61084,7 @@
         <v>1.18</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ278" t="n">
         <v>1.23</v>
@@ -61302,7 +61302,7 @@
         <v>1.4</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ279" t="n">
         <v>1.42</v>
@@ -61520,7 +61520,7 @@
         <v>1.2</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.18</v>
@@ -63482,10 +63482,10 @@
         <v>1.5</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR289" t="n">
         <v>1.62</v>
@@ -63700,10 +63700,10 @@
         <v>1.17</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ290" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR290" t="n">
         <v>1.52</v>
@@ -63918,10 +63918,10 @@
         <v>1</v>
       </c>
       <c r="AP291" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ291" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR291" t="n">
         <v>1.53</v>
@@ -64136,10 +64136,10 @@
         <v>1.64</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR292" t="n">
         <v>1.17</v>
@@ -64215,6 +64215,2622 @@
       </c>
       <c r="BP292" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>8217142</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>46039.39583333334</v>
+      </c>
+      <c r="F293" t="n">
+        <v>27</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S293" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V293" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X293" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL293" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM293" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO293" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP293" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>8216921</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>46039.39583333334</v>
+      </c>
+      <c r="F294" t="n">
+        <v>27</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>2</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>2</v>
+      </c>
+      <c r="N294" t="n">
+        <v>3</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['14', '24']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R294" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U294" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V294" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X294" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL294" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM294" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN294" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO294" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP294" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>8216924</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F295" t="n">
+        <v>27</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>3</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>3</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['55', '59', '67']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R295" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S295" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V295" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X295" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL295" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM295" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN295" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO295" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP295" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>8216715</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F296" t="n">
+        <v>27</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>2</v>
+      </c>
+      <c r="J296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K296" t="n">
+        <v>4</v>
+      </c>
+      <c r="L296" t="n">
+        <v>2</v>
+      </c>
+      <c r="M296" t="n">
+        <v>2</v>
+      </c>
+      <c r="N296" t="n">
+        <v>4</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['35', '45+3']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['11', '22']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R296" t="n">
+        <v>2</v>
+      </c>
+      <c r="S296" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X296" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM296" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN296" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO296" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP296" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>8216922</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F297" t="n">
+        <v>27</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>3</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>3</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['49', '73', '90+8']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2</v>
+      </c>
+      <c r="S297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X297" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL297" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM297" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN297" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO297" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BP297" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>8216923</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F298" t="n">
+        <v>27</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>3</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1</v>
+      </c>
+      <c r="N298" t="n">
+        <v>4</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['45', '65', '85']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V298" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X298" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL298" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM298" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN298" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO298" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP298" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>8217186</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F299" t="n">
+        <v>27</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="R299" t="n">
+        <v>2</v>
+      </c>
+      <c r="S299" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X299" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM299" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN299" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO299" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP299" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>8216920</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F300" t="n">
+        <v>27</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="n">
+        <v>2</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+      <c r="N300" t="n">
+        <v>3</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['27', '90+3']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S300" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U300" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V300" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X300" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL300" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM300" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN300" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO300" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP300" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>8217187</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F301" t="n">
+        <v>27</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>2</v>
+      </c>
+      <c r="L301" t="n">
+        <v>3</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>4</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['4', '57', '78']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>4</v>
+      </c>
+      <c r="R301" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U301" t="n">
+        <v>3</v>
+      </c>
+      <c r="V301" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X301" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL301" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM301" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN301" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO301" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP301" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>8217188</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>27</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1</v>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R302" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S302" t="n">
+        <v>4</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U302" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V302" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X302" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL302" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM302" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN302" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO302" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BP302" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>8216925</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F303" t="n">
+        <v>27</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>1</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="n">
+        <v>2</v>
+      </c>
+      <c r="N303" t="n">
+        <v>3</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['17', '64']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R303" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S303" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V303" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X303" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL303" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM303" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN303" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO303" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BP303" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>8217182</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>46039.5</v>
+      </c>
+      <c r="F304" t="n">
+        <v>27</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1</v>
+      </c>
+      <c r="J304" t="n">
+        <v>1</v>
+      </c>
+      <c r="K304" t="n">
+        <v>2</v>
+      </c>
+      <c r="L304" t="n">
+        <v>3</v>
+      </c>
+      <c r="M304" t="n">
+        <v>2</v>
+      </c>
+      <c r="N304" t="n">
+        <v>5</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['13', '56', '76']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['42', '60']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>2</v>
+      </c>
+      <c r="R304" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S304" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="T304" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V304" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X304" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL304" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM304" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO304" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP304" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -65032,13 +65032,13 @@
         <v>13</v>
       </c>
       <c r="AX296" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY296" t="n">
         <v>18</v>
       </c>
       <c r="AZ296" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA296" t="n">
         <v>8</v>
@@ -65250,13 +65250,13 @@
         <v>9</v>
       </c>
       <c r="AX297" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY297" t="n">
         <v>14</v>
       </c>
       <c r="AZ297" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA297" t="n">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -66668,7 +66668,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>['13', '56', '76']</t>
+          <t>['13', '55', '76']</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -64378,13 +64378,13 @@
         <v>6</v>
       </c>
       <c r="AX293" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY293" t="n">
         <v>6</v>
       </c>
       <c r="AZ293" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA293" t="n">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -65895,16 +65895,16 @@
         <v>2.57</v>
       </c>
       <c r="AU300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV300" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW300" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX300" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY300" t="n">
         <v>9</v>
@@ -66334,19 +66334,19 @@
         <v>2</v>
       </c>
       <c r="AV302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW302" t="n">
         <v>6</v>
       </c>
       <c r="AX302" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY302" t="n">
         <v>8</v>
       </c>
       <c r="AZ302" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA302" t="n">
         <v>8</v>
@@ -66558,13 +66558,13 @@
         <v>5</v>
       </c>
       <c r="AX303" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY303" t="n">
         <v>8</v>
       </c>
       <c r="AZ303" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA303" t="n">
         <v>6</v>
@@ -66767,7 +66767,7 @@
         <v>2.54</v>
       </c>
       <c r="AU304" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV304" t="n">
         <v>3</v>
@@ -66776,13 +66776,13 @@
         <v>9</v>
       </c>
       <c r="AX304" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY304" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ304" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA304" t="n">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -64596,13 +64596,13 @@
         <v>11</v>
       </c>
       <c r="AX294" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY294" t="n">
         <v>12</v>
       </c>
       <c r="AZ294" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA294" t="n">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP304"/>
+  <dimension ref="A1:BP305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,7 +3317,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.62</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.92</v>
@@ -7241,7 +7241,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR31" t="n">
         <v>1.65</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.92</v>
@@ -14871,7 +14871,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR66" t="n">
         <v>1.02</v>
@@ -19885,7 +19885,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -21408,7 +21408,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.77</v>
@@ -24681,7 +24681,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR111" t="n">
         <v>1.01</v>
@@ -28166,7 +28166,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.17</v>
@@ -30349,7 +30349,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -30567,7 +30567,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR138" t="n">
         <v>1.54</v>
@@ -34270,7 +34270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.42</v>
@@ -42118,7 +42118,7 @@
         <v>0.88</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.85</v>
@@ -43647,7 +43647,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR198" t="n">
         <v>1.65</v>
@@ -47353,7 +47353,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR215" t="n">
         <v>1.38</v>
@@ -48004,7 +48004,7 @@
         <v>1.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.69</v>
@@ -51928,7 +51928,7 @@
         <v>1.33</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.08</v>
@@ -53239,7 +53239,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR242" t="n">
         <v>1.76</v>
@@ -59340,7 +59340,7 @@
         <v>1.36</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.46</v>
@@ -60651,7 +60651,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR276" t="n">
         <v>1.35</v>
@@ -64139,7 +64139,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR292" t="n">
         <v>1.53</v>
@@ -64357,7 +64357,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ293" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR293" t="n">
         <v>1.42</v>
@@ -66831,6 +66831,224 @@
       </c>
       <c r="BP304" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>8216813</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>46042.69791666666</v>
+      </c>
+      <c r="F305" t="n">
+        <v>16</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>4</v>
+      </c>
+      <c r="R305" t="n">
+        <v>2</v>
+      </c>
+      <c r="S305" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V305" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X305" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN305" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO305" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP305" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -67212,13 +67212,13 @@
         <v>6</v>
       </c>
       <c r="AX306" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY306" t="n">
         <v>10</v>
       </c>
       <c r="AZ306" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA306" t="n">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP306"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.25</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.75</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.18</v>
@@ -3971,7 +3971,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR30" t="n">
         <v>1.63</v>
@@ -7895,7 +7895,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR34" t="n">
         <v>1.57</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.62</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.75</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.85</v>
@@ -10729,7 +10729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR47" t="n">
         <v>0.8</v>
@@ -12255,7 +12255,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR54" t="n">
         <v>0.76</v>
@@ -13124,7 +13124,7 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.29</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.77</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.46</v>
@@ -14653,7 +14653,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR65" t="n">
         <v>1.56</v>
@@ -15307,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR68" t="n">
         <v>1.68</v>
@@ -16397,7 +16397,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR73" t="n">
         <v>1.35</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.25</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR75" t="n">
         <v>1.44</v>
@@ -20757,7 +20757,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR93" t="n">
         <v>1.21</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ98" t="n">
         <v>1</v>
@@ -22283,7 +22283,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22716,10 +22716,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR102" t="n">
         <v>1.94</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.25</v>
@@ -25989,7 +25989,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR117" t="n">
         <v>1</v>
@@ -26204,7 +26204,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ118" t="n">
         <v>1</v>
@@ -26425,7 +26425,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -27294,10 +27294,10 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR123" t="n">
         <v>1.52</v>
@@ -28169,7 +28169,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR127" t="n">
         <v>1.39</v>
@@ -28384,7 +28384,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.75</v>
@@ -28820,7 +28820,7 @@
         <v>0.4</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.92</v>
@@ -30564,7 +30564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.07</v>
@@ -31872,7 +31872,7 @@
         <v>0.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.92</v>
@@ -32526,7 +32526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.23</v>
@@ -34273,7 +34273,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR155" t="n">
         <v>1.32</v>
@@ -35145,7 +35145,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR159" t="n">
         <v>0.97</v>
@@ -35799,7 +35799,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR162" t="n">
         <v>1.67</v>
@@ -37761,7 +37761,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR171" t="n">
         <v>1.58</v>
@@ -39066,7 +39066,7 @@
         <v>0.86</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.46</v>
@@ -40377,7 +40377,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR183" t="n">
         <v>1.34</v>
@@ -41031,7 +41031,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR186" t="n">
         <v>1.89</v>
@@ -42557,7 +42557,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR193" t="n">
         <v>1.41</v>
@@ -44080,7 +44080,7 @@
         <v>1</v>
       </c>
       <c r="AP200" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.25</v>
@@ -44952,7 +44952,7 @@
         <v>1.5</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ204" t="n">
         <v>1.23</v>
@@ -45170,7 +45170,7 @@
         <v>1</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.92</v>
@@ -46042,7 +46042,7 @@
         <v>1.13</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ209" t="n">
         <v>1</v>
@@ -46260,10 +46260,10 @@
         <v>1.38</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR210" t="n">
         <v>1.41</v>
@@ -46481,7 +46481,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR211" t="n">
         <v>1.4</v>
@@ -46699,7 +46699,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR212" t="n">
         <v>1.19</v>
@@ -48658,7 +48658,7 @@
         <v>0.89</v>
       </c>
       <c r="AP221" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ221" t="n">
         <v>0.92</v>
@@ -49966,7 +49966,7 @@
         <v>0.89</v>
       </c>
       <c r="AP227" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.85</v>
@@ -50184,7 +50184,7 @@
         <v>0.89</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ228" t="n">
         <v>0.62</v>
@@ -51277,7 +51277,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR233" t="n">
         <v>1.42</v>
@@ -52149,7 +52149,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR237" t="n">
         <v>1.3</v>
@@ -53239,7 +53239,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR242" t="n">
         <v>1.16</v>
@@ -54762,7 +54762,7 @@
         <v>0.6</v>
       </c>
       <c r="AP249" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.77</v>
@@ -55416,7 +55416,7 @@
         <v>0.78</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ252" t="n">
         <v>0.92</v>
@@ -56070,7 +56070,7 @@
         <v>0.9</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.6899999999999999</v>
@@ -56724,7 +56724,7 @@
         <v>1.64</v>
       </c>
       <c r="AP258" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.29</v>
@@ -58032,7 +58032,7 @@
         <v>1</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ264" t="n">
         <v>0.92</v>
@@ -58686,7 +58686,7 @@
         <v>0.73</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ267" t="n">
         <v>0.92</v>
@@ -59125,7 +59125,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR269" t="n">
         <v>1.11</v>
@@ -60215,7 +60215,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR274" t="n">
         <v>1.4</v>
@@ -60869,7 +60869,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR277" t="n">
         <v>1.34</v>
@@ -62174,7 +62174,7 @@
         <v>1</v>
       </c>
       <c r="AP283" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AQ283" t="n">
         <v>0.92</v>
@@ -62395,7 +62395,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR284" t="n">
         <v>1.26</v>
@@ -62828,7 +62828,7 @@
         <v>0.75</v>
       </c>
       <c r="AP286" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ286" t="n">
         <v>0.77</v>
@@ -63046,7 +63046,7 @@
         <v>1.18</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ287" t="n">
         <v>1</v>
@@ -63267,7 +63267,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR288" t="n">
         <v>1.4</v>
@@ -67267,6 +67267,660 @@
       </c>
       <c r="BP306" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>8216933</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>46046.39583333334</v>
+      </c>
+      <c r="F307" t="n">
+        <v>28</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>1</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R307" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S307" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U307" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V307" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X307" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL307" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM307" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN307" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO307" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP307" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>8216929</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>46046.39583333334</v>
+      </c>
+      <c r="F308" t="n">
+        <v>28</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1</v>
+      </c>
+      <c r="K308" t="n">
+        <v>2</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>1</v>
+      </c>
+      <c r="N308" t="n">
+        <v>2</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['45+7']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R308" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S308" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U308" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V308" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X308" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL308" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM308" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN308" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO308" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP308" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>8216932</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>46046.39583333334</v>
+      </c>
+      <c r="F309" t="n">
+        <v>28</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="R309" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S309" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="T309" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U309" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V309" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X309" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL309" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM309" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN309" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO309" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP309" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.29</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.6899999999999999</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.69</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.62</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.46</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.69</v>
@@ -5933,7 +5933,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR26" t="n">
         <v>1.96</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR32" t="n">
         <v>2.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR33" t="n">
         <v>0.99</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.92</v>
@@ -8985,7 +8985,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR39" t="n">
         <v>0.75</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR40" t="n">
         <v>1.68</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.29</v>
@@ -9639,7 +9639,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR42" t="n">
         <v>0.91</v>
@@ -10075,7 +10075,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR44" t="n">
         <v>1.58</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.92</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR49" t="n">
         <v>1.3</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.46</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.85</v>
@@ -12473,7 +12473,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR55" t="n">
         <v>1.4</v>
@@ -12691,7 +12691,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR56" t="n">
         <v>1.46</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.92</v>
@@ -13345,7 +13345,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR59" t="n">
         <v>0.9</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.62</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.92</v>
@@ -14868,7 +14868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.07</v>
@@ -15089,7 +15089,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR67" t="n">
         <v>1.61</v>
@@ -15522,7 +15522,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.6899999999999999</v>
@@ -15743,7 +15743,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR70" t="n">
         <v>1.47</v>
@@ -15961,7 +15961,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR71" t="n">
         <v>1.44</v>
@@ -16179,7 +16179,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR72" t="n">
         <v>1.29</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.31</v>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR74" t="n">
         <v>1.61</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR76" t="n">
         <v>1.84</v>
@@ -17269,7 +17269,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR78" t="n">
         <v>1.86</v>
@@ -17702,10 +17702,10 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR79" t="n">
         <v>1.55</v>
@@ -17920,10 +17920,10 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR80" t="n">
         <v>1.45</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR94" t="n">
         <v>2.01</v>
@@ -21190,10 +21190,10 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -21408,10 +21408,10 @@
         <v>0.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR96" t="n">
         <v>1.22</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -22062,10 +22062,10 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR99" t="n">
         <v>1.65</v>
@@ -22280,7 +22280,7 @@
         <v>1.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.69</v>
@@ -22498,10 +22498,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -22934,10 +22934,10 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR103" t="n">
         <v>1.24</v>
@@ -23155,7 +23155,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR104" t="n">
         <v>1.41</v>
@@ -25986,7 +25986,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.08</v>
@@ -26422,7 +26422,7 @@
         <v>1.6</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.31</v>
@@ -26640,10 +26640,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR120" t="n">
         <v>1.76</v>
@@ -26858,7 +26858,7 @@
         <v>1</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ121" t="n">
         <v>1</v>
@@ -27076,10 +27076,10 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR122" t="n">
         <v>1.04</v>
@@ -27512,10 +27512,10 @@
         <v>0.75</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27733,7 +27733,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR125" t="n">
         <v>1.3</v>
@@ -27948,10 +27948,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR126" t="n">
         <v>1.28</v>
@@ -28166,7 +28166,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.08</v>
@@ -28387,7 +28387,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR128" t="n">
         <v>2.04</v>
@@ -28602,10 +28602,10 @@
         <v>0.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR129" t="n">
         <v>1.94</v>
@@ -28823,7 +28823,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR130" t="n">
         <v>1.54</v>
@@ -30785,7 +30785,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31221,7 +31221,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR141" t="n">
         <v>1.62</v>
@@ -31436,10 +31436,10 @@
         <v>0.8</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR142" t="n">
         <v>1.38</v>
@@ -32090,7 +32090,7 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.92</v>
@@ -32311,7 +32311,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ146" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR146" t="n">
         <v>1.6</v>
@@ -32529,7 +32529,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR147" t="n">
         <v>1.47</v>
@@ -32747,7 +32747,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR148" t="n">
         <v>1.71</v>
@@ -32962,10 +32962,10 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR149" t="n">
         <v>1.35</v>
@@ -33180,10 +33180,10 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -33619,7 +33619,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR152" t="n">
         <v>1.44</v>
@@ -33834,7 +33834,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.69</v>
@@ -34052,7 +34052,7 @@
         <v>1.2</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ154" t="n">
         <v>1</v>
@@ -34270,7 +34270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.31</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.85</v>
@@ -35796,7 +35796,7 @@
         <v>1.83</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.69</v>
@@ -36450,7 +36450,7 @@
         <v>1.33</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -36668,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.29</v>
@@ -36886,10 +36886,10 @@
         <v>0.86</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167" t="n">
         <v>1.81</v>
@@ -37107,7 +37107,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR168" t="n">
         <v>1.02</v>
@@ -37325,7 +37325,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ169" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR169" t="n">
         <v>1.36</v>
@@ -37540,7 +37540,7 @@
         <v>1.57</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ170" t="n">
         <v>1.46</v>
@@ -37976,7 +37976,7 @@
         <v>1.14</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.6899999999999999</v>
@@ -38197,7 +38197,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR173" t="n">
         <v>1.33</v>
@@ -38630,10 +38630,10 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR175" t="n">
         <v>1.37</v>
@@ -38848,7 +38848,7 @@
         <v>1.83</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.69</v>
@@ -39287,7 +39287,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR178" t="n">
         <v>1.15</v>
@@ -39720,7 +39720,7 @@
         <v>0.71</v>
       </c>
       <c r="AP180" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.92</v>
@@ -40592,7 +40592,7 @@
         <v>0.75</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.46</v>
@@ -40810,7 +40810,7 @@
         <v>1.38</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.46</v>
@@ -41028,7 +41028,7 @@
         <v>1.43</v>
       </c>
       <c r="AP186" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.31</v>
@@ -41682,7 +41682,7 @@
         <v>0.88</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.85</v>
@@ -42118,7 +42118,7 @@
         <v>0.88</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.62</v>
@@ -42339,7 +42339,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ192" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR192" t="n">
         <v>1.28</v>
@@ -43208,7 +43208,7 @@
         <v>0.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.92</v>
@@ -43429,7 +43429,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR197" t="n">
         <v>1.55</v>
@@ -43865,7 +43865,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR199" t="n">
         <v>1.69</v>
@@ -44083,7 +44083,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR200" t="n">
         <v>1.89</v>
@@ -44301,7 +44301,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR201" t="n">
         <v>1.47</v>
@@ -44516,10 +44516,10 @@
         <v>0.86</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR202" t="n">
         <v>1.43</v>
@@ -44955,7 +44955,7 @@
         <v>2</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR204" t="n">
         <v>1.58</v>
@@ -45173,7 +45173,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ205" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR205" t="n">
         <v>1.44</v>
@@ -45606,7 +45606,7 @@
         <v>0.75</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.92</v>
@@ -46478,7 +46478,7 @@
         <v>1.75</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.69</v>
@@ -46914,7 +46914,7 @@
         <v>1</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.46</v>
@@ -47135,7 +47135,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR214" t="n">
         <v>1.4</v>
@@ -47571,7 +47571,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR216" t="n">
         <v>1.34</v>
@@ -48004,7 +48004,7 @@
         <v>1.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.69</v>
@@ -48222,10 +48222,10 @@
         <v>0.75</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR219" t="n">
         <v>1.4</v>
@@ -48440,7 +48440,7 @@
         <v>0.44</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ220" t="n">
         <v>0.77</v>
@@ -48661,7 +48661,7 @@
         <v>2</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR221" t="n">
         <v>1.72</v>
@@ -48879,7 +48879,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR222" t="n">
         <v>1.23</v>
@@ -49530,7 +49530,7 @@
         <v>1.22</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ225" t="n">
         <v>1.46</v>
@@ -50405,7 +50405,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR229" t="n">
         <v>1.29</v>
@@ -50838,10 +50838,10 @@
         <v>0.67</v>
       </c>
       <c r="AP231" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR231" t="n">
         <v>1.87</v>
@@ -51059,7 +51059,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR232" t="n">
         <v>1.43</v>
@@ -51274,7 +51274,7 @@
         <v>1.4</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ233" t="n">
         <v>1.08</v>
@@ -51495,7 +51495,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR234" t="n">
         <v>1.09</v>
@@ -51928,7 +51928,7 @@
         <v>1.33</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ236" t="n">
         <v>1</v>
@@ -52367,7 +52367,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR238" t="n">
         <v>1.36</v>
@@ -52582,7 +52582,7 @@
         <v>1.2</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.46</v>
@@ -52800,10 +52800,10 @@
         <v>1</v>
       </c>
       <c r="AP240" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR240" t="n">
         <v>1.54</v>
@@ -53018,7 +53018,7 @@
         <v>1.11</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ241" t="n">
         <v>1.07</v>
@@ -53672,7 +53672,7 @@
         <v>1</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ244" t="n">
         <v>1</v>
@@ -53893,7 +53893,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ245" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR245" t="n">
         <v>1.47</v>
@@ -54329,7 +54329,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR247" t="n">
         <v>1.62</v>
@@ -54765,7 +54765,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR249" t="n">
         <v>1.93</v>
@@ -54983,7 +54983,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR250" t="n">
         <v>1.41</v>
@@ -55198,7 +55198,7 @@
         <v>0.8</v>
       </c>
       <c r="AP251" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.62</v>
@@ -55637,7 +55637,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR253" t="n">
         <v>1.47</v>
@@ -55852,7 +55852,7 @@
         <v>0.8</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ254" t="n">
         <v>0.85</v>
@@ -56509,7 +56509,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR257" t="n">
         <v>1.44</v>
@@ -57378,7 +57378,7 @@
         <v>0.73</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ261" t="n">
         <v>0.62</v>
@@ -57596,10 +57596,10 @@
         <v>1.09</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AR262" t="n">
         <v>2.05</v>
@@ -57817,7 +57817,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ263" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR263" t="n">
         <v>1.12</v>
@@ -58035,7 +58035,7 @@
         <v>2</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR264" t="n">
         <v>1.72</v>
@@ -58907,7 +58907,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ268" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR268" t="n">
         <v>1.66</v>
@@ -59340,7 +59340,7 @@
         <v>1.7</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ270" t="n">
         <v>1.69</v>
@@ -59558,7 +59558,7 @@
         <v>0.91</v>
       </c>
       <c r="AP271" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AQ271" t="n">
         <v>0.77</v>
@@ -59779,7 +59779,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR272" t="n">
         <v>1.21</v>
@@ -59994,10 +59994,10 @@
         <v>1.2</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR273" t="n">
         <v>1.35</v>
@@ -60430,7 +60430,7 @@
         <v>1.36</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.46</v>
@@ -60648,7 +60648,7 @@
         <v>1</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.07</v>
@@ -61087,7 +61087,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR278" t="n">
         <v>1.41</v>
@@ -61302,7 +61302,7 @@
         <v>1.3</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ279" t="n">
         <v>1</v>
@@ -61738,10 +61738,10 @@
         <v>0.91</v>
       </c>
       <c r="AP281" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR281" t="n">
         <v>2.07</v>
@@ -61959,7 +61959,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR282" t="n">
         <v>1.48</v>
@@ -62177,7 +62177,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ283" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR283" t="n">
         <v>1.92</v>
@@ -62392,7 +62392,7 @@
         <v>1.27</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ284" t="n">
         <v>1.31</v>
@@ -62610,10 +62610,10 @@
         <v>1.33</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR285" t="n">
         <v>1.63</v>
@@ -62831,7 +62831,7 @@
         <v>2</v>
       </c>
       <c r="AQ286" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR286" t="n">
         <v>1.73</v>
@@ -63264,7 +63264,7 @@
         <v>1.91</v>
       </c>
       <c r="AP288" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ288" t="n">
         <v>1.69</v>
@@ -66970,7 +66970,7 @@
         <v>1.08</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ305" t="n">
         <v>1.07</v>
@@ -67921,6 +67921,1750 @@
       </c>
       <c r="BP309" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>8216938</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F310" t="n">
+        <v>28</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>2</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R310" t="n">
+        <v>2</v>
+      </c>
+      <c r="S310" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V310" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X310" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL310" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM310" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN310" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO310" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP310" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>8217157</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F311" t="n">
+        <v>28</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="n">
+        <v>3</v>
+      </c>
+      <c r="N311" t="n">
+        <v>4</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['22', '47', '59']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S311" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="T311" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X311" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL311" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM311" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN311" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO311" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP311" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>8216910</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>28</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>1</v>
+      </c>
+      <c r="N312" t="n">
+        <v>2</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R312" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S312" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V312" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X312" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL312" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM312" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN312" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO312" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP312" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>8216930</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F313" t="n">
+        <v>28</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>2</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>3</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['46', '90+1']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R313" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S313" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U313" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V313" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X313" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM313" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN313" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO313" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP313" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>8216931</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>28</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>2</v>
+      </c>
+      <c r="L314" t="n">
+        <v>3</v>
+      </c>
+      <c r="M314" t="n">
+        <v>3</v>
+      </c>
+      <c r="N314" t="n">
+        <v>6</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['7', '21', '49']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['60', '66', '87']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R314" t="n">
+        <v>2</v>
+      </c>
+      <c r="S314" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V314" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X314" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL314" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM314" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN314" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO314" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP314" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>8216939</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F315" t="n">
+        <v>28</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>2</v>
+      </c>
+      <c r="N315" t="n">
+        <v>2</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['37', '68']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R315" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S315" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U315" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V315" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X315" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM315" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN315" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO315" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP315" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>8217156</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F316" t="n">
+        <v>28</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1</v>
+      </c>
+      <c r="K316" t="n">
+        <v>2</v>
+      </c>
+      <c r="L316" t="n">
+        <v>2</v>
+      </c>
+      <c r="M316" t="n">
+        <v>2</v>
+      </c>
+      <c r="N316" t="n">
+        <v>4</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>['32', '84']</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['38', '67']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R316" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S316" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V316" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X316" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL316" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM316" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN316" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO316" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP316" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>8216926</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>46046.5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>28</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>1</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="n">
+        <v>2</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>2</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>['3', '50']</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R317" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S317" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T317" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V317" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X317" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL317" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM317" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN317" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO317" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP317" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -68947,13 +68947,13 @@
         <v>2.47</v>
       </c>
       <c r="AU314" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV314" t="n">
         <v>7</v>
       </c>
       <c r="AW314" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX314" t="n">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -68314,10 +68314,10 @@
         <v>12</v>
       </c>
       <c r="BB311" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC311" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD311" t="n">
         <v>1.57</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -68314,10 +68314,10 @@
         <v>12</v>
       </c>
       <c r="BB311" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC311" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD311" t="n">
         <v>1.57</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -67645,13 +67645,13 @@
         <v>2</v>
       </c>
       <c r="AW308" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX308" t="n">
         <v>9</v>
       </c>
       <c r="AY308" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ308" t="n">
         <v>11</v>
@@ -69604,16 +69604,16 @@
         <v>5</v>
       </c>
       <c r="AV317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW317" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX317" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY317" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ317" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -68520,13 +68520,13 @@
         <v>10</v>
       </c>
       <c r="AX312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY312" t="n">
         <v>15</v>
       </c>
       <c r="AZ312" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA312" t="n">
         <v>5</v>
@@ -68953,13 +68953,13 @@
         <v>7</v>
       </c>
       <c r="AW314" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX314" t="n">
         <v>1</v>
       </c>
       <c r="AY314" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ314" t="n">
         <v>8</v>
@@ -69174,13 +69174,13 @@
         <v>10</v>
       </c>
       <c r="AX315" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY315" t="n">
         <v>14</v>
       </c>
       <c r="AZ315" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA315" t="n">
         <v>6</v>
@@ -69601,10 +69601,10 @@
         <v>2.29</v>
       </c>
       <c r="AU317" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW317" t="n">
         <v>15</v>
@@ -69613,10 +69613,10 @@
         <v>8</v>
       </c>
       <c r="AY317" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ317" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA317" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP317"/>
+  <dimension ref="A1:BP328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.92</v>
@@ -1573,7 +1573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.93</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.29</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.6899999999999999</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.62</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.46</v>
@@ -4625,7 +4625,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -6151,7 +6151,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR26" t="n">
         <v>1.96</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -6802,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -7023,7 +7023,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR30" t="n">
         <v>1.63</v>
@@ -7459,7 +7459,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR32" t="n">
         <v>2.17</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.21</v>
@@ -7895,7 +7895,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.57</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.62</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.46</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.92</v>
@@ -8985,7 +8985,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR39" t="n">
         <v>0.75</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.93</v>
@@ -9639,7 +9639,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR42" t="n">
         <v>0.91</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR44" t="n">
         <v>1.58</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.85</v>
@@ -10729,7 +10729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR47" t="n">
         <v>0.8</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.92</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR49" t="n">
         <v>1.3</v>
@@ -11598,7 +11598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.46</v>
@@ -11819,7 +11819,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR52" t="n">
         <v>1.49</v>
@@ -12255,7 +12255,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR54" t="n">
         <v>0.76</v>
@@ -12473,7 +12473,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR55" t="n">
         <v>1.4</v>
@@ -12691,7 +12691,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR56" t="n">
         <v>1.46</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.92</v>
@@ -13124,7 +13124,7 @@
         <v>3</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.29</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.77</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.62</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.46</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.92</v>
@@ -14653,7 +14653,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.56</v>
@@ -14868,7 +14868,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.07</v>
@@ -15307,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR68" t="n">
         <v>1.68</v>
@@ -15522,7 +15522,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.6899999999999999</v>
@@ -15743,7 +15743,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR70" t="n">
         <v>1.47</v>
@@ -15961,7 +15961,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR71" t="n">
         <v>1.44</v>
@@ -16176,10 +16176,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR72" t="n">
         <v>1.29</v>
@@ -16394,10 +16394,10 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR73" t="n">
         <v>1.35</v>
@@ -16612,10 +16612,10 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR74" t="n">
         <v>1.61</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR75" t="n">
         <v>1.44</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR76" t="n">
         <v>1.84</v>
@@ -17266,10 +17266,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.21</v>
@@ -17705,7 +17705,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR79" t="n">
         <v>1.55</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.93</v>
@@ -20754,10 +20754,10 @@
         <v>2</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR93" t="n">
         <v>1.21</v>
@@ -20972,10 +20972,10 @@
         <v>0.5</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR94" t="n">
         <v>2.01</v>
@@ -21190,10 +21190,10 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -21408,7 +21408,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.93</v>
@@ -21626,10 +21626,10 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -21844,10 +21844,10 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR98" t="n">
         <v>1.5</v>
@@ -22065,7 +22065,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR99" t="n">
         <v>1.65</v>
@@ -22280,10 +22280,10 @@
         <v>1.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22498,7 +22498,7 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.21</v>
@@ -22716,10 +22716,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR102" t="n">
         <v>1.94</v>
@@ -22934,10 +22934,10 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR103" t="n">
         <v>1.24</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR104" t="n">
         <v>1.41</v>
@@ -25986,10 +25986,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR117" t="n">
         <v>1</v>
@@ -26204,10 +26204,10 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR118" t="n">
         <v>1.92</v>
@@ -26422,10 +26422,10 @@
         <v>1.6</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -26640,10 +26640,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR120" t="n">
         <v>1.76</v>
@@ -26858,10 +26858,10 @@
         <v>1</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR121" t="n">
         <v>1.34</v>
@@ -27076,7 +27076,7 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.21</v>
@@ -27294,10 +27294,10 @@
         <v>1.6</v>
       </c>
       <c r="AP123" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR123" t="n">
         <v>1.52</v>
@@ -27515,7 +27515,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27730,7 +27730,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.93</v>
@@ -27948,10 +27948,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR126" t="n">
         <v>1.28</v>
@@ -28166,10 +28166,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.39</v>
@@ -28384,10 +28384,10 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR128" t="n">
         <v>2.04</v>
@@ -28602,10 +28602,10 @@
         <v>0.6</v>
       </c>
       <c r="AP129" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR129" t="n">
         <v>1.94</v>
@@ -28820,10 +28820,10 @@
         <v>0.4</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR130" t="n">
         <v>1.54</v>
@@ -30564,7 +30564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.07</v>
@@ -30785,7 +30785,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.29</v>
@@ -31221,7 +31221,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR141" t="n">
         <v>1.62</v>
@@ -31436,10 +31436,10 @@
         <v>0.8</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR142" t="n">
         <v>1.38</v>
@@ -31872,7 +31872,7 @@
         <v>0.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ144" t="n">
         <v>0.92</v>
@@ -32090,7 +32090,7 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145" t="n">
         <v>0.92</v>
@@ -32526,7 +32526,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.21</v>
@@ -32747,7 +32747,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR148" t="n">
         <v>1.71</v>
@@ -32962,10 +32962,10 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR149" t="n">
         <v>1.35</v>
@@ -33180,10 +33180,10 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -33619,7 +33619,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR152" t="n">
         <v>1.44</v>
@@ -33834,7 +33834,7 @@
         <v>2.2</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.69</v>
@@ -34052,7 +34052,7 @@
         <v>1.2</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ154" t="n">
         <v>1</v>
@@ -34270,10 +34270,10 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR155" t="n">
         <v>1.32</v>
@@ -34491,7 +34491,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR156" t="n">
         <v>1.26</v>
@@ -35145,7 +35145,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR159" t="n">
         <v>0.97</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.85</v>
@@ -35799,7 +35799,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR162" t="n">
         <v>1.67</v>
@@ -36450,10 +36450,10 @@
         <v>1.33</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR165" t="n">
         <v>1.27</v>
@@ -36668,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.29</v>
@@ -36886,10 +36886,10 @@
         <v>0.86</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR167" t="n">
         <v>1.81</v>
@@ -37107,7 +37107,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR168" t="n">
         <v>1.02</v>
@@ -37322,7 +37322,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.46</v>
@@ -37543,7 +37543,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR170" t="n">
         <v>1.58</v>
@@ -37979,7 +37979,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR172" t="n">
         <v>1.36</v>
@@ -38194,7 +38194,7 @@
         <v>1.14</v>
       </c>
       <c r="AP173" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ173" t="n">
         <v>0.6899999999999999</v>
@@ -38412,7 +38412,7 @@
         <v>0.86</v>
       </c>
       <c r="AP174" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.46</v>
@@ -38630,10 +38630,10 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR175" t="n">
         <v>1.37</v>
@@ -38851,7 +38851,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR176" t="n">
         <v>1.71</v>
@@ -39066,7 +39066,7 @@
         <v>1.83</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.69</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.85</v>
@@ -40377,7 +40377,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR183" t="n">
         <v>1.34</v>
@@ -40810,10 +40810,10 @@
         <v>1.43</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR185" t="n">
         <v>1.89</v>
@@ -41031,7 +41031,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR186" t="n">
         <v>1.28</v>
@@ -41246,7 +41246,7 @@
         <v>0.88</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.85</v>
@@ -41464,7 +41464,7 @@
         <v>1.38</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.46</v>
@@ -41685,7 +41685,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR189" t="n">
         <v>1.41</v>
@@ -42554,7 +42554,7 @@
         <v>0.88</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.62</v>
@@ -43208,7 +43208,7 @@
         <v>0.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
         <v>0.92</v>
@@ -43429,7 +43429,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR197" t="n">
         <v>1.55</v>
@@ -43647,7 +43647,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ198" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR198" t="n">
         <v>1.47</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.6899999999999999</v>
@@ -44080,7 +44080,7 @@
         <v>0.75</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.92</v>
@@ -44298,10 +44298,10 @@
         <v>1</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR201" t="n">
         <v>1.44</v>
@@ -44516,7 +44516,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.21</v>
@@ -44952,10 +44952,10 @@
         <v>0.86</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR204" t="n">
         <v>1.43</v>
@@ -45388,10 +45388,10 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR206" t="n">
         <v>1.89</v>
@@ -45827,7 +45827,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR208" t="n">
         <v>1.39</v>
@@ -46042,7 +46042,7 @@
         <v>1.13</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ209" t="n">
         <v>1</v>
@@ -46260,10 +46260,10 @@
         <v>1.38</v>
       </c>
       <c r="AP210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ210" t="n">
         <v>1.21</v>
-      </c>
-      <c r="AQ210" t="n">
-        <v>1.31</v>
       </c>
       <c r="AR210" t="n">
         <v>1.41</v>
@@ -46478,10 +46478,10 @@
         <v>1.75</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR211" t="n">
         <v>1.4</v>
@@ -46699,7 +46699,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR212" t="n">
         <v>1.19</v>
@@ -47568,7 +47568,7 @@
         <v>1</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.46</v>
@@ -47786,10 +47786,10 @@
         <v>1.5</v>
       </c>
       <c r="AP217" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR217" t="n">
         <v>1.34</v>
@@ -48004,10 +48004,10 @@
         <v>0.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR218" t="n">
         <v>1.4</v>
@@ -48222,7 +48222,7 @@
         <v>1.75</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.69</v>
@@ -48440,7 +48440,7 @@
         <v>0.44</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ220" t="n">
         <v>0.77</v>
@@ -48658,10 +48658,10 @@
         <v>0.89</v>
       </c>
       <c r="AP221" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ221" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR221" t="n">
         <v>1.72</v>
@@ -48879,7 +48879,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR222" t="n">
         <v>1.23</v>
@@ -49094,7 +49094,7 @@
         <v>1.22</v>
       </c>
       <c r="AP223" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ223" t="n">
         <v>1.46</v>
@@ -49530,7 +49530,7 @@
         <v>0.89</v>
       </c>
       <c r="AP225" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.85</v>
@@ -49969,7 +49969,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR227" t="n">
         <v>1.43</v>
@@ -50402,7 +50402,7 @@
         <v>0.67</v>
       </c>
       <c r="AP229" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.93</v>
@@ -50623,7 +50623,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ230" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR230" t="n">
         <v>1.29</v>
@@ -50838,7 +50838,7 @@
         <v>0.89</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.62</v>
@@ -51274,10 +51274,10 @@
         <v>1.4</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR233" t="n">
         <v>1.42</v>
@@ -51928,10 +51928,10 @@
         <v>1.33</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR236" t="n">
         <v>1.12</v>
@@ -52149,7 +52149,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR237" t="n">
         <v>1.36</v>
@@ -52367,7 +52367,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR238" t="n">
         <v>1.3</v>
@@ -52582,7 +52582,7 @@
         <v>1.11</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ239" t="n">
         <v>1.07</v>
@@ -52800,7 +52800,7 @@
         <v>1</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ240" t="n">
         <v>1</v>
@@ -53021,7 +53021,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR241" t="n">
         <v>1.16</v>
@@ -53236,7 +53236,7 @@
         <v>1.2</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.46</v>
@@ -53457,7 +53457,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR243" t="n">
         <v>1.54</v>
@@ -53672,7 +53672,7 @@
         <v>1.89</v>
       </c>
       <c r="AP244" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ244" t="n">
         <v>1.69</v>
@@ -54111,7 +54111,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ246" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR246" t="n">
         <v>1.47</v>
@@ -54326,7 +54326,7 @@
         <v>0.8</v>
       </c>
       <c r="AP247" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.62</v>
@@ -54544,7 +54544,7 @@
         <v>0.78</v>
       </c>
       <c r="AP248" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.92</v>
@@ -54762,7 +54762,7 @@
         <v>0.6</v>
       </c>
       <c r="AP249" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ249" t="n">
         <v>0.93</v>
@@ -54983,7 +54983,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ250" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR250" t="n">
         <v>1.47</v>
@@ -55419,7 +55419,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR252" t="n">
         <v>1.41</v>
@@ -55637,7 +55637,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR253" t="n">
         <v>1.62</v>
@@ -56070,7 +56070,7 @@
         <v>0.8</v>
       </c>
       <c r="AP255" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ255" t="n">
         <v>0.85</v>
@@ -56288,7 +56288,7 @@
         <v>0.9</v>
       </c>
       <c r="AP256" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ256" t="n">
         <v>0.6899999999999999</v>
@@ -56509,7 +56509,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ257" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR257" t="n">
         <v>1.44</v>
@@ -56724,7 +56724,7 @@
         <v>1.64</v>
       </c>
       <c r="AP258" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ258" t="n">
         <v>1.29</v>
@@ -57378,7 +57378,7 @@
         <v>0.73</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ261" t="n">
         <v>0.62</v>
@@ -57596,10 +57596,10 @@
         <v>1.09</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ262" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR262" t="n">
         <v>2.05</v>
@@ -57814,7 +57814,7 @@
         <v>0.73</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ263" t="n">
         <v>0.92</v>
@@ -58468,10 +58468,10 @@
         <v>1</v>
       </c>
       <c r="AP266" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR266" t="n">
         <v>1.72</v>
@@ -58907,7 +58907,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ268" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR268" t="n">
         <v>1.66</v>
@@ -59558,10 +59558,10 @@
         <v>1.3</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR271" t="n">
         <v>1.37</v>
@@ -59776,10 +59776,10 @@
         <v>1.2</v>
       </c>
       <c r="AP272" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ272" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR272" t="n">
         <v>1.35</v>
@@ -59994,7 +59994,7 @@
         <v>1.7</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ273" t="n">
         <v>1.69</v>
@@ -60215,7 +60215,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR274" t="n">
         <v>1.11</v>
@@ -60433,7 +60433,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR275" t="n">
         <v>1.41</v>
@@ -60648,7 +60648,7 @@
         <v>1.36</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ276" t="n">
         <v>1.46</v>
@@ -60866,7 +60866,7 @@
         <v>1</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ277" t="n">
         <v>1.07</v>
@@ -61084,7 +61084,7 @@
         <v>1.18</v>
       </c>
       <c r="AP278" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ278" t="n">
         <v>1</v>
@@ -61305,7 +61305,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR279" t="n">
         <v>1.4</v>
@@ -61523,7 +61523,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR280" t="n">
         <v>1.34</v>
@@ -61738,10 +61738,10 @@
         <v>1.36</v>
       </c>
       <c r="AP281" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ281" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR281" t="n">
         <v>1.48</v>
@@ -61956,10 +61956,10 @@
         <v>0.91</v>
       </c>
       <c r="AP282" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ282" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR282" t="n">
         <v>2.07</v>
@@ -62174,7 +62174,7 @@
         <v>0.75</v>
       </c>
       <c r="AP283" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ283" t="n">
         <v>0.93</v>
@@ -62392,10 +62392,10 @@
         <v>1.18</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR284" t="n">
         <v>1.33</v>
@@ -62610,10 +62610,10 @@
         <v>1</v>
       </c>
       <c r="AP285" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ285" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR285" t="n">
         <v>1.92</v>
@@ -62828,7 +62828,7 @@
         <v>1.33</v>
       </c>
       <c r="AP286" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ286" t="n">
         <v>1.21</v>
@@ -63046,10 +63046,10 @@
         <v>1.91</v>
       </c>
       <c r="AP287" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ287" t="n">
         <v>1.79</v>
-      </c>
-      <c r="AQ287" t="n">
-        <v>1.69</v>
       </c>
       <c r="AR287" t="n">
         <v>1.4</v>
@@ -63264,10 +63264,10 @@
         <v>1.27</v>
       </c>
       <c r="AP288" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR288" t="n">
         <v>1.26</v>
@@ -66970,7 +66970,7 @@
         <v>1.08</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ305" t="n">
         <v>1.07</v>
@@ -67188,10 +67188,10 @@
         <v>1.08</v>
       </c>
       <c r="AP306" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ306" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR306" t="n">
         <v>1.5</v>
@@ -67406,10 +67406,10 @@
         <v>1.75</v>
       </c>
       <c r="AP307" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR307" t="n">
         <v>1.97</v>
@@ -67624,10 +67624,10 @@
         <v>1.42</v>
       </c>
       <c r="AP308" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR308" t="n">
         <v>1.72</v>
@@ -67842,10 +67842,10 @@
         <v>1.17</v>
       </c>
       <c r="AP309" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR309" t="n">
         <v>1.39</v>
@@ -68060,10 +68060,10 @@
         <v>0.92</v>
       </c>
       <c r="AP310" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ310" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR310" t="n">
         <v>1.37</v>
@@ -68278,10 +68278,10 @@
         <v>1.25</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ311" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AR311" t="n">
         <v>1.15</v>
@@ -68496,10 +68496,10 @@
         <v>1.25</v>
       </c>
       <c r="AP312" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ312" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR312" t="n">
         <v>1.64</v>
@@ -68714,10 +68714,10 @@
         <v>0.75</v>
       </c>
       <c r="AP313" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AQ313" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR313" t="n">
         <v>2.04</v>
@@ -68932,10 +68932,10 @@
         <v>1.18</v>
       </c>
       <c r="AP314" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ314" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR314" t="n">
         <v>1.38</v>
@@ -69368,10 +69368,10 @@
         <v>0.92</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ316" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR316" t="n">
         <v>1.24</v>
@@ -69586,7 +69586,7 @@
         <v>1.23</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ317" t="n">
         <v>1.21</v>
@@ -69665,6 +69665,2404 @@
       </c>
       <c r="BP317" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>8216944</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F318" t="n">
+        <v>29</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>2</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>2</v>
+      </c>
+      <c r="L318" t="n">
+        <v>3</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>3</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['7', '41', '86']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R318" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S318" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V318" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X318" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL318" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM318" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN318" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO318" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BP318" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>8216946</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F319" t="n">
+        <v>29</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="R319" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S319" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V319" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X319" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL319" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM319" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN319" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO319" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP319" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>8216901</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F320" t="n">
+        <v>29</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1</v>
+      </c>
+      <c r="K320" t="n">
+        <v>2</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+      <c r="N320" t="n">
+        <v>2</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R320" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S320" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T320" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U320" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V320" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X320" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL320" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM320" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN320" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO320" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP320" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>8216934</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F321" t="n">
+        <v>29</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>2</v>
+      </c>
+      <c r="K321" t="n">
+        <v>2</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>3</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['31', '33']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="R321" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S321" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T321" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V321" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X321" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL321" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM321" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN321" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO321" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP321" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>8216948</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F322" t="n">
+        <v>29</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>1</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R322" t="n">
+        <v>2</v>
+      </c>
+      <c r="S322" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="T322" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V322" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X322" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL322" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM322" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN322" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO322" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BP322" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>8216940</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F323" t="n">
+        <v>29</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>2</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>2</v>
+      </c>
+      <c r="L323" t="n">
+        <v>4</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>4</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['3', '45+1', '63', '69']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R323" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S323" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U323" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V323" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X323" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL323" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM323" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN323" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO323" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP323" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>8217158</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F324" t="n">
+        <v>29</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>2</v>
+      </c>
+      <c r="M324" t="n">
+        <v>1</v>
+      </c>
+      <c r="N324" t="n">
+        <v>3</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>['50', '90+3']</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R324" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S324" t="n">
+        <v>6</v>
+      </c>
+      <c r="T324" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U324" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V324" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X324" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL324" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM324" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN324" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO324" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP324" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>8216927</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F325" t="n">
+        <v>29</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="n">
+        <v>2</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>2</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['2', '72']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R325" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S325" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T325" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V325" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X325" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BL325" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM325" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN325" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO325" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP325" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>8216942</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>46049.69791666666</v>
+      </c>
+      <c r="F326" t="n">
+        <v>29</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1</v>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="n">
+        <v>2</v>
+      </c>
+      <c r="M326" t="n">
+        <v>1</v>
+      </c>
+      <c r="N326" t="n">
+        <v>3</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['58', '84']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R326" t="n">
+        <v>2</v>
+      </c>
+      <c r="S326" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T326" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V326" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X326" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL326" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM326" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BN326" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO326" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP326" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>8216951</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>46049.70833333334</v>
+      </c>
+      <c r="F327" t="n">
+        <v>29</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>2</v>
+      </c>
+      <c r="L327" t="n">
+        <v>2</v>
+      </c>
+      <c r="M327" t="n">
+        <v>2</v>
+      </c>
+      <c r="N327" t="n">
+        <v>4</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['45+1', '75']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['14', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R327" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S327" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="T327" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U327" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="V327" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X327" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL327" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN327" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO327" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP327" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>8216941</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>46049.70833333334</v>
+      </c>
+      <c r="F328" t="n">
+        <v>29</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>2</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>2</v>
+      </c>
+      <c r="L328" t="n">
+        <v>3</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>3</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['34', '45+1', '49']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R328" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S328" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U328" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V328" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X328" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL328" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM328" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN328" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO328" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP328" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -67863,13 +67863,13 @@
         <v>3</v>
       </c>
       <c r="AW309" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX309" t="n">
         <v>10</v>
       </c>
       <c r="AY309" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ309" t="n">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP328"/>
+  <dimension ref="A1:BP340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.21</v>
@@ -1355,7 +1355,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.79</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.21</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.21</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.93</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.87</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.21</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR27" t="n">
         <v>1.54</v>
@@ -6805,7 +6805,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR29" t="n">
         <v>1.07</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.79</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.65</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.29</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34" t="n">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR35" t="n">
         <v>1.89</v>
@@ -8331,7 +8331,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR36" t="n">
         <v>0.85</v>
@@ -8549,7 +8549,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR37" t="n">
         <v>1.61</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR38" t="n">
         <v>0.62</v>
@@ -8982,7 +8982,7 @@
         <v>3</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.08</v>
@@ -9421,7 +9421,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR41" t="n">
         <v>1.5</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.87</v>
@@ -9854,10 +9854,10 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR43" t="n">
         <v>1.52</v>
@@ -10293,7 +10293,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR46" t="n">
         <v>0.98</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.21</v>
@@ -10947,7 +10947,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR48" t="n">
         <v>1.33</v>
@@ -11380,10 +11380,10 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR50" t="n">
         <v>1.31</v>
@@ -11601,7 +11601,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.93</v>
@@ -12037,7 +12037,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR53" t="n">
         <v>1.61</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.21</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.64</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.08</v>
@@ -12909,7 +12909,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR57" t="n">
         <v>1.92</v>
@@ -13127,7 +13127,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13342,7 +13342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.93</v>
@@ -13563,7 +13563,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR60" t="n">
         <v>1.44</v>
@@ -13781,7 +13781,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -13999,7 +13999,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14217,7 +14217,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR63" t="n">
         <v>1.16</v>
@@ -14432,10 +14432,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR64" t="n">
         <v>1.19</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR66" t="n">
         <v>1.02</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.21</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.79</v>
@@ -15525,7 +15525,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR69" t="n">
         <v>1.21</v>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.29</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.79</v>
@@ -18138,10 +18138,10 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR81" t="n">
         <v>0.96</v>
@@ -18356,10 +18356,10 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -18574,10 +18574,10 @@
         <v>0.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR83" t="n">
         <v>1.44</v>
@@ -18792,10 +18792,10 @@
         <v>0</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,10 +19010,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR85" t="n">
         <v>1.4</v>
@@ -19228,10 +19228,10 @@
         <v>2.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19446,10 +19446,10 @@
         <v>0</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19664,10 +19664,10 @@
         <v>0.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -19882,10 +19882,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20100,10 +20100,10 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR90" t="n">
         <v>1.57</v>
@@ -20318,10 +20318,10 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR91" t="n">
         <v>1.18</v>
@@ -20536,10 +20536,10 @@
         <v>2</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR92" t="n">
         <v>1.59</v>
@@ -23370,10 +23370,10 @@
         <v>1.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR105" t="n">
         <v>1.13</v>
@@ -23588,10 +23588,10 @@
         <v>0.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -23806,10 +23806,10 @@
         <v>0.75</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24024,10 +24024,10 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR108" t="n">
         <v>1.63</v>
@@ -24242,10 +24242,10 @@
         <v>0.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -24460,10 +24460,10 @@
         <v>0.75</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24678,10 +24678,10 @@
         <v>0.75</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR111" t="n">
         <v>1.01</v>
@@ -24896,10 +24896,10 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR112" t="n">
         <v>1.63</v>
@@ -25114,10 +25114,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR113" t="n">
         <v>1.87</v>
@@ -25332,10 +25332,10 @@
         <v>1.75</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR114" t="n">
         <v>1.17</v>
@@ -25550,10 +25550,10 @@
         <v>0</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR115" t="n">
         <v>1.38</v>
@@ -25768,10 +25768,10 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -29038,10 +29038,10 @@
         <v>0</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR131" t="n">
         <v>1.06</v>
@@ -29256,10 +29256,10 @@
         <v>0.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR132" t="n">
         <v>1.43</v>
@@ -29474,10 +29474,10 @@
         <v>1.4</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR133" t="n">
         <v>1.3</v>
@@ -29692,10 +29692,10 @@
         <v>0</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR134" t="n">
         <v>1.55</v>
@@ -29910,10 +29910,10 @@
         <v>1.2</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR135" t="n">
         <v>1.06</v>
@@ -30128,10 +30128,10 @@
         <v>0.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ136" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR136" t="n">
         <v>1.45</v>
@@ -30346,10 +30346,10 @@
         <v>0.6</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -30567,7 +30567,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR138" t="n">
         <v>1.54</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.29</v>
@@ -31003,7 +31003,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR140" t="n">
         <v>1.37</v>
@@ -31218,7 +31218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ141" t="n">
         <v>1.08</v>
@@ -31654,10 +31654,10 @@
         <v>1.33</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR143" t="n">
         <v>1.43</v>
@@ -31875,7 +31875,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR144" t="n">
         <v>2</v>
@@ -32093,7 +32093,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR145" t="n">
         <v>0.96</v>
@@ -32308,7 +32308,7 @@
         <v>1</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146" t="n">
         <v>0.93</v>
@@ -32744,7 +32744,7 @@
         <v>0.83</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.21</v>
@@ -33398,10 +33398,10 @@
         <v>1.2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR151" t="n">
         <v>1.34</v>
@@ -33616,7 +33616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.87</v>
@@ -33837,7 +33837,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -34055,7 +34055,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34488,7 +34488,7 @@
         <v>1</v>
       </c>
       <c r="AP156" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ156" t="n">
         <v>0.93</v>
@@ -34706,10 +34706,10 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR157" t="n">
         <v>1.31</v>
@@ -34924,10 +34924,10 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR158" t="n">
         <v>1.12</v>
@@ -35142,7 +35142,7 @@
         <v>1.17</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159" t="n">
         <v>1</v>
@@ -35360,10 +35360,10 @@
         <v>0</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR160" t="n">
         <v>1.1</v>
@@ -35581,7 +35581,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR161" t="n">
         <v>1.39</v>
@@ -36014,10 +36014,10 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR163" t="n">
         <v>1.77</v>
@@ -36232,10 +36232,10 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR164" t="n">
         <v>1.46</v>
@@ -36671,7 +36671,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR166" t="n">
         <v>1.43</v>
@@ -37104,7 +37104,7 @@
         <v>1.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.21</v>
@@ -37325,7 +37325,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR169" t="n">
         <v>1.28</v>
@@ -37540,7 +37540,7 @@
         <v>1.43</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ170" t="n">
         <v>1</v>
@@ -37758,7 +37758,7 @@
         <v>1.71</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.21</v>
@@ -37976,7 +37976,7 @@
         <v>0.57</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.87</v>
@@ -38197,7 +38197,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR173" t="n">
         <v>1.88</v>
@@ -38415,7 +38415,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR174" t="n">
         <v>1.44</v>
@@ -38848,7 +38848,7 @@
         <v>1.29</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.93</v>
@@ -39069,7 +39069,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR177" t="n">
         <v>0.95</v>
@@ -39284,7 +39284,7 @@
         <v>0.86</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.93</v>
@@ -39502,10 +39502,10 @@
         <v>0.43</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR179" t="n">
         <v>1.55</v>
@@ -39723,7 +39723,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR180" t="n">
         <v>1.42</v>
@@ -39938,10 +39938,10 @@
         <v>0.86</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR181" t="n">
         <v>1.68</v>
@@ -40159,7 +40159,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR182" t="n">
         <v>1.58</v>
@@ -40374,7 +40374,7 @@
         <v>2</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.79</v>
@@ -40595,7 +40595,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR184" t="n">
         <v>1.55</v>
@@ -41028,7 +41028,7 @@
         <v>0.63</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ186" t="n">
         <v>0.87</v>
@@ -41249,7 +41249,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR187" t="n">
         <v>1.28</v>
@@ -41467,7 +41467,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR188" t="n">
         <v>1.82</v>
@@ -41682,7 +41682,7 @@
         <v>1.63</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ189" t="n">
         <v>1</v>
@@ -41900,10 +41900,10 @@
         <v>1</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR190" t="n">
         <v>1.44</v>
@@ -42118,10 +42118,10 @@
         <v>0.38</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR191" t="n">
         <v>1.16</v>
@@ -42336,10 +42336,10 @@
         <v>1.57</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR192" t="n">
         <v>1.06</v>
@@ -42557,7 +42557,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR193" t="n">
         <v>1.4</v>
@@ -42772,10 +42772,10 @@
         <v>1.43</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR194" t="n">
         <v>1.33</v>
@@ -42990,10 +42990,10 @@
         <v>1.29</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR195" t="n">
         <v>1.65</v>
@@ -43211,7 +43211,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR196" t="n">
         <v>1.09</v>
@@ -43426,7 +43426,7 @@
         <v>1.57</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.08</v>
@@ -43644,7 +43644,7 @@
         <v>0.75</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.64</v>
@@ -43865,7 +43865,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR199" t="n">
         <v>1.39</v>
@@ -44083,7 +44083,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR200" t="n">
         <v>1.31</v>
@@ -44734,10 +44734,10 @@
         <v>0.86</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR203" t="n">
         <v>1.65</v>
@@ -45170,7 +45170,7 @@
         <v>0.75</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.93</v>
@@ -45606,10 +45606,10 @@
         <v>1.63</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR207" t="n">
         <v>1.39</v>
@@ -45824,7 +45824,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ208" t="n">
         <v>0.93</v>
@@ -46045,7 +46045,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR209" t="n">
         <v>1.93</v>
@@ -46696,7 +46696,7 @@
         <v>1.44</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ212" t="n">
         <v>1</v>
@@ -46914,7 +46914,7 @@
         <v>1.44</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.21</v>
@@ -47132,10 +47132,10 @@
         <v>1</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR214" t="n">
         <v>1.13</v>
@@ -47353,7 +47353,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR215" t="n">
         <v>1.77</v>
@@ -47568,10 +47568,10 @@
         <v>0.88</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR216" t="n">
         <v>1.38</v>
@@ -48225,7 +48225,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR219" t="n">
         <v>1.22</v>
@@ -48443,7 +48443,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR220" t="n">
         <v>1.36</v>
@@ -48876,7 +48876,7 @@
         <v>0.89</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.21</v>
@@ -49097,7 +49097,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR223" t="n">
         <v>1.39</v>
@@ -49312,10 +49312,10 @@
         <v>1.56</v>
       </c>
       <c r="AP224" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ224" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR224" t="n">
         <v>1.51</v>
@@ -49530,7 +49530,7 @@
         <v>1.25</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.79</v>
@@ -49966,10 +49966,10 @@
         <v>0.89</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR227" t="n">
         <v>1.69</v>
@@ -50187,7 +50187,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR228" t="n">
         <v>1.14</v>
@@ -50405,7 +50405,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR229" t="n">
         <v>1.92</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.64</v>
@@ -50838,10 +50838,10 @@
         <v>0.78</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR231" t="n">
         <v>1.39</v>
@@ -51056,10 +51056,10 @@
         <v>0.88</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR232" t="n">
         <v>1.65</v>
@@ -51492,7 +51492,7 @@
         <v>1.3</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.21</v>
@@ -51928,10 +51928,10 @@
         <v>0.7</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR236" t="n">
         <v>1.36</v>
@@ -52146,7 +52146,7 @@
         <v>1.89</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.79</v>
@@ -52364,7 +52364,7 @@
         <v>1.33</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.08</v>
@@ -52585,7 +52585,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR239" t="n">
         <v>1.76</v>
@@ -52800,7 +52800,7 @@
         <v>1.56</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.21</v>
@@ -53021,7 +53021,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR241" t="n">
         <v>1.34</v>
@@ -53239,7 +53239,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR242" t="n">
         <v>1.39</v>
@@ -53675,7 +53675,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR244" t="n">
         <v>1.41</v>
@@ -54108,10 +54108,10 @@
         <v>1.7</v>
       </c>
       <c r="AP246" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ246" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR246" t="n">
         <v>1.17</v>
@@ -54326,7 +54326,7 @@
         <v>1.11</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.79</v>
@@ -54544,7 +54544,7 @@
         <v>0.9</v>
       </c>
       <c r="AP248" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.87</v>
@@ -54765,7 +54765,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR249" t="n">
         <v>1.94</v>
@@ -54983,7 +54983,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR250" t="n">
         <v>1.21</v>
@@ -55198,7 +55198,7 @@
         <v>0.9</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ251" t="n">
         <v>0.64</v>
@@ -55419,7 +55419,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR252" t="n">
         <v>1.68</v>
@@ -55634,10 +55634,10 @@
         <v>0.8</v>
       </c>
       <c r="AP253" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR253" t="n">
         <v>1.67</v>
@@ -55852,10 +55852,10 @@
         <v>1.2</v>
       </c>
       <c r="AP254" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR254" t="n">
         <v>1.52</v>
@@ -56073,7 +56073,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ255" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR255" t="n">
         <v>1.33</v>
@@ -56288,7 +56288,7 @@
         <v>0.9</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.21</v>
@@ -56724,7 +56724,7 @@
         <v>0.82</v>
       </c>
       <c r="AP258" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ258" t="n">
         <v>0.64</v>
@@ -56942,10 +56942,10 @@
         <v>1</v>
       </c>
       <c r="AP259" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ259" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR259" t="n">
         <v>1.48</v>
@@ -57160,7 +57160,7 @@
         <v>0.82</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.87</v>
@@ -57378,7 +57378,7 @@
         <v>0.55</v>
       </c>
       <c r="AP261" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ261" t="n">
         <v>0.93</v>
@@ -57596,10 +57596,10 @@
         <v>0.82</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ262" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR262" t="n">
         <v>1.64</v>
@@ -57817,7 +57817,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR263" t="n">
         <v>1.9</v>
@@ -58032,10 +58032,10 @@
         <v>0.73</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR264" t="n">
         <v>1.51</v>
@@ -58253,7 +58253,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR265" t="n">
         <v>1.29</v>
@@ -58689,7 +58689,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ267" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR267" t="n">
         <v>1.24</v>
@@ -58904,10 +58904,10 @@
         <v>1.36</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR268" t="n">
         <v>1.47</v>
@@ -59125,7 +59125,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR269" t="n">
         <v>1.69</v>
@@ -59561,7 +59561,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR271" t="n">
         <v>1.35</v>
@@ -59779,7 +59779,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ272" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR272" t="n">
         <v>1.51</v>
@@ -59994,7 +59994,7 @@
         <v>1.18</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ273" t="n">
         <v>1.21</v>
@@ -60212,7 +60212,7 @@
         <v>1.2</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ274" t="n">
         <v>1.08</v>
@@ -60430,7 +60430,7 @@
         <v>2</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.79</v>
@@ -60648,7 +60648,7 @@
         <v>1.27</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ276" t="n">
         <v>1</v>
@@ -60869,7 +60869,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR277" t="n">
         <v>1.45</v>
@@ -61305,7 +61305,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR279" t="n">
         <v>1.16</v>
@@ -61520,7 +61520,7 @@
         <v>1.4</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.21</v>
@@ -63482,10 +63482,10 @@
         <v>1.17</v>
       </c>
       <c r="AP289" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR289" t="n">
         <v>1.52</v>
@@ -63700,10 +63700,10 @@
         <v>1.5</v>
       </c>
       <c r="AP290" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ290" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR290" t="n">
         <v>1.62</v>
@@ -63918,10 +63918,10 @@
         <v>1.64</v>
       </c>
       <c r="AP291" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ291" t="n">
         <v>1.64</v>
-      </c>
-      <c r="AQ291" t="n">
-        <v>1.69</v>
       </c>
       <c r="AR291" t="n">
         <v>1.17</v>
@@ -64136,10 +64136,10 @@
         <v>1</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR292" t="n">
         <v>1.53</v>
@@ -64354,10 +64354,10 @@
         <v>1.58</v>
       </c>
       <c r="AP293" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ293" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR293" t="n">
         <v>1.62</v>
@@ -64572,10 +64572,10 @@
         <v>0.92</v>
       </c>
       <c r="AP294" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -64790,10 +64790,10 @@
         <v>1.38</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ295" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR295" t="n">
         <v>1.43</v>
@@ -65008,10 +65008,10 @@
         <v>1</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AQ296" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR296" t="n">
         <v>1.21</v>
@@ -65226,10 +65226,10 @@
         <v>1.5</v>
       </c>
       <c r="AP297" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ297" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR297" t="n">
         <v>1.63</v>
@@ -65444,10 +65444,10 @@
         <v>0.75</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AQ298" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AR298" t="n">
         <v>1.38</v>
@@ -65662,10 +65662,10 @@
         <v>0.67</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR299" t="n">
         <v>1.55</v>
@@ -65880,10 +65880,10 @@
         <v>1.08</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR300" t="n">
         <v>1.48</v>
@@ -66098,10 +66098,10 @@
         <v>1.33</v>
       </c>
       <c r="AP301" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR301" t="n">
         <v>1.56</v>
@@ -66316,10 +66316,10 @@
         <v>0.83</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ302" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR302" t="n">
         <v>1.48</v>
@@ -66534,10 +66534,10 @@
         <v>0.67</v>
       </c>
       <c r="AP303" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ303" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR303" t="n">
         <v>1.12</v>
@@ -66752,10 +66752,10 @@
         <v>0.75</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ304" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR304" t="n">
         <v>1.14</v>
@@ -66973,7 +66973,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ305" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR305" t="n">
         <v>1.16</v>
@@ -70694,16 +70694,16 @@
         <v>4</v>
       </c>
       <c r="AV322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX322" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY322" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ322" t="n">
         <v>7</v>
@@ -71133,13 +71133,13 @@
         <v>1</v>
       </c>
       <c r="AW324" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX324" t="n">
         <v>10</v>
       </c>
       <c r="AY324" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ324" t="n">
         <v>11</v>
@@ -71784,19 +71784,19 @@
         <v>7</v>
       </c>
       <c r="AV327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW327" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX327" t="n">
         <v>6</v>
       </c>
       <c r="AY327" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ327" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA327" t="n">
         <v>3</v>
@@ -72008,13 +72008,13 @@
         <v>4</v>
       </c>
       <c r="AX328" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY328" t="n">
         <v>9</v>
       </c>
       <c r="AZ328" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA328" t="n">
         <v>5</v>
@@ -72063,6 +72063,2622 @@
       </c>
       <c r="BP328" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>8217159</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>46053.39583333334</v>
+      </c>
+      <c r="F329" t="n">
+        <v>30</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1</v>
+      </c>
+      <c r="N329" t="n">
+        <v>1</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="R329" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S329" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V329" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X329" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL329" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM329" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN329" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO329" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP329" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>8216953</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>46053.39583333334</v>
+      </c>
+      <c r="F330" t="n">
+        <v>30</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R330" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S330" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V330" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X330" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL330" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM330" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN330" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO330" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BP330" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>8216943</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>46053.45833333334</v>
+      </c>
+      <c r="F331" t="n">
+        <v>30</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>2</v>
+      </c>
+      <c r="N331" t="n">
+        <v>2</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['55', '58']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="R331" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S331" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V331" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X331" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL331" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM331" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN331" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO331" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP331" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>8216832</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F332" t="n">
+        <v>30</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="n">
+        <v>2</v>
+      </c>
+      <c r="M332" t="n">
+        <v>3</v>
+      </c>
+      <c r="N332" t="n">
+        <v>5</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['64', '85']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['27', '47', '89']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="R332" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S332" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V332" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X332" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL332" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN332" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO332" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP332" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>8216935</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F333" t="n">
+        <v>30</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>2</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>3</v>
+      </c>
+      <c r="L333" t="n">
+        <v>3</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>4</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['14', '31', '48']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="R333" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S333" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V333" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X333" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL333" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM333" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN333" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO333" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP333" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>8217160</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F334" t="n">
+        <v>30</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>1</v>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N334" t="n">
+        <v>1</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R334" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S334" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="T334" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V334" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X334" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL334" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM334" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN334" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO334" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP334" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>8217161</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F335" t="n">
+        <v>30</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="R335" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S335" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V335" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X335" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL335" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM335" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN335" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO335" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP335" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>8217162</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F336" t="n">
+        <v>30</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R336" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S336" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T336" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V336" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X336" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL336" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM336" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN336" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO336" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BP336" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>8217163</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F337" t="n">
+        <v>30</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>1</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="n">
+        <v>2</v>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+      <c r="N337" t="n">
+        <v>3</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['69', '85']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R337" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S337" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V337" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X337" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK337" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL337" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM337" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN337" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO337" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP337" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>8216955</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F338" t="n">
+        <v>30</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>1</v>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R338" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S338" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="T338" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V338" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X338" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL338" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM338" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN338" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO338" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BP338" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>8216954</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F339" t="n">
+        <v>30</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>1</v>
+      </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>4</v>
+      </c>
+      <c r="N339" t="n">
+        <v>4</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['28', '71', '72', '75']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="R339" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S339" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T339" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X339" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL339" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM339" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN339" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO339" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP339" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>8216937</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>46053.5</v>
+      </c>
+      <c r="F340" t="n">
+        <v>30</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="n">
+        <v>2</v>
+      </c>
+      <c r="M340" t="n">
+        <v>2</v>
+      </c>
+      <c r="N340" t="n">
+        <v>4</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['11', '78']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['46', '63']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="R340" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S340" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="T340" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V340" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X340" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL340" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM340" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN340" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO340" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP340" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -72444,13 +72444,13 @@
         <v>5</v>
       </c>
       <c r="AX330" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY330" t="n">
         <v>9</v>
       </c>
       <c r="AZ330" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA330" t="n">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -72226,13 +72226,13 @@
         <v>15</v>
       </c>
       <c r="AX329" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY329" t="n">
         <v>15</v>
       </c>
       <c r="AZ329" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA329" t="n">
         <v>5</v>
@@ -73752,13 +73752,13 @@
         <v>7</v>
       </c>
       <c r="AX336" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY336" t="n">
         <v>8</v>
       </c>
       <c r="AZ336" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA336" t="n">
         <v>5</v>
@@ -73967,13 +73967,13 @@
         <v>4</v>
       </c>
       <c r="AW337" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX337" t="n">
         <v>9</v>
       </c>
       <c r="AY337" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ337" t="n">
         <v>13</v>
@@ -74185,13 +74185,13 @@
         <v>3</v>
       </c>
       <c r="AW338" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX338" t="n">
         <v>5</v>
       </c>
       <c r="AY338" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ338" t="n">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP340"/>
+  <dimension ref="A1:BP343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.21</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.64</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.93</v>
@@ -5497,7 +5497,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.86</v>
@@ -6587,7 +6587,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.2</v>
@@ -7677,7 +7677,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR33" t="n">
         <v>0.99</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.2</v>
@@ -10293,7 +10293,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR45" t="n">
         <v>1.72</v>
@@ -12034,10 +12034,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR53" t="n">
         <v>1.61</v>
@@ -14432,7 +14432,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.13</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65" t="n">
         <v>1</v>
@@ -15089,7 +15089,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.61</v>
@@ -15961,7 +15961,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR71" t="n">
         <v>1.44</v>
@@ -17487,7 +17487,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR78" t="n">
         <v>1.86</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.64</v>
@@ -19010,7 +19010,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.57</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.08</v>
@@ -20539,7 +20539,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR92" t="n">
         <v>1.59</v>
@@ -21629,7 +21629,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.21</v>
@@ -22501,7 +22501,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -24460,7 +24460,7 @@
         <v>0.75</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.36</v>
@@ -25117,7 +25117,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR113" t="n">
         <v>1.87</v>
@@ -25768,7 +25768,7 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.86</v>
@@ -27079,7 +27079,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR122" t="n">
         <v>1.04</v>
@@ -27512,10 +27512,10 @@
         <v>0.75</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -29913,7 +29913,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR135" t="n">
         <v>1.06</v>
@@ -30346,7 +30346,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.2</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.29</v>
@@ -31439,7 +31439,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR142" t="n">
         <v>1.38</v>
@@ -32529,7 +32529,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR147" t="n">
         <v>1.47</v>
@@ -33183,7 +33183,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -34706,7 +34706,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.79</v>
@@ -35581,7 +35581,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR161" t="n">
         <v>1.39</v>
@@ -35796,7 +35796,7 @@
         <v>1.83</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.79</v>
@@ -37761,7 +37761,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR171" t="n">
         <v>1.33</v>
@@ -39502,7 +39502,7 @@
         <v>0.43</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.71</v>
@@ -39723,7 +39723,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ180" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR180" t="n">
         <v>1.42</v>
@@ -40156,7 +40156,7 @@
         <v>0.71</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.93</v>
@@ -40592,7 +40592,7 @@
         <v>0.75</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ184" t="n">
         <v>1.36</v>
@@ -41249,7 +41249,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR187" t="n">
         <v>1.28</v>
@@ -41682,7 +41682,7 @@
         <v>1.63</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ189" t="n">
         <v>1</v>
@@ -43644,7 +43644,7 @@
         <v>0.75</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.64</v>
@@ -44301,7 +44301,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR201" t="n">
         <v>1.44</v>
@@ -44519,7 +44519,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR202" t="n">
         <v>1.58</v>
@@ -46917,7 +46917,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR213" t="n">
         <v>1.4</v>
@@ -49533,7 +49533,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR225" t="n">
         <v>1.29</v>
@@ -50405,7 +50405,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ229" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR229" t="n">
         <v>1.92</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.64</v>
@@ -50838,7 +50838,7 @@
         <v>0.78</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.93</v>
@@ -51495,7 +51495,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR234" t="n">
         <v>1.09</v>
@@ -53454,7 +53454,7 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.29</v>
@@ -54326,10 +54326,10 @@
         <v>1.11</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR247" t="n">
         <v>1.41</v>
@@ -54983,7 +54983,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR250" t="n">
         <v>1.21</v>
@@ -56288,7 +56288,7 @@
         <v>0.9</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.21</v>
@@ -57160,7 +57160,7 @@
         <v>0.82</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.87</v>
@@ -58035,7 +58035,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ264" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR264" t="n">
         <v>1.51</v>
@@ -58471,7 +58471,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR266" t="n">
         <v>1.72</v>
@@ -58904,7 +58904,7 @@
         <v>1.36</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.57</v>
@@ -59776,7 +59776,7 @@
         <v>0.91</v>
       </c>
       <c r="AP272" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ272" t="n">
         <v>0.71</v>
@@ -59997,7 +59997,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR273" t="n">
         <v>1.21</v>
@@ -61741,7 +61741,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR281" t="n">
         <v>2.07</v>
@@ -62395,7 +62395,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR284" t="n">
         <v>1.63</v>
@@ -65880,7 +65880,7 @@
         <v>1.08</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ300" t="n">
         <v>1.13</v>
@@ -66316,7 +66316,7 @@
         <v>0.83</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ302" t="n">
         <v>0.71</v>
@@ -66537,7 +66537,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ303" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR303" t="n">
         <v>1.12</v>
@@ -68063,7 +68063,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ310" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR310" t="n">
         <v>1.31</v>
@@ -68496,7 +68496,7 @@
         <v>0.77</v>
       </c>
       <c r="AP312" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ312" t="n">
         <v>0.93</v>
@@ -69371,7 +69371,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ316" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR316" t="n">
         <v>1.24</v>
@@ -71551,7 +71551,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ326" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR326" t="n">
         <v>1.36</v>
@@ -72423,7 +72423,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ330" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AR330" t="n">
         <v>1.6</v>
@@ -73074,7 +73074,7 @@
         <v>1.29</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ333" t="n">
         <v>1.2</v>
@@ -74600,7 +74600,7 @@
         <v>1.69</v>
       </c>
       <c r="AP340" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ340" t="n">
         <v>1.64</v>
@@ -74679,6 +74679,660 @@
       </c>
       <c r="BP340" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>8216947</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>46056.66666666666</v>
+      </c>
+      <c r="F341" t="n">
+        <v>29</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>1</v>
+      </c>
+      <c r="N341" t="n">
+        <v>1</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R341" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S341" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="T341" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V341" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X341" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL341" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM341" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN341" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO341" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP341" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>8216789</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>46056.69791666666</v>
+      </c>
+      <c r="F342" t="n">
+        <v>16</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>1</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2</v>
+      </c>
+      <c r="L342" t="n">
+        <v>2</v>
+      </c>
+      <c r="M342" t="n">
+        <v>2</v>
+      </c>
+      <c r="N342" t="n">
+        <v>4</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['30', '62']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['3', '71']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R342" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S342" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U342" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="V342" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X342" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM342" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BN342" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO342" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP342" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>8216916</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>46056.69791666666</v>
+      </c>
+      <c r="F343" t="n">
+        <v>26</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>2</v>
+      </c>
+      <c r="K343" t="n">
+        <v>2</v>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="n">
+        <v>2</v>
+      </c>
+      <c r="N343" t="n">
+        <v>3</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['2', '12']</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R343" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S343" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T343" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V343" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X343" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL343" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM343" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN343" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO343" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP343" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -75060,13 +75060,13 @@
         <v>17</v>
       </c>
       <c r="AX342" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY342" t="n">
         <v>22</v>
       </c>
       <c r="AZ342" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA342" t="n">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -74839,13 +74839,13 @@
         <v>1</v>
       </c>
       <c r="AW341" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX341" t="n">
         <v>9</v>
       </c>
       <c r="AY341" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ341" t="n">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -75496,13 +75496,13 @@
         <v>10</v>
       </c>
       <c r="AX344" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY344" t="n">
         <v>17</v>
       </c>
       <c r="AZ344" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA344" t="n">
         <v>5</v>
@@ -75708,13 +75708,13 @@
         <v>5</v>
       </c>
       <c r="AV345" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW345" t="n">
         <v>9</v>
       </c>
       <c r="AX345" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY345" t="n">
         <v>14</v>
@@ -75929,13 +75929,13 @@
         <v>2</v>
       </c>
       <c r="AW346" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX346" t="n">
         <v>6</v>
       </c>
       <c r="AY346" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ346" t="n">
         <v>8</v>
@@ -76359,7 +76359,7 @@
         <v>2.22</v>
       </c>
       <c r="AU348" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV348" t="n">
         <v>5</v>
@@ -76371,7 +76371,7 @@
         <v>9</v>
       </c>
       <c r="AY348" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ348" t="n">
         <v>14</v>
@@ -77894,13 +77894,13 @@
         <v>9</v>
       </c>
       <c r="AX355" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY355" t="n">
         <v>10</v>
       </c>
       <c r="AZ355" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA355" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP355"/>
+  <dimension ref="A1:BP357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.8</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.88</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR32" t="n">
         <v>2.17</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.73</v>
@@ -10947,7 +10947,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR48" t="n">
         <v>1.33</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.67</v>
@@ -12909,7 +12909,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR57" t="n">
         <v>1.92</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.79</v>
@@ -15743,7 +15743,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR70" t="n">
         <v>1.47</v>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR74" t="n">
         <v>1.61</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.13</v>
@@ -20321,7 +20321,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR91" t="n">
         <v>1.18</v>
@@ -20536,7 +20536,7 @@
         <v>2</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.88</v>
@@ -23155,7 +23155,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR104" t="n">
         <v>1.41</v>
@@ -24024,7 +24024,7 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.73</v>
@@ -24245,7 +24245,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -25550,7 +25550,7 @@
         <v>0</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.79</v>
@@ -28605,7 +28605,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR129" t="n">
         <v>1.94</v>
@@ -29256,7 +29256,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.93</v>
@@ -30131,7 +30131,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR136" t="n">
         <v>1.45</v>
@@ -30785,7 +30785,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31654,7 +31654,7 @@
         <v>1.33</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.86</v>
@@ -31875,7 +31875,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR144" t="n">
         <v>2</v>
@@ -33616,7 +33616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.8100000000000001</v>
@@ -36232,7 +36232,7 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.36</v>
@@ -41900,7 +41900,7 @@
         <v>1</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.13</v>
@@ -43211,7 +43211,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR196" t="n">
         <v>1.09</v>
@@ -44955,7 +44955,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR204" t="n">
         <v>1.43</v>
@@ -45606,7 +45606,7 @@
         <v>1.63</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.13</v>
@@ -45824,7 +45824,7 @@
         <v>1.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ208" t="n">
         <v>0.93</v>
@@ -47568,7 +47568,7 @@
         <v>0.88</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ216" t="n">
         <v>1.2</v>
@@ -48007,7 +48007,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR218" t="n">
         <v>1.4</v>
@@ -51059,7 +51059,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR232" t="n">
         <v>1.65</v>
@@ -51928,7 +51928,7 @@
         <v>0.7</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ236" t="n">
         <v>0.73</v>
@@ -52146,7 +52146,7 @@
         <v>1.89</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ237" t="n">
         <v>1.79</v>
@@ -53457,7 +53457,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR243" t="n">
         <v>1.54</v>
@@ -56073,7 +56073,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ255" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR255" t="n">
         <v>1.33</v>
@@ -56945,7 +56945,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ259" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR259" t="n">
         <v>1.48</v>
@@ -60212,7 +60212,7 @@
         <v>1.2</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ274" t="n">
         <v>1</v>
@@ -61087,7 +61087,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR278" t="n">
         <v>1.35</v>
@@ -61520,7 +61520,7 @@
         <v>1.4</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ280" t="n">
         <v>1.13</v>
@@ -61959,7 +61959,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR282" t="n">
         <v>1.48</v>
@@ -64572,7 +64572,7 @@
         <v>0.92</v>
       </c>
       <c r="AP294" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ294" t="n">
         <v>1.2</v>
@@ -65011,7 +65011,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR296" t="n">
         <v>1.21</v>
@@ -65444,7 +65444,7 @@
         <v>0.75</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ298" t="n">
         <v>0.86</v>
@@ -69589,7 +69589,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR317" t="n">
         <v>1.64</v>
@@ -71333,7 +71333,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR325" t="n">
         <v>1.19</v>
@@ -72641,7 +72641,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ331" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR331" t="n">
         <v>1.14</v>
@@ -73728,7 +73728,7 @@
         <v>0.92</v>
       </c>
       <c r="AP336" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ336" t="n">
         <v>0.93</v>
@@ -74164,7 +74164,7 @@
         <v>1.46</v>
       </c>
       <c r="AP338" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ338" t="n">
         <v>1.67</v>
@@ -75908,7 +75908,7 @@
         <v>0.93</v>
       </c>
       <c r="AP346" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ346" t="n">
         <v>0.9399999999999999</v>
@@ -76129,7 +76129,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ347" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR347" t="n">
         <v>1.14</v>
@@ -77455,13 +77455,13 @@
         <v>5</v>
       </c>
       <c r="AW353" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX353" t="n">
         <v>6</v>
       </c>
       <c r="AY353" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ353" t="n">
         <v>11</v>
@@ -77949,6 +77949,442 @@
       </c>
       <c r="BP355" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>8216778</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>46063.69791666666</v>
+      </c>
+      <c r="F356" t="n">
+        <v>16</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="n">
+        <v>2</v>
+      </c>
+      <c r="N356" t="n">
+        <v>3</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>['48', '87']</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>3</v>
+      </c>
+      <c r="R356" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S356" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V356" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X356" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL356" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM356" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN356" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO356" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP356" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>8216807</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>46063.69791666666</v>
+      </c>
+      <c r="F357" t="n">
+        <v>16</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="n">
+        <v>2</v>
+      </c>
+      <c r="N357" t="n">
+        <v>3</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['54', '67']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R357" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S357" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U357" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V357" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X357" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL357" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM357" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN357" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO357" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP357" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP357"/>
+  <dimension ref="A1:BP365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.13</v>
@@ -1573,7 +1573,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.13</v>
@@ -3317,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.79</v>
@@ -4407,7 +4407,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.73</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.93</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.21</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR29" t="n">
         <v>1.07</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR31" t="n">
         <v>1.65</v>
@@ -7459,7 +7459,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR32" t="n">
         <v>2.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR33" t="n">
         <v>0.99</v>
@@ -7892,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR34" t="n">
         <v>1.57</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.79</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR36" t="n">
         <v>0.85</v>
@@ -8549,7 +8549,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR37" t="n">
         <v>1.61</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14214,10 +14214,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR63" t="n">
         <v>1.16</v>
@@ -14432,10 +14432,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR64" t="n">
         <v>1.19</v>
@@ -14653,7 +14653,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR65" t="n">
         <v>1.56</v>
@@ -14868,10 +14868,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR66" t="n">
         <v>1.02</v>
@@ -15086,10 +15086,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR67" t="n">
         <v>1.61</v>
@@ -15522,7 +15522,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.86</v>
@@ -15740,10 +15740,10 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR70" t="n">
         <v>1.47</v>
@@ -15961,7 +15961,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR71" t="n">
         <v>1.44</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.21</v>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR74" t="n">
         <v>1.61</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.8100000000000001</v>
@@ -17487,7 +17487,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR78" t="n">
         <v>1.86</v>
@@ -18356,10 +18356,10 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -18574,7 +18574,7 @@
         <v>0.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.86</v>
@@ -19449,7 +19449,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19667,7 +19667,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -19885,7 +19885,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.13</v>
@@ -20754,10 +20754,10 @@
         <v>2</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR93" t="n">
         <v>1.21</v>
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21408,7 +21408,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.9399999999999999</v>
@@ -21629,7 +21629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -22501,7 +22501,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.13</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.67</v>
@@ -23155,7 +23155,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR104" t="n">
         <v>1.41</v>
@@ -23591,7 +23591,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -23806,10 +23806,10 @@
         <v>0.75</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24463,7 +24463,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24681,7 +24681,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR111" t="n">
         <v>1.01</v>
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.73</v>
@@ -25768,7 +25768,7 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.86</v>
@@ -25986,10 +25986,10 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR117" t="n">
         <v>1</v>
@@ -26204,7 +26204,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.93</v>
@@ -27076,10 +27076,10 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR122" t="n">
         <v>1.04</v>
@@ -27515,7 +27515,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27730,7 +27730,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.9399999999999999</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.21</v>
@@ -28166,10 +28166,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR127" t="n">
         <v>1.39</v>
@@ -28384,7 +28384,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.67</v>
@@ -28605,7 +28605,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR129" t="n">
         <v>1.94</v>
@@ -29259,7 +29259,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR132" t="n">
         <v>1.43</v>
@@ -30128,7 +30128,7 @@
         <v>0.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.13</v>
@@ -30349,7 +30349,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -30567,7 +30567,7 @@
         <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR138" t="n">
         <v>1.54</v>
@@ -30785,7 +30785,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.13</v>
@@ -31218,7 +31218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ141" t="n">
         <v>1</v>
@@ -31439,7 +31439,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR142" t="n">
         <v>1.38</v>
@@ -31872,7 +31872,7 @@
         <v>0.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.13</v>
@@ -32090,10 +32090,10 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR145" t="n">
         <v>0.96</v>
@@ -32529,7 +32529,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR147" t="n">
         <v>1.47</v>
@@ -33180,10 +33180,10 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -33398,10 +33398,10 @@
         <v>1.2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR151" t="n">
         <v>1.34</v>
@@ -34055,7 +34055,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34270,7 +34270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.13</v>
@@ -34706,7 +34706,7 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ157" t="n">
         <v>0.79</v>
@@ -35145,7 +35145,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR159" t="n">
         <v>0.97</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.88</v>
@@ -36014,7 +36014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.67</v>
@@ -36235,7 +36235,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR164" t="n">
         <v>1.46</v>
@@ -36668,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.13</v>
@@ -37543,7 +37543,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR170" t="n">
         <v>1.58</v>
@@ -37761,7 +37761,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR171" t="n">
         <v>1.33</v>
@@ -37976,7 +37976,7 @@
         <v>0.57</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.8100000000000001</v>
@@ -38415,7 +38415,7 @@
         <v>2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR174" t="n">
         <v>1.44</v>
@@ -38848,7 +38848,7 @@
         <v>1.29</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.93</v>
@@ -39066,7 +39066,7 @@
         <v>1.83</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.73</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.88</v>
@@ -40159,7 +40159,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR182" t="n">
         <v>1.58</v>
@@ -40595,7 +40595,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR184" t="n">
         <v>1.55</v>
@@ -41246,7 +41246,7 @@
         <v>0.88</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.88</v>
@@ -41682,10 +41682,10 @@
         <v>1.63</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR189" t="n">
         <v>1.41</v>
@@ -41903,7 +41903,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR190" t="n">
         <v>1.44</v>
@@ -42554,7 +42554,7 @@
         <v>0.88</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.79</v>
@@ -42993,7 +42993,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR195" t="n">
         <v>1.65</v>
@@ -43208,7 +43208,7 @@
         <v>0.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.13</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.86</v>
@@ -44083,7 +44083,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR200" t="n">
         <v>1.31</v>
@@ -44301,7 +44301,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR201" t="n">
         <v>1.44</v>
@@ -44519,7 +44519,7 @@
         <v>2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR202" t="n">
         <v>1.58</v>
@@ -44737,7 +44737,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR203" t="n">
         <v>1.65</v>
@@ -44955,7 +44955,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR204" t="n">
         <v>1.43</v>
@@ -45170,7 +45170,7 @@
         <v>0.75</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.9399999999999999</v>
@@ -45388,7 +45388,7 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.21</v>
@@ -46042,10 +46042,10 @@
         <v>1.13</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR209" t="n">
         <v>1.93</v>
@@ -46699,7 +46699,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR212" t="n">
         <v>1.19</v>
@@ -46914,10 +46914,10 @@
         <v>1.44</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR213" t="n">
         <v>1.4</v>
@@ -47135,7 +47135,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR214" t="n">
         <v>1.13</v>
@@ -47353,7 +47353,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR215" t="n">
         <v>1.77</v>
@@ -47571,7 +47571,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR216" t="n">
         <v>1.38</v>
@@ -47786,7 +47786,7 @@
         <v>1.5</v>
       </c>
       <c r="AP217" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ217" t="n">
         <v>1</v>
@@ -48004,10 +48004,10 @@
         <v>0.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR218" t="n">
         <v>1.4</v>
@@ -48222,7 +48222,7 @@
         <v>1.75</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.73</v>
@@ -49533,7 +49533,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR225" t="n">
         <v>1.29</v>
@@ -50184,7 +50184,7 @@
         <v>1.22</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.67</v>
@@ -50402,7 +50402,7 @@
         <v>0.89</v>
       </c>
       <c r="AP229" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.88</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.67</v>
@@ -50841,7 +50841,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR231" t="n">
         <v>1.39</v>
@@ -51056,7 +51056,7 @@
         <v>0.88</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.13</v>
@@ -51274,10 +51274,10 @@
         <v>1.4</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR233" t="n">
         <v>1.42</v>
@@ -51495,7 +51495,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR234" t="n">
         <v>1.09</v>
@@ -51710,7 +51710,7 @@
         <v>1.33</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.93</v>
@@ -52364,7 +52364,7 @@
         <v>1.33</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ238" t="n">
         <v>1</v>
@@ -52585,7 +52585,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR239" t="n">
         <v>1.76</v>
@@ -53021,7 +53021,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR241" t="n">
         <v>1.34</v>
@@ -53236,7 +53236,7 @@
         <v>1.89</v>
       </c>
       <c r="AP242" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.73</v>
@@ -53457,7 +53457,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR243" t="n">
         <v>1.54</v>
@@ -53675,7 +53675,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR244" t="n">
         <v>1.41</v>
@@ -53890,7 +53890,7 @@
         <v>0.6</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.9399999999999999</v>
@@ -54329,7 +54329,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR247" t="n">
         <v>1.41</v>
@@ -54544,7 +54544,7 @@
         <v>0.9</v>
       </c>
       <c r="AP248" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.8100000000000001</v>
@@ -54980,7 +54980,7 @@
         <v>0.8</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ250" t="n">
         <v>0.88</v>
@@ -55637,7 +55637,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR253" t="n">
         <v>1.67</v>
@@ -56288,7 +56288,7 @@
         <v>0.9</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ256" t="n">
         <v>1.21</v>
@@ -57596,7 +57596,7 @@
         <v>0.82</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ262" t="n">
         <v>0.86</v>
@@ -57814,7 +57814,7 @@
         <v>1.64</v>
       </c>
       <c r="AP263" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.13</v>
@@ -58253,7 +58253,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR265" t="n">
         <v>1.29</v>
@@ -58471,7 +58471,7 @@
         <v>2</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR266" t="n">
         <v>1.72</v>
@@ -58686,7 +58686,7 @@
         <v>0.73</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ267" t="n">
         <v>0.79</v>
@@ -58904,7 +58904,7 @@
         <v>1.36</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.67</v>
@@ -59340,7 +59340,7 @@
         <v>1.3</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ270" t="n">
         <v>0.93</v>
@@ -59561,7 +59561,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR271" t="n">
         <v>1.35</v>
@@ -59997,7 +59997,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR273" t="n">
         <v>1.21</v>
@@ -60648,10 +60648,10 @@
         <v>1.27</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR276" t="n">
         <v>1.4</v>
@@ -60866,10 +60866,10 @@
         <v>1.18</v>
       </c>
       <c r="AP277" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR277" t="n">
         <v>1.45</v>
@@ -61087,7 +61087,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR278" t="n">
         <v>1.35</v>
@@ -61302,10 +61302,10 @@
         <v>1.36</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR279" t="n">
         <v>1.16</v>
@@ -61741,7 +61741,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR281" t="n">
         <v>2.07</v>
@@ -61956,10 +61956,10 @@
         <v>1.36</v>
       </c>
       <c r="AP282" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR282" t="n">
         <v>1.48</v>
@@ -62174,7 +62174,7 @@
         <v>1</v>
       </c>
       <c r="AP283" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ283" t="n">
         <v>0.8100000000000001</v>
@@ -62395,7 +62395,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR284" t="n">
         <v>1.63</v>
@@ -62610,7 +62610,7 @@
         <v>1.91</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ285" t="n">
         <v>1.79</v>
@@ -63046,7 +63046,7 @@
         <v>1.27</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ287" t="n">
         <v>1.13</v>
@@ -63485,7 +63485,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR289" t="n">
         <v>1.52</v>
@@ -64139,7 +64139,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR292" t="n">
         <v>1.53</v>
@@ -64354,7 +64354,7 @@
         <v>1.58</v>
       </c>
       <c r="AP293" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ293" t="n">
         <v>1.73</v>
@@ -64575,7 +64575,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -64790,7 +64790,7 @@
         <v>1.38</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ295" t="n">
         <v>1.13</v>
@@ -65883,7 +65883,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR300" t="n">
         <v>1.48</v>
@@ -66101,7 +66101,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR301" t="n">
         <v>1.56</v>
@@ -66316,7 +66316,7 @@
         <v>0.83</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ302" t="n">
         <v>0.73</v>
@@ -66755,7 +66755,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ304" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR304" t="n">
         <v>1.14</v>
@@ -66970,10 +66970,10 @@
         <v>1.08</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ305" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR305" t="n">
         <v>1.16</v>
@@ -67188,7 +67188,7 @@
         <v>1.08</v>
       </c>
       <c r="AP306" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ306" t="n">
         <v>0.93</v>
@@ -67409,7 +67409,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR307" t="n">
         <v>1.39</v>
@@ -67842,7 +67842,7 @@
         <v>1.75</v>
       </c>
       <c r="AP309" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ309" t="n">
         <v>1.79</v>
@@ -68063,7 +68063,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ310" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR310" t="n">
         <v>1.31</v>
@@ -68278,7 +68278,7 @@
         <v>1.25</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ311" t="n">
         <v>1.21</v>
@@ -68714,7 +68714,7 @@
         <v>1.18</v>
       </c>
       <c r="AP313" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ313" t="n">
         <v>1</v>
@@ -69368,10 +69368,10 @@
         <v>0.92</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ316" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR316" t="n">
         <v>1.24</v>
@@ -69589,7 +69589,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR317" t="n">
         <v>1.64</v>
@@ -69804,7 +69804,7 @@
         <v>1.17</v>
       </c>
       <c r="AP318" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ318" t="n">
         <v>1</v>
@@ -70240,7 +70240,7 @@
         <v>1.69</v>
       </c>
       <c r="AP320" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ320" t="n">
         <v>1.79</v>
@@ -70458,7 +70458,7 @@
         <v>1.31</v>
       </c>
       <c r="AP321" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="AQ321" t="n">
         <v>1.13</v>
@@ -70897,7 +70897,7 @@
         <v>2</v>
       </c>
       <c r="AQ323" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR323" t="n">
         <v>1.72</v>
@@ -71330,10 +71330,10 @@
         <v>1.38</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR325" t="n">
         <v>1.19</v>
@@ -71551,7 +71551,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ326" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR326" t="n">
         <v>1.36</v>
@@ -71984,7 +71984,7 @@
         <v>0.93</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ328" t="n">
         <v>0.9399999999999999</v>
@@ -72205,7 +72205,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR329" t="n">
         <v>1.12</v>
@@ -72420,7 +72420,7 @@
         <v>0.85</v>
       </c>
       <c r="AP330" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ330" t="n">
         <v>0.88</v>
@@ -72859,7 +72859,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ332" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR332" t="n">
         <v>1.51</v>
@@ -73074,7 +73074,7 @@
         <v>1.29</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ333" t="n">
         <v>1.13</v>
@@ -73731,7 +73731,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR336" t="n">
         <v>1.37</v>
@@ -73949,7 +73949,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR337" t="n">
         <v>1.56</v>
@@ -74382,7 +74382,7 @@
         <v>0.62</v>
       </c>
       <c r="AP339" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ339" t="n">
         <v>0.79</v>
@@ -74821,7 +74821,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ341" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR341" t="n">
         <v>1.53</v>
@@ -75036,10 +75036,10 @@
         <v>0.79</v>
       </c>
       <c r="AP342" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ342" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR342" t="n">
         <v>1.44</v>
@@ -78309,7 +78309,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ357" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR357" t="n">
         <v>1.34</v>
@@ -78385,6 +78385,1750 @@
       </c>
       <c r="BP357" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>8216833</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>46067.39583333334</v>
+      </c>
+      <c r="F358" t="n">
+        <v>32</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>2</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>2</v>
+      </c>
+      <c r="L358" t="n">
+        <v>3</v>
+      </c>
+      <c r="M358" t="n">
+        <v>2</v>
+      </c>
+      <c r="N358" t="n">
+        <v>5</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>['8', '44', '74']</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['50', '72']</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="R358" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S358" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V358" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X358" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL358" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM358" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN358" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO358" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP358" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>8216970</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>46067.39583333334</v>
+      </c>
+      <c r="F359" t="n">
+        <v>32</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>1</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R359" t="n">
+        <v>2</v>
+      </c>
+      <c r="S359" t="n">
+        <v>3</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V359" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X359" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL359" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM359" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN359" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO359" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP359" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>8217164</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>46067.5</v>
+      </c>
+      <c r="F360" t="n">
+        <v>32</v>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>3</v>
+      </c>
+      <c r="K360" t="n">
+        <v>3</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>4</v>
+      </c>
+      <c r="N360" t="n">
+        <v>4</v>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>['30', '45+1', '45+4', '60']</t>
+        </is>
+      </c>
+      <c r="Q360" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R360" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S360" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U360" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="V360" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W360" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X360" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y360" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z360" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB360" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC360" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD360" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE360" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF360" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG360" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH360" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI360" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ360" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK360" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL360" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP360" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ360" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR360" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS360" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT360" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU360" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV360" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW360" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX360" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ360" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA360" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB360" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC360" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD360" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE360" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF360" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG360" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH360" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI360" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ360" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK360" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL360" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM360" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN360" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO360" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP360" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>8216968</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>46067.5</v>
+      </c>
+      <c r="F361" t="n">
+        <v>32</v>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q361" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="R361" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S361" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U361" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V361" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W361" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X361" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y361" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z361" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB361" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC361" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD361" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE361" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF361" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG361" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH361" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI361" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ361" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK361" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL361" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM361" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN361" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO361" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP361" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ361" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR361" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS361" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT361" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU361" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV361" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW361" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX361" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ361" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA361" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB361" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC361" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD361" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE361" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF361" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG361" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH361" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI361" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ361" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK361" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL361" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM361" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN361" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO361" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP361" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>8216969</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>46067.5</v>
+      </c>
+      <c r="F362" t="n">
+        <v>32</v>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>1</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="n">
+        <v>1</v>
+      </c>
+      <c r="N362" t="n">
+        <v>2</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q362" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R362" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S362" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U362" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V362" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W362" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X362" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y362" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z362" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB362" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD362" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE362" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF362" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG362" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH362" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI362" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ362" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK362" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL362" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM362" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN362" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO362" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP362" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AQ362" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR362" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS362" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT362" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU362" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV362" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW362" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX362" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ362" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA362" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB362" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC362" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD362" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE362" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF362" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG362" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH362" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI362" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ362" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK362" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL362" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM362" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN362" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO362" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP362" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>8216963</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>46067.5</v>
+      </c>
+      <c r="F363" t="n">
+        <v>32</v>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>2</v>
+      </c>
+      <c r="J363" t="n">
+        <v>2</v>
+      </c>
+      <c r="K363" t="n">
+        <v>4</v>
+      </c>
+      <c r="L363" t="n">
+        <v>3</v>
+      </c>
+      <c r="M363" t="n">
+        <v>3</v>
+      </c>
+      <c r="N363" t="n">
+        <v>6</v>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>['10', '14', '87']</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>['25', '27', '74']</t>
+        </is>
+      </c>
+      <c r="Q363" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R363" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S363" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U363" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V363" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W363" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X363" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH363" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="BI363" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ363" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK363" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL363" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM363" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN363" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO363" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP363" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>8216965</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>46067.5</v>
+      </c>
+      <c r="F364" t="n">
+        <v>32</v>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>1</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
+      <c r="K364" t="n">
+        <v>1</v>
+      </c>
+      <c r="L364" t="n">
+        <v>2</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>2</v>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>['5', '50']</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q364" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R364" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S364" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T364" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U364" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="V364" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W364" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X364" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y364" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB364" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AC364" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD364" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE364" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF364" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG364" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH364" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI364" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ364" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK364" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL364" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM364" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN364" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP364" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ364" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR364" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS364" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT364" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU364" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV364" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW364" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX364" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ364" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA364" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB364" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC364" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD364" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE364" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF364" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG364" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH364" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI364" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ364" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK364" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL364" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM364" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN364" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO364" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BP364" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>8216966</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>46067.5</v>
+      </c>
+      <c r="F365" t="n">
+        <v>32</v>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>3</v>
+      </c>
+      <c r="J365" t="n">
+        <v>1</v>
+      </c>
+      <c r="K365" t="n">
+        <v>4</v>
+      </c>
+      <c r="L365" t="n">
+        <v>3</v>
+      </c>
+      <c r="M365" t="n">
+        <v>1</v>
+      </c>
+      <c r="N365" t="n">
+        <v>4</v>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>['11', '37', '42']</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q365" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R365" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S365" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T365" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U365" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V365" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W365" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X365" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="Y365" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AB365" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC365" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD365" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE365" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF365" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG365" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH365" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI365" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK365" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL365" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM365" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN365" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP365" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ365" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR365" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS365" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT365" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU365" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV365" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW365" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX365" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ365" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA365" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB365" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC365" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD365" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE365" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF365" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG365" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH365" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI365" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ365" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK365" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL365" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM365" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN365" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO365" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP365" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -78542,16 +78542,16 @@
         <v>4</v>
       </c>
       <c r="AV358" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX358" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY358" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ358" t="n">
         <v>24</v>
@@ -78763,13 +78763,13 @@
         <v>0</v>
       </c>
       <c r="AW359" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX359" t="n">
         <v>5</v>
       </c>
       <c r="AY359" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ359" t="n">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -79635,13 +79635,13 @@
         <v>4</v>
       </c>
       <c r="AW363" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX363" t="n">
         <v>5</v>
       </c>
       <c r="AY363" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ363" t="n">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP365"/>
+  <dimension ref="A1:BP376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.13</v>
@@ -1573,7 +1573,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.9399999999999999</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.13</v>
@@ -3099,7 +3099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.73</v>
@@ -5061,7 +5061,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.93</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.8100000000000001</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR26" t="n">
         <v>1.96</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR27" t="n">
         <v>1.54</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR28" t="n">
         <v>1.15</v>
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.07</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR30" t="n">
         <v>1.63</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR31" t="n">
         <v>1.65</v>
@@ -7459,7 +7459,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR32" t="n">
         <v>2.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR33" t="n">
         <v>0.99</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.93</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR35" t="n">
         <v>1.89</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR36" t="n">
         <v>0.85</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR37" t="n">
         <v>1.61</v>
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14214,10 +14214,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR63" t="n">
         <v>1.16</v>
@@ -14432,10 +14432,10 @@
         <v>1.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.19</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.93</v>
@@ -14868,10 +14868,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR66" t="n">
         <v>1.02</v>
@@ -15086,10 +15086,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR67" t="n">
         <v>1.61</v>
@@ -15307,7 +15307,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR68" t="n">
         <v>1.68</v>
@@ -15522,10 +15522,10 @@
         <v>0.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR69" t="n">
         <v>1.21</v>
@@ -15740,10 +15740,10 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR70" t="n">
         <v>1.47</v>
@@ -15958,10 +15958,10 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR71" t="n">
         <v>1.44</v>
@@ -16176,10 +16176,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR72" t="n">
         <v>1.29</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.13</v>
@@ -16615,7 +16615,7 @@
         <v>2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR74" t="n">
         <v>1.61</v>
@@ -16833,7 +16833,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.44</v>
@@ -17051,7 +17051,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR76" t="n">
         <v>1.84</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.8100000000000001</v>
@@ -17487,7 +17487,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR78" t="n">
         <v>1.86</v>
@@ -18356,10 +18356,10 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -18574,10 +18574,10 @@
         <v>0.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.44</v>
@@ -18795,7 +18795,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,7 +19010,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19667,7 +19667,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -19882,10 +19882,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20318,7 +20318,7 @@
         <v>0.67</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.13</v>
@@ -20754,7 +20754,7 @@
         <v>2</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.93</v>
@@ -21190,7 +21190,7 @@
         <v>2</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21408,7 +21408,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.9399999999999999</v>
@@ -21629,7 +21629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR97" t="n">
         <v>1.71</v>
@@ -22065,7 +22065,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR99" t="n">
         <v>1.65</v>
@@ -22283,7 +22283,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22498,10 +22498,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -22716,7 +22716,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.13</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.67</v>
@@ -23155,7 +23155,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR104" t="n">
         <v>1.41</v>
@@ -23370,7 +23370,7 @@
         <v>1.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.13</v>
@@ -23591,7 +23591,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR106" t="n">
         <v>1.46</v>
@@ -23806,10 +23806,10 @@
         <v>0.75</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24460,10 +24460,10 @@
         <v>0.75</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24681,7 +24681,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR111" t="n">
         <v>1.01</v>
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.73</v>
@@ -25553,7 +25553,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR115" t="n">
         <v>1.38</v>
@@ -25768,10 +25768,10 @@
         <v>1</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -25986,7 +25986,7 @@
         <v>1.5</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ117" t="n">
         <v>0.93</v>
@@ -26204,7 +26204,7 @@
         <v>0.33</v>
       </c>
       <c r="AP118" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.93</v>
@@ -26858,7 +26858,7 @@
         <v>1</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.93</v>
@@ -27076,10 +27076,10 @@
         <v>1.2</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR122" t="n">
         <v>1.04</v>
@@ -27297,7 +27297,7 @@
         <v>2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR123" t="n">
         <v>1.52</v>
@@ -27515,7 +27515,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR124" t="n">
         <v>1.81</v>
@@ -27730,7 +27730,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.9399999999999999</v>
@@ -27948,10 +27948,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR126" t="n">
         <v>1.28</v>
@@ -28166,7 +28166,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.93</v>
@@ -28384,7 +28384,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.67</v>
@@ -28605,7 +28605,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR129" t="n">
         <v>1.94</v>
@@ -29041,7 +29041,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR131" t="n">
         <v>1.06</v>
@@ -29259,7 +29259,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR132" t="n">
         <v>1.43</v>
@@ -29477,7 +29477,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR133" t="n">
         <v>1.3</v>
@@ -29910,7 +29910,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.88</v>
@@ -30128,7 +30128,7 @@
         <v>0.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.13</v>
@@ -30346,10 +30346,10 @@
         <v>0.6</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -30567,7 +30567,7 @@
         <v>2</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR138" t="n">
         <v>1.54</v>
@@ -30782,10 +30782,10 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.13</v>
@@ -31218,7 +31218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ141" t="n">
         <v>1</v>
@@ -31436,10 +31436,10 @@
         <v>0.8</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR142" t="n">
         <v>1.38</v>
@@ -31657,7 +31657,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR143" t="n">
         <v>1.43</v>
@@ -31872,7 +31872,7 @@
         <v>0.67</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.13</v>
@@ -32090,10 +32090,10 @@
         <v>0.67</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR145" t="n">
         <v>0.96</v>
@@ -32529,7 +32529,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR147" t="n">
         <v>1.47</v>
@@ -32747,7 +32747,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR148" t="n">
         <v>1.71</v>
@@ -33180,10 +33180,10 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR150" t="n">
         <v>1.34</v>
@@ -33398,10 +33398,10 @@
         <v>1.2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR151" t="n">
         <v>1.34</v>
@@ -34055,7 +34055,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34270,7 +34270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.13</v>
@@ -34706,10 +34706,10 @@
         <v>0.5</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR157" t="n">
         <v>1.31</v>
@@ -34924,7 +34924,7 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.67</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ161" t="n">
         <v>0.88</v>
@@ -35799,7 +35799,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR162" t="n">
         <v>1.67</v>
@@ -36014,7 +36014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.67</v>
@@ -36235,7 +36235,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR164" t="n">
         <v>1.46</v>
@@ -36668,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.13</v>
@@ -37107,7 +37107,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR168" t="n">
         <v>1.02</v>
@@ -37761,7 +37761,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR171" t="n">
         <v>1.33</v>
@@ -37976,7 +37976,7 @@
         <v>0.57</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.8100000000000001</v>
@@ -38197,7 +38197,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR173" t="n">
         <v>1.88</v>
@@ -38415,7 +38415,7 @@
         <v>2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR174" t="n">
         <v>1.44</v>
@@ -38630,7 +38630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ175" t="n">
         <v>1</v>
@@ -38848,7 +38848,7 @@
         <v>1.29</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.93</v>
@@ -39066,7 +39066,7 @@
         <v>1.83</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.73</v>
@@ -39284,7 +39284,7 @@
         <v>0.86</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.9399999999999999</v>
@@ -39502,7 +39502,7 @@
         <v>0.43</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.73</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ180" t="n">
         <v>0.88</v>
@@ -39941,7 +39941,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR181" t="n">
         <v>1.68</v>
@@ -40159,7 +40159,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ182" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR182" t="n">
         <v>1.58</v>
@@ -40377,7 +40377,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR183" t="n">
         <v>1.34</v>
@@ -40595,7 +40595,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR184" t="n">
         <v>1.55</v>
@@ -41246,7 +41246,7 @@
         <v>0.88</v>
       </c>
       <c r="AP187" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.88</v>
@@ -41682,7 +41682,7 @@
         <v>1.63</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.93</v>
@@ -41903,7 +41903,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR190" t="n">
         <v>1.44</v>
@@ -42118,7 +42118,7 @@
         <v>0.38</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.73</v>
@@ -42554,10 +42554,10 @@
         <v>0.88</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR193" t="n">
         <v>1.4</v>
@@ -42993,7 +42993,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR195" t="n">
         <v>1.65</v>
@@ -43208,7 +43208,7 @@
         <v>0.57</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.13</v>
@@ -43644,7 +43644,7 @@
         <v>0.75</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.67</v>
@@ -43862,10 +43862,10 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR199" t="n">
         <v>1.39</v>
@@ -44083,7 +44083,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ200" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR200" t="n">
         <v>1.31</v>
@@ -44301,7 +44301,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ201" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR201" t="n">
         <v>1.44</v>
@@ -44519,7 +44519,7 @@
         <v>2</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR202" t="n">
         <v>1.58</v>
@@ -44737,7 +44737,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR203" t="n">
         <v>1.65</v>
@@ -44952,10 +44952,10 @@
         <v>0.86</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR204" t="n">
         <v>1.43</v>
@@ -45170,7 +45170,7 @@
         <v>0.75</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.9399999999999999</v>
@@ -45388,10 +45388,10 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR206" t="n">
         <v>1.89</v>
@@ -46042,10 +46042,10 @@
         <v>1.13</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR209" t="n">
         <v>1.93</v>
@@ -46478,10 +46478,10 @@
         <v>1.75</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR211" t="n">
         <v>1.4</v>
@@ -46696,7 +46696,7 @@
         <v>1.44</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ212" t="n">
         <v>0.93</v>
@@ -46914,10 +46914,10 @@
         <v>1.44</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR213" t="n">
         <v>1.4</v>
@@ -47135,7 +47135,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR214" t="n">
         <v>1.13</v>
@@ -47353,7 +47353,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR215" t="n">
         <v>1.77</v>
@@ -47571,7 +47571,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR216" t="n">
         <v>1.38</v>
@@ -47786,7 +47786,7 @@
         <v>1.5</v>
       </c>
       <c r="AP217" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ217" t="n">
         <v>1</v>
@@ -48004,10 +48004,10 @@
         <v>0.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR218" t="n">
         <v>1.4</v>
@@ -48222,7 +48222,7 @@
         <v>1.75</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.73</v>
@@ -48879,7 +48879,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR222" t="n">
         <v>1.23</v>
@@ -49097,7 +49097,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR223" t="n">
         <v>1.39</v>
@@ -49533,7 +49533,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR225" t="n">
         <v>1.29</v>
@@ -49969,7 +49969,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR227" t="n">
         <v>1.69</v>
@@ -50184,7 +50184,7 @@
         <v>1.22</v>
       </c>
       <c r="AP228" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ228" t="n">
         <v>1.67</v>
@@ -50402,7 +50402,7 @@
         <v>0.89</v>
       </c>
       <c r="AP229" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ229" t="n">
         <v>0.88</v>
@@ -50620,7 +50620,7 @@
         <v>1</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ230" t="n">
         <v>0.67</v>
@@ -50838,10 +50838,10 @@
         <v>0.78</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ231" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR231" t="n">
         <v>1.39</v>
@@ -51056,7 +51056,7 @@
         <v>0.88</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.13</v>
@@ -51274,7 +51274,7 @@
         <v>1.4</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ233" t="n">
         <v>0.93</v>
@@ -51495,7 +51495,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR234" t="n">
         <v>1.09</v>
@@ -51710,7 +51710,7 @@
         <v>1.33</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ235" t="n">
         <v>0.93</v>
@@ -52149,7 +52149,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR237" t="n">
         <v>1.3</v>
@@ -52364,7 +52364,7 @@
         <v>1.33</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ238" t="n">
         <v>1</v>
@@ -52585,7 +52585,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR239" t="n">
         <v>1.76</v>
@@ -52800,7 +52800,7 @@
         <v>1.56</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.13</v>
@@ -53018,10 +53018,10 @@
         <v>1.2</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR241" t="n">
         <v>1.34</v>
@@ -53236,7 +53236,7 @@
         <v>1.89</v>
       </c>
       <c r="AP242" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ242" t="n">
         <v>1.73</v>
@@ -53457,7 +53457,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR243" t="n">
         <v>1.54</v>
@@ -53675,7 +53675,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR244" t="n">
         <v>1.41</v>
@@ -53890,7 +53890,7 @@
         <v>0.6</v>
       </c>
       <c r="AP245" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ245" t="n">
         <v>0.9399999999999999</v>
@@ -54326,10 +54326,10 @@
         <v>1.11</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR247" t="n">
         <v>1.41</v>
@@ -54544,7 +54544,7 @@
         <v>0.9</v>
       </c>
       <c r="AP248" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.8100000000000001</v>
@@ -54765,7 +54765,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR249" t="n">
         <v>1.94</v>
@@ -54980,7 +54980,7 @@
         <v>0.8</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ250" t="n">
         <v>0.88</v>
@@ -55419,7 +55419,7 @@
         <v>2</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR252" t="n">
         <v>1.68</v>
@@ -55637,7 +55637,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ253" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR253" t="n">
         <v>1.67</v>
@@ -56288,10 +56288,10 @@
         <v>0.9</v>
       </c>
       <c r="AP256" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ256" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR256" t="n">
         <v>1.47</v>
@@ -56509,7 +56509,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR257" t="n">
         <v>2.05</v>
@@ -57160,7 +57160,7 @@
         <v>0.82</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.8100000000000001</v>
@@ -57596,10 +57596,10 @@
         <v>0.82</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ262" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR262" t="n">
         <v>1.64</v>
@@ -57814,7 +57814,7 @@
         <v>1.64</v>
       </c>
       <c r="AP263" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ263" t="n">
         <v>1.13</v>
@@ -58253,7 +58253,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ265" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR265" t="n">
         <v>1.29</v>
@@ -58471,7 +58471,7 @@
         <v>2</v>
       </c>
       <c r="AQ266" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR266" t="n">
         <v>1.72</v>
@@ -58686,10 +58686,10 @@
         <v>0.73</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ267" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR267" t="n">
         <v>1.24</v>
@@ -58904,7 +58904,7 @@
         <v>1.36</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ268" t="n">
         <v>1.67</v>
@@ -59340,7 +59340,7 @@
         <v>1.3</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ270" t="n">
         <v>0.93</v>
@@ -59558,10 +59558,10 @@
         <v>1</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR271" t="n">
         <v>1.35</v>
@@ -59994,10 +59994,10 @@
         <v>1.18</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR273" t="n">
         <v>1.21</v>
@@ -60433,7 +60433,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR275" t="n">
         <v>1.11</v>
@@ -60648,7 +60648,7 @@
         <v>1.27</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ276" t="n">
         <v>0.93</v>
@@ -60866,10 +60866,10 @@
         <v>1.18</v>
       </c>
       <c r="AP277" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR277" t="n">
         <v>1.45</v>
@@ -61087,7 +61087,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR278" t="n">
         <v>1.35</v>
@@ -61302,10 +61302,10 @@
         <v>1.36</v>
       </c>
       <c r="AP279" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR279" t="n">
         <v>1.16</v>
@@ -61741,7 +61741,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR281" t="n">
         <v>2.07</v>
@@ -61956,10 +61956,10 @@
         <v>1.36</v>
       </c>
       <c r="AP282" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR282" t="n">
         <v>1.48</v>
@@ -62174,7 +62174,7 @@
         <v>1</v>
       </c>
       <c r="AP283" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ283" t="n">
         <v>0.8100000000000001</v>
@@ -62395,7 +62395,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR284" t="n">
         <v>1.63</v>
@@ -62610,10 +62610,10 @@
         <v>1.91</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR285" t="n">
         <v>1.4</v>
@@ -63046,7 +63046,7 @@
         <v>1.27</v>
       </c>
       <c r="AP287" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ287" t="n">
         <v>1.13</v>
@@ -63485,7 +63485,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR289" t="n">
         <v>1.52</v>
@@ -63918,7 +63918,7 @@
         <v>1.64</v>
       </c>
       <c r="AP291" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ291" t="n">
         <v>1.73</v>
@@ -64139,7 +64139,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR292" t="n">
         <v>1.53</v>
@@ -64354,7 +64354,7 @@
         <v>1.58</v>
       </c>
       <c r="AP293" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ293" t="n">
         <v>1.73</v>
@@ -64575,7 +64575,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -64790,7 +64790,7 @@
         <v>1.38</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ295" t="n">
         <v>1.13</v>
@@ -65008,7 +65008,7 @@
         <v>1</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ296" t="n">
         <v>1.13</v>
@@ -65447,7 +65447,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ298" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR298" t="n">
         <v>1.38</v>
@@ -65665,7 +65665,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR299" t="n">
         <v>1.55</v>
@@ -65880,10 +65880,10 @@
         <v>1.08</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR300" t="n">
         <v>1.48</v>
@@ -66101,7 +66101,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR301" t="n">
         <v>1.56</v>
@@ -66316,7 +66316,7 @@
         <v>0.83</v>
       </c>
       <c r="AP302" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ302" t="n">
         <v>0.73</v>
@@ -66755,7 +66755,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ304" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR304" t="n">
         <v>1.14</v>
@@ -66970,10 +66970,10 @@
         <v>1.08</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ305" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR305" t="n">
         <v>1.16</v>
@@ -67188,7 +67188,7 @@
         <v>1.08</v>
       </c>
       <c r="AP306" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ306" t="n">
         <v>0.93</v>
@@ -67842,10 +67842,10 @@
         <v>1.75</v>
       </c>
       <c r="AP309" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR309" t="n">
         <v>1.97</v>
@@ -68063,7 +68063,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ310" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR310" t="n">
         <v>1.31</v>
@@ -68278,10 +68278,10 @@
         <v>1.25</v>
       </c>
       <c r="AP311" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ311" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR311" t="n">
         <v>1.15</v>
@@ -68714,7 +68714,7 @@
         <v>1.18</v>
       </c>
       <c r="AP313" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ313" t="n">
         <v>1</v>
@@ -69150,7 +69150,7 @@
         <v>0.92</v>
       </c>
       <c r="AP315" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ315" t="n">
         <v>0.8100000000000001</v>
@@ -69368,10 +69368,10 @@
         <v>0.92</v>
       </c>
       <c r="AP316" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ316" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR316" t="n">
         <v>1.24</v>
@@ -69589,7 +69589,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR317" t="n">
         <v>1.64</v>
@@ -69804,7 +69804,7 @@
         <v>1.17</v>
       </c>
       <c r="AP318" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ318" t="n">
         <v>1</v>
@@ -70025,7 +70025,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ319" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AR319" t="n">
         <v>1.43</v>
@@ -70240,10 +70240,10 @@
         <v>1.69</v>
       </c>
       <c r="AP320" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ320" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR320" t="n">
         <v>1.3</v>
@@ -70458,7 +70458,7 @@
         <v>1.31</v>
       </c>
       <c r="AP321" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ321" t="n">
         <v>1.13</v>
@@ -71330,10 +71330,10 @@
         <v>1.38</v>
       </c>
       <c r="AP325" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR325" t="n">
         <v>1.19</v>
@@ -71551,7 +71551,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ326" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR326" t="n">
         <v>1.36</v>
@@ -71766,7 +71766,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP327" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AQ327" t="n">
         <v>0.67</v>
@@ -71984,7 +71984,7 @@
         <v>0.93</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ328" t="n">
         <v>0.9399999999999999</v>
@@ -72205,7 +72205,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR329" t="n">
         <v>1.12</v>
@@ -72420,7 +72420,7 @@
         <v>0.85</v>
       </c>
       <c r="AP330" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ330" t="n">
         <v>0.88</v>
@@ -72859,7 +72859,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ332" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR332" t="n">
         <v>1.51</v>
@@ -73074,7 +73074,7 @@
         <v>1.29</v>
       </c>
       <c r="AP333" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ333" t="n">
         <v>1.13</v>
@@ -73292,10 +73292,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP334" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ334" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR334" t="n">
         <v>1.24</v>
@@ -73731,7 +73731,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ336" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR336" t="n">
         <v>1.37</v>
@@ -73949,7 +73949,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR337" t="n">
         <v>1.56</v>
@@ -74382,10 +74382,10 @@
         <v>0.62</v>
       </c>
       <c r="AP339" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ339" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR339" t="n">
         <v>1.44</v>
@@ -74600,7 +74600,7 @@
         <v>1.69</v>
       </c>
       <c r="AP340" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ340" t="n">
         <v>1.73</v>
@@ -74821,7 +74821,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ341" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR341" t="n">
         <v>1.53</v>
@@ -75036,10 +75036,10 @@
         <v>0.79</v>
       </c>
       <c r="AP342" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ342" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR342" t="n">
         <v>1.44</v>
@@ -75254,7 +75254,7 @@
         <v>0.79</v>
       </c>
       <c r="AP343" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ343" t="n">
         <v>0.88</v>
@@ -78309,7 +78309,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ357" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR357" t="n">
         <v>1.34</v>
@@ -78524,10 +78524,10 @@
         <v>0.93</v>
       </c>
       <c r="AP358" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ358" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR358" t="n">
         <v>1.36</v>
@@ -78742,10 +78742,10 @@
         <v>1.13</v>
       </c>
       <c r="AP359" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ359" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR359" t="n">
         <v>1.24</v>
@@ -78960,10 +78960,10 @@
         <v>1.36</v>
       </c>
       <c r="AP360" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AQ360" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR360" t="n">
         <v>1.25</v>
@@ -79178,10 +79178,10 @@
         <v>0.8</v>
       </c>
       <c r="AP361" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ361" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR361" t="n">
         <v>1.43</v>
@@ -79396,10 +79396,10 @@
         <v>1.2</v>
       </c>
       <c r="AP362" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AQ362" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR362" t="n">
         <v>1.52</v>
@@ -79614,10 +79614,10 @@
         <v>1.33</v>
       </c>
       <c r="AP363" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AQ363" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR363" t="n">
         <v>1.5</v>
@@ -79832,10 +79832,10 @@
         <v>1.4</v>
       </c>
       <c r="AP364" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ364" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR364" t="n">
         <v>1.57</v>
@@ -80050,7 +80050,7 @@
         <v>1</v>
       </c>
       <c r="AP365" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ365" t="n">
         <v>0.93</v>
@@ -80129,6 +80129,2404 @@
       </c>
       <c r="BP365" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>8216977</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F366" t="n">
+        <v>33</v>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>2</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1</v>
+      </c>
+      <c r="K366" t="n">
+        <v>3</v>
+      </c>
+      <c r="L366" t="n">
+        <v>2</v>
+      </c>
+      <c r="M366" t="n">
+        <v>1</v>
+      </c>
+      <c r="N366" t="n">
+        <v>3</v>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>['19', '24']</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q366" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R366" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S366" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U366" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V366" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="W366" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X366" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y366" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AB366" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC366" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD366" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE366" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF366" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AG366" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AH366" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI366" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ366" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK366" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL366" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM366" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN366" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO366" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP366" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ366" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR366" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS366" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT366" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU366" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV366" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW366" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX366" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ366" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA366" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB366" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC366" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD366" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE366" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF366" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG366" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH366" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI366" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ366" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK366" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL366" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM366" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN366" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO366" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP366" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>8216978</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F367" t="n">
+        <v>33</v>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>1</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
+      <c r="K367" t="n">
+        <v>1</v>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>1</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q367" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R367" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S367" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U367" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V367" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W367" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X367" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y367" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z367" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB367" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AC367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD367" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE367" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF367" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG367" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH367" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI367" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ367" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK367" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM367" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN367" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP367" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ367" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR367" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS367" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT367" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU367" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV367" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW367" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX367" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ367" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA367" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB367" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC367" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD367" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE367" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF367" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG367" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH367" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BI367" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ367" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK367" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL367" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM367" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN367" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO367" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP367" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>8216976</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F368" t="n">
+        <v>33</v>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>1</v>
+      </c>
+      <c r="J368" t="n">
+        <v>1</v>
+      </c>
+      <c r="K368" t="n">
+        <v>2</v>
+      </c>
+      <c r="L368" t="n">
+        <v>4</v>
+      </c>
+      <c r="M368" t="n">
+        <v>1</v>
+      </c>
+      <c r="N368" t="n">
+        <v>5</v>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>['22', '58', '61', '87']</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q368" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R368" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S368" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U368" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V368" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W368" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X368" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y368" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z368" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB368" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC368" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD368" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE368" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF368" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG368" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH368" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AI368" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ368" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK368" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM368" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AN368" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO368" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP368" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AQ368" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR368" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS368" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT368" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU368" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV368" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW368" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX368" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ368" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA368" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB368" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC368" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD368" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE368" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF368" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BG368" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH368" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BI368" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ368" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK368" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL368" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM368" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN368" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO368" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BP368" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>8216975</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F369" t="n">
+        <v>33</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>1</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
+      <c r="K369" t="n">
+        <v>1</v>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>1</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q369" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R369" t="n">
+        <v>2</v>
+      </c>
+      <c r="S369" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="T369" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U369" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V369" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W369" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X369" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y369" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z369" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB369" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AC369" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD369" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE369" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF369" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG369" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH369" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI369" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ369" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK369" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL369" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM369" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN369" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AP369" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ369" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR369" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS369" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT369" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU369" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV369" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW369" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX369" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY369" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ369" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA369" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB369" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC369" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD369" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE369" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF369" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG369" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH369" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI369" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ369" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK369" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL369" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM369" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN369" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO369" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP369" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>8216974</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F370" t="n">
+        <v>33</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>0</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>1</v>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q370" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R370" t="n">
+        <v>2</v>
+      </c>
+      <c r="S370" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="T370" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U370" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V370" t="n">
+        <v>3</v>
+      </c>
+      <c r="W370" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X370" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y370" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z370" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB370" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AC370" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD370" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE370" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF370" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG370" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH370" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI370" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ370" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK370" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL370" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM370" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN370" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO370" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AP370" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ370" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR370" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS370" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT370" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV370" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW370" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX370" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY370" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ370" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA370" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB370" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC370" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD370" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE370" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF370" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BG370" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH370" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI370" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ370" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK370" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL370" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM370" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN370" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO370" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BP370" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>8216972</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F371" t="n">
+        <v>33</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>1</v>
+      </c>
+      <c r="J371" t="n">
+        <v>1</v>
+      </c>
+      <c r="K371" t="n">
+        <v>2</v>
+      </c>
+      <c r="L371" t="n">
+        <v>2</v>
+      </c>
+      <c r="M371" t="n">
+        <v>1</v>
+      </c>
+      <c r="N371" t="n">
+        <v>3</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>['34', '53']</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q371" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R371" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S371" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="T371" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U371" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="V371" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W371" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X371" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY371" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ371" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA371" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB371" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC371" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD371" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE371" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF371" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG371" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH371" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BI371" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ371" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK371" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL371" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BM371" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN371" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO371" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP371" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>8216877</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F372" t="n">
+        <v>33</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>1</v>
+      </c>
+      <c r="J372" t="n">
+        <v>1</v>
+      </c>
+      <c r="K372" t="n">
+        <v>2</v>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="n">
+        <v>3</v>
+      </c>
+      <c r="N372" t="n">
+        <v>4</v>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>['45+1', '52', '70']</t>
+        </is>
+      </c>
+      <c r="Q372" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R372" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S372" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="T372" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U372" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V372" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W372" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X372" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y372" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB372" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC372" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD372" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE372" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF372" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG372" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH372" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AI372" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ372" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK372" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL372" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM372" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN372" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO372" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP372" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ372" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR372" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS372" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT372" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU372" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV372" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW372" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX372" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY372" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ372" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA372" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB372" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC372" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD372" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE372" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF372" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG372" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH372" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI372" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ372" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK372" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL372" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM372" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN372" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO372" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BP372" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>8216979</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F373" t="n">
+        <v>33</v>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
+      <c r="J373" t="n">
+        <v>1</v>
+      </c>
+      <c r="K373" t="n">
+        <v>1</v>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="n">
+        <v>1</v>
+      </c>
+      <c r="N373" t="n">
+        <v>2</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q373" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="R373" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S373" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T373" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U373" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V373" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W373" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X373" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y373" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z373" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB373" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AC373" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD373" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE373" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF373" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG373" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH373" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI373" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ373" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK373" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL373" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM373" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN373" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO373" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP373" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ373" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR373" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS373" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT373" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU373" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV373" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW373" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX373" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY373" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ373" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA373" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB373" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC373" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD373" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE373" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF373" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG373" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH373" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI373" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ373" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK373" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BL373" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM373" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN373" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO373" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP373" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>8216980</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="n">
+        <v>46070.69791666666</v>
+      </c>
+      <c r="F374" t="n">
+        <v>33</v>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>1</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0</v>
+      </c>
+      <c r="K374" t="n">
+        <v>1</v>
+      </c>
+      <c r="L374" t="n">
+        <v>4</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>4</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>['11', '51', '72', '75']</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q374" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R374" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S374" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T374" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U374" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V374" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W374" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X374" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB374" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC374" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD374" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AE374" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF374" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG374" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH374" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI374" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ374" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK374" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM374" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AN374" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO374" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP374" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ374" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR374" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS374" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT374" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU374" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW374" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX374" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY374" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ374" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA374" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB374" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC374" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD374" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE374" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF374" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="BG374" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH374" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI374" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ374" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK374" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL374" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM374" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN374" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO374" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP374" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>8216983</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E375" s="2" t="n">
+        <v>46070.70833333334</v>
+      </c>
+      <c r="F375" t="n">
+        <v>33</v>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>1</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0</v>
+      </c>
+      <c r="K375" t="n">
+        <v>1</v>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="n">
+        <v>1</v>
+      </c>
+      <c r="N375" t="n">
+        <v>2</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q375" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="R375" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S375" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T375" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U375" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V375" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W375" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X375" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB375" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AC375" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD375" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE375" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF375" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG375" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH375" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI375" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ375" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK375" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM375" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN375" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO375" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP375" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ375" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR375" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS375" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT375" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU375" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV375" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW375" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX375" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY375" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ375" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA375" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB375" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC375" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD375" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE375" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF375" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG375" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH375" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI375" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ375" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK375" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL375" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM375" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN375" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO375" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP375" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>8216973</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="n">
+        <v>46070.70833333334</v>
+      </c>
+      <c r="F376" t="n">
+        <v>33</v>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>1</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0</v>
+      </c>
+      <c r="K376" t="n">
+        <v>1</v>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>1</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q376" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="R376" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S376" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="T376" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U376" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V376" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W376" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X376" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD376" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE376" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF376" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AG376" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH376" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI376" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ376" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK376" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM376" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN376" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO376" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP376" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ376" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR376" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS376" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT376" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU376" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV376" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW376" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX376" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY376" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ376" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA376" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB376" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC376" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD376" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE376" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BF376" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG376" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH376" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI376" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ376" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK376" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL376" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM376" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN376" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO376" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP376" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -82045,13 +82045,13 @@
         <v>4</v>
       </c>
       <c r="BA374" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB374" t="n">
         <v>1</v>
       </c>
       <c r="BC374" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD374" t="n">
         <v>1.24</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -83989,7 +83989,7 @@
         <v>2.89</v>
       </c>
       <c r="AU383" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV383" t="n">
         <v>3</v>
@@ -83998,13 +83998,13 @@
         <v>11</v>
       </c>
       <c r="AX383" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY383" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ383" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA383" t="n">
         <v>10</v>
@@ -84652,13 +84652,13 @@
         <v>5</v>
       </c>
       <c r="AX386" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY386" t="n">
         <v>10</v>
       </c>
       <c r="AZ386" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA386" t="n">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -82752,7 +82752,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>8216998</v>
+        <v>8217001</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -82772,197 +82772,197 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I378" t="n">
+        <v>1</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K378" t="n">
+        <v>1</v>
+      </c>
+      <c r="L378" t="n">
         <v>3</v>
       </c>
-      <c r="J378" t="n">
-        <v>2</v>
-      </c>
-      <c r="K378" t="n">
+      <c r="M378" t="n">
+        <v>1</v>
+      </c>
+      <c r="N378" t="n">
+        <v>4</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>['16', '68', '90+6']</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q378" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R378" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S378" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T378" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U378" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V378" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W378" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X378" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB378" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AC378" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD378" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE378" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF378" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AG378" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH378" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ378" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK378" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM378" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN378" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO378" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP378" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ378" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR378" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS378" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT378" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU378" t="n">
         <v>5</v>
       </c>
-      <c r="L378" t="n">
-        <v>5</v>
-      </c>
-      <c r="M378" t="n">
-        <v>2</v>
-      </c>
-      <c r="N378" t="n">
-        <v>7</v>
-      </c>
-      <c r="O378" t="inlineStr">
-        <is>
-          <t>['28', '31', '34', '68', '81']</t>
-        </is>
-      </c>
-      <c r="P378" t="inlineStr">
-        <is>
-          <t>['33', '43']</t>
-        </is>
-      </c>
-      <c r="Q378" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="R378" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S378" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T378" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="U378" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="V378" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W378" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X378" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y378" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z378" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AA378" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB378" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC378" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD378" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE378" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF378" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AG378" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH378" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AI378" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AJ378" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AK378" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AL378" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM378" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AN378" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO378" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AP378" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AQ378" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AR378" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AS378" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AT378" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AU378" t="n">
-        <v>9</v>
-      </c>
       <c r="AV378" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW378" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX378" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY378" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ378" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA378" t="n">
         <v>6</v>
       </c>
-      <c r="AW378" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX378" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY378" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ378" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA378" t="n">
-        <v>3</v>
-      </c>
       <c r="BB378" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC378" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD378" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE378" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF378" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG378" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH378" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI378" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ378" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK378" t="n">
         <v>1.95</v>
       </c>
-      <c r="BE378" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF378" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG378" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BH378" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="BI378" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BJ378" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BK378" t="n">
-        <v>1.68</v>
-      </c>
       <c r="BL378" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="BM378" t="n">
-        <v>2.11</v>
+        <v>2.58</v>
       </c>
       <c r="BN378" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="BO378" t="n">
-        <v>2.68</v>
+        <v>3.38</v>
       </c>
       <c r="BP378" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="379">
@@ -82970,7 +82970,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>8217000</v>
+        <v>8216998</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -82990,197 +82990,197 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="I379" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K379" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L379" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M379" t="n">
         <v>2</v>
       </c>
       <c r="N379" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['28', '31', '34', '68', '81']</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
         <is>
-          <t>['56', '68']</t>
+          <t>['33', '43']</t>
         </is>
       </c>
       <c r="Q379" t="n">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="R379" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="S379" t="n">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="T379" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="U379" t="n">
-        <v>2.99</v>
+        <v>3.27</v>
       </c>
       <c r="V379" t="n">
-        <v>2.94</v>
+        <v>2.67</v>
       </c>
       <c r="W379" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="X379" t="n">
         <v>6.5</v>
       </c>
       <c r="Y379" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z379" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="AA379" t="n">
         <v>3.4</v>
       </c>
       <c r="AB379" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AC379" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD379" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE379" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AF379" t="n">
-        <v>3.24</v>
+        <v>4.04</v>
       </c>
       <c r="AG379" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AH379" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AI379" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AJ379" t="n">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="AK379" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AL379" t="n">
         <v>0</v>
       </c>
       <c r="AM379" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AN379" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AO379" t="n">
-        <v>0.88</v>
+        <v>1.73</v>
       </c>
       <c r="AP379" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ379" t="n">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AR379" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AS379" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AT379" t="n">
-        <v>2.61</v>
+        <v>2.86</v>
       </c>
       <c r="AU379" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV379" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW379" t="n">
         <v>7</v>
       </c>
       <c r="AX379" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY379" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ379" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB379" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC379" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD379" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="BE379" t="n">
         <v>8.5</v>
       </c>
       <c r="BF379" t="n">
-        <v>2.81</v>
+        <v>2</v>
       </c>
       <c r="BG379" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH379" t="n">
-        <v>3.87</v>
+        <v>3.68</v>
       </c>
       <c r="BI379" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="BJ379" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="BK379" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="BL379" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="BM379" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BN379" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="BO379" t="n">
-        <v>2.55</v>
+        <v>2.68</v>
       </c>
       <c r="BP379" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="380">
@@ -83188,7 +83188,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>8217001</v>
+        <v>8217000</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -83208,12 +83208,12 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="I380" t="n">
@@ -83226,83 +83226,83 @@
         <v>1</v>
       </c>
       <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="n">
+        <v>2</v>
+      </c>
+      <c r="N380" t="n">
         <v>3</v>
       </c>
-      <c r="M380" t="n">
-        <v>1</v>
-      </c>
-      <c r="N380" t="n">
-        <v>4</v>
-      </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>['16', '68', '90+6']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>['56', '68']</t>
         </is>
       </c>
       <c r="Q380" t="n">
-        <v>2.57</v>
+        <v>3.28</v>
       </c>
       <c r="R380" t="n">
-        <v>2.09</v>
+        <v>2.24</v>
       </c>
       <c r="S380" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="T380" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="U380" t="n">
-        <v>2.41</v>
+        <v>2.99</v>
       </c>
       <c r="V380" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="W380" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="X380" t="n">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y380" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="Z380" t="n">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="AA380" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="AB380" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="AC380" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AD380" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AE380" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AF380" t="n">
-        <v>2.61</v>
+        <v>3.24</v>
       </c>
       <c r="AG380" t="n">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AH380" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="AI380" t="n">
-        <v>2.03</v>
+        <v>1.7</v>
       </c>
       <c r="AJ380" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AK380" t="n">
         <v>1.32</v>
@@ -83311,94 +83311,94 @@
         <v>0</v>
       </c>
       <c r="AM380" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="AN380" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AO380" t="n">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AP380" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="AQ380" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR380" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="AS380" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="AT380" t="n">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="AU380" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV380" t="n">
         <v>3</v>
       </c>
       <c r="AW380" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX380" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY380" t="n">
         <v>8</v>
       </c>
       <c r="AZ380" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA380" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB380" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC380" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD380" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="BE380" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="BF380" t="n">
-        <v>2.52</v>
+        <v>2.81</v>
       </c>
       <c r="BG380" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="BH380" t="n">
-        <v>2.93</v>
+        <v>3.87</v>
       </c>
       <c r="BI380" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="BJ380" t="n">
-        <v>2.22</v>
+        <v>2.92</v>
       </c>
       <c r="BK380" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL380" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM380" t="n">
         <v>1.95</v>
       </c>
-      <c r="BL380" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BM380" t="n">
-        <v>2.58</v>
-      </c>
       <c r="BN380" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="BO380" t="n">
-        <v>3.38</v>
+        <v>2.55</v>
       </c>
       <c r="BP380" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="381">
@@ -83559,16 +83559,16 @@
         <v>4</v>
       </c>
       <c r="AW381" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX381" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY381" t="n">
         <v>10</v>
       </c>
-      <c r="AX381" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY381" t="n">
-        <v>11</v>
-      </c>
       <c r="AZ381" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA381" t="n">
         <v>2</v>
@@ -83624,7 +83624,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>8216999</v>
+        <v>8216992</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -83644,12 +83644,12 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>Port Vale</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="I382" t="n">
@@ -83662,179 +83662,179 @@
         <v>1</v>
       </c>
       <c r="L382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
       <c r="N382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>['90+6']</t>
+          <t>['57', '74']</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>['39']</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="Q382" t="n">
-        <v>3.53</v>
+        <v>2.3</v>
       </c>
       <c r="R382" t="n">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="S382" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="T382" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U382" t="n">
-        <v>2.73</v>
+        <v>3.2</v>
       </c>
       <c r="V382" t="n">
-        <v>3.09</v>
+        <v>2.5</v>
       </c>
       <c r="W382" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="X382" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y382" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="Z382" t="n">
-        <v>2.78</v>
+        <v>1.82</v>
       </c>
       <c r="AA382" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="AB382" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="AC382" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD382" t="n">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE382" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AF382" t="n">
-        <v>3.33</v>
+        <v>3.62</v>
       </c>
       <c r="AG382" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="AH382" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AI382" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AJ382" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="AK382" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AL382" t="n">
         <v>0</v>
       </c>
       <c r="AM382" t="n">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="AN382" t="n">
-        <v>0.71</v>
+        <v>2</v>
       </c>
       <c r="AO382" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP382" t="n">
-        <v>0.73</v>
+        <v>2.06</v>
       </c>
       <c r="AQ382" t="n">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AR382" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS382" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT382" t="n">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AU382" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW382" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX382" t="n">
         <v>7</v>
       </c>
-      <c r="AX382" t="n">
-        <v>8</v>
-      </c>
       <c r="AY382" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ382" t="n">
         <v>10</v>
       </c>
       <c r="BA382" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB382" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC382" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BD382" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BE382" t="n">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF382" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="BG382" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="BH382" t="n">
-        <v>3.29</v>
+        <v>4.21</v>
       </c>
       <c r="BI382" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ382" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK382" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL382" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM382" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN382" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO382" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP382" t="n">
         <v>1.51</v>
-      </c>
-      <c r="BJ382" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="BK382" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="BL382" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="BM382" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="BN382" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BO382" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BP382" t="n">
-        <v>1.28</v>
       </c>
     </row>
     <row r="383">
@@ -83842,7 +83842,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>8216992</v>
+        <v>8216987</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -83862,197 +83862,197 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="I383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K383" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L383" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N383" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>['57', '74']</t>
+          <t>['5', '41', '90+2', '90+10']</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>['2', '11']</t>
         </is>
       </c>
       <c r="Q383" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="R383" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="S383" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="T383" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U383" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V383" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W383" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X383" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA383" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB383" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AC383" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD383" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE383" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF383" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG383" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH383" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI383" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ383" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK383" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL383" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM383" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN383" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO383" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP383" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ383" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR383" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS383" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT383" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU383" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV383" t="n">
         <v>4</v>
       </c>
-      <c r="T383" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U383" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V383" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W383" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X383" t="n">
+      <c r="AW383" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX383" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY383" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ383" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA383" t="n">
         <v>6</v>
       </c>
-      <c r="Y383" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z383" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA383" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AB383" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC383" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD383" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE383" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF383" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AG383" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH383" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI383" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AJ383" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AK383" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AL383" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM383" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AN383" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO383" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP383" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AQ383" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AR383" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AS383" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT383" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AU383" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV383" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW383" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX383" t="n">
+      <c r="BB383" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC383" t="n">
         <v>7</v>
       </c>
-      <c r="AY383" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ383" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA383" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB383" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC383" t="n">
-        <v>17</v>
-      </c>
       <c r="BD383" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="BE383" t="n">
         <v>8.5</v>
       </c>
       <c r="BF383" t="n">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="BG383" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="BH383" t="n">
-        <v>4.21</v>
+        <v>3.34</v>
       </c>
       <c r="BI383" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="BJ383" t="n">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
       <c r="BK383" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="BL383" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="BM383" t="n">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="BN383" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="BO383" t="n">
-        <v>2.38</v>
+        <v>3.07</v>
       </c>
       <c r="BP383" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="384">
@@ -84060,7 +84060,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>8216987</v>
+        <v>8216986</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -84080,197 +84080,197 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="I384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>2</v>
+      </c>
+      <c r="M384" t="n">
+        <v>2</v>
+      </c>
+      <c r="N384" t="n">
         <v>4</v>
       </c>
-      <c r="L384" t="n">
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>['66', '85']</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>['73', '77']</t>
+        </is>
+      </c>
+      <c r="Q384" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R384" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S384" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T384" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U384" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V384" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W384" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X384" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB384" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AC384" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD384" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE384" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF384" t="n">
         <v>4</v>
       </c>
-      <c r="M384" t="n">
-        <v>2</v>
-      </c>
-      <c r="N384" t="n">
-        <v>6</v>
-      </c>
-      <c r="O384" t="inlineStr">
-        <is>
-          <t>['5', '41', '90+2', '90+10']</t>
-        </is>
-      </c>
-      <c r="P384" t="inlineStr">
-        <is>
-          <t>['2', '11']</t>
-        </is>
-      </c>
-      <c r="Q384" t="n">
+      <c r="AG384" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH384" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI384" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ384" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK384" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL384" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM384" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN384" t="n">
         <v>2.31</v>
       </c>
-      <c r="R384" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S384" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="T384" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U384" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="V384" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W384" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X384" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y384" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z384" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AA384" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AB384" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AC384" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD384" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE384" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF384" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG384" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH384" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI384" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ384" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK384" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AL384" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM384" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AN384" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AO384" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AP384" t="n">
-        <v>1.82</v>
+        <v>2.24</v>
       </c>
       <c r="AQ384" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="AR384" t="n">
-        <v>1.52</v>
+        <v>1.99</v>
       </c>
       <c r="AS384" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AT384" t="n">
-        <v>2.65</v>
+        <v>3.07</v>
       </c>
       <c r="AU384" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV384" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW384" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX384" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY384" t="n">
         <v>22</v>
       </c>
       <c r="AZ384" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA384" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BB384" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC384" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BD384" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="BE384" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF384" t="n">
-        <v>3.34</v>
+        <v>6.1</v>
       </c>
       <c r="BG384" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BH384" t="n">
-        <v>3.34</v>
+        <v>3.72</v>
       </c>
       <c r="BI384" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="BJ384" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="BK384" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="BL384" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="BM384" t="n">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="BN384" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BO384" t="n">
-        <v>3.07</v>
+        <v>2.83</v>
       </c>
       <c r="BP384" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="385">
@@ -84278,7 +84278,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>8216986</v>
+        <v>8216999</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -84298,197 +84298,197 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Port Vale</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
       <c r="J385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N385" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>['66', '85']</t>
+          <t>['90+6']</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>['73', '77']</t>
+          <t>['39']</t>
         </is>
       </c>
       <c r="Q385" t="n">
-        <v>1.95</v>
+        <v>3.53</v>
       </c>
       <c r="R385" t="n">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="S385" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="T385" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U385" t="n">
-        <v>3.1</v>
+        <v>2.73</v>
       </c>
       <c r="V385" t="n">
-        <v>2.63</v>
+        <v>3.09</v>
       </c>
       <c r="W385" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="X385" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Y385" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="Z385" t="n">
-        <v>1.51</v>
+        <v>2.78</v>
       </c>
       <c r="AA385" t="n">
-        <v>4.05</v>
+        <v>3.32</v>
       </c>
       <c r="AB385" t="n">
-        <v>5.85</v>
+        <v>2.4</v>
       </c>
       <c r="AC385" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD385" t="n">
-        <v>12</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE385" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AF385" t="n">
-        <v>4</v>
+        <v>3.33</v>
       </c>
       <c r="AG385" t="n">
-        <v>1.73</v>
+        <v>2.01</v>
       </c>
       <c r="AH385" t="n">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="AI385" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AJ385" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="AK385" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL385" t="n">
         <v>0</v>
       </c>
       <c r="AM385" t="n">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AN385" t="n">
-        <v>2.31</v>
+        <v>0.71</v>
       </c>
       <c r="AO385" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP385" t="n">
         <v>0.73</v>
       </c>
-      <c r="AP385" t="n">
-        <v>2.24</v>
-      </c>
       <c r="AQ385" t="n">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AR385" t="n">
-        <v>1.99</v>
+        <v>1.5</v>
       </c>
       <c r="AS385" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AT385" t="n">
-        <v>3.07</v>
+        <v>2.79</v>
       </c>
       <c r="AU385" t="n">
         <v>6</v>
       </c>
       <c r="AV385" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW385" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX385" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY385" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ385" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA385" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB385" t="n">
         <v>3</v>
       </c>
-      <c r="AW385" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX385" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY385" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ385" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA385" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB385" t="n">
-        <v>5</v>
-      </c>
       <c r="BC385" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BD385" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="BE385" t="n">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="BF385" t="n">
-        <v>6.1</v>
+        <v>3.12</v>
       </c>
       <c r="BG385" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="BH385" t="n">
-        <v>3.72</v>
+        <v>3.29</v>
       </c>
       <c r="BI385" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="BJ385" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="BK385" t="n">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="BL385" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="BM385" t="n">
-        <v>2.19</v>
+        <v>2.33</v>
       </c>
       <c r="BN385" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BO385" t="n">
-        <v>2.83</v>
+        <v>3.05</v>
       </c>
       <c r="BP385" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="386">
@@ -84714,7 +84714,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>8216996</v>
+        <v>8216997</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -84734,197 +84734,197 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="I387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K387" t="n">
         <v>1</v>
       </c>
       <c r="L387" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M387" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N387" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['19', '60', '79']</t>
         </is>
       </c>
       <c r="P387" t="inlineStr">
         <is>
-          <t>['10', '47']</t>
+          <t>['46', '52', '54']</t>
         </is>
       </c>
       <c r="Q387" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="R387" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="S387" t="n">
-        <v>3.02</v>
+        <v>3.57</v>
       </c>
       <c r="T387" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="U387" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="V387" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="W387" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="X387" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="Y387" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="Z387" t="n">
-        <v>2.98</v>
+        <v>2.27</v>
       </c>
       <c r="AA387" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="AB387" t="n">
-        <v>2.23</v>
+        <v>2.88</v>
       </c>
       <c r="AC387" t="n">
         <v>1.02</v>
       </c>
       <c r="AD387" t="n">
-        <v>7.8</v>
+        <v>13.2</v>
       </c>
       <c r="AE387" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AF387" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AG387" t="n">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="AH387" t="n">
-        <v>1.72</v>
+        <v>2.07</v>
       </c>
       <c r="AI387" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="AJ387" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AK387" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AL387" t="n">
         <v>0</v>
       </c>
       <c r="AM387" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AN387" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AO387" t="n">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP387" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ387" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR387" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="AS387" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT387" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AU387" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV387" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW387" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX387" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY387" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ387" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA387" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB387" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC387" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD387" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE387" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF387" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG387" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH387" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI387" t="n">
         <v>1.36</v>
       </c>
-      <c r="AT387" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU387" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV387" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW387" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX387" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY387" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ387" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA387" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB387" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC387" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD387" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BE387" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BF387" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BG387" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BH387" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="BI387" t="n">
-        <v>1.56</v>
-      </c>
       <c r="BJ387" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="BK387" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="BL387" t="n">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="BM387" t="n">
-        <v>2.42</v>
+        <v>2.13</v>
       </c>
       <c r="BN387" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="BO387" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BP387" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="388">
@@ -84932,7 +84932,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>8216997</v>
+        <v>8216996</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -84952,197 +84952,197 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K388" t="n">
         <v>1</v>
       </c>
       <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="n">
+        <v>2</v>
+      </c>
+      <c r="N388" t="n">
         <v>3</v>
       </c>
-      <c r="M388" t="n">
-        <v>3</v>
-      </c>
-      <c r="N388" t="n">
-        <v>6</v>
-      </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>['19', '60', '79']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
         <is>
-          <t>['46', '52', '54']</t>
+          <t>['10', '47']</t>
         </is>
       </c>
       <c r="Q388" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="R388" t="n">
-        <v>2.39</v>
+        <v>2</v>
       </c>
       <c r="S388" t="n">
-        <v>3.57</v>
+        <v>3.02</v>
       </c>
       <c r="T388" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="U388" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V388" t="n">
         <v>3.1</v>
       </c>
-      <c r="V388" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W388" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="X388" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y388" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="Z388" t="n">
-        <v>2.27</v>
+        <v>2.98</v>
       </c>
       <c r="AA388" t="n">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="AB388" t="n">
-        <v>2.88</v>
+        <v>2.23</v>
       </c>
       <c r="AC388" t="n">
         <v>1.02</v>
       </c>
       <c r="AD388" t="n">
-        <v>13.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE388" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AF388" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="AG388" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="AH388" t="n">
-        <v>2.07</v>
+        <v>1.72</v>
       </c>
       <c r="AI388" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="AJ388" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AK388" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL388" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM388" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN388" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO388" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP388" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ388" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR388" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS388" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT388" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU388" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV388" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW388" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX388" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY388" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ388" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA388" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB388" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC388" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD388" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE388" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF388" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG388" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH388" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI388" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ388" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK388" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL388" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM388" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN388" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO388" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP388" t="n">
         <v>1.26</v>
-      </c>
-      <c r="AL388" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM388" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN388" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO388" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP388" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ388" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR388" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AS388" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT388" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AU388" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV388" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW388" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX388" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY388" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ388" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA388" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB388" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC388" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD388" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="BE388" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF388" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG388" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BH388" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BI388" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BJ388" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BK388" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BL388" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="BM388" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BN388" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="BO388" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BP388" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="389">

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP389"/>
+  <dimension ref="A1:BP392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.13</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.88</v>
@@ -3099,7 +3099,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.06</v>
@@ -5061,7 +5061,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR27" t="n">
         <v>1.54</v>
@@ -7023,7 +7023,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR30" t="n">
         <v>1.63</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.88</v>
@@ -8113,7 +8113,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR35" t="n">
         <v>1.89</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.75</v>
@@ -13342,7 +13342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.9399999999999999</v>
@@ -13781,7 +13781,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR61" t="n">
         <v>1.36</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.88</v>
@@ -15086,7 +15086,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.24</v>
@@ -15307,7 +15307,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR68" t="n">
         <v>1.68</v>
@@ -15525,7 +15525,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69" t="n">
         <v>1.21</v>
@@ -16833,7 +16833,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR75" t="n">
         <v>1.44</v>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.75</v>
@@ -18356,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="AP82" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR83" t="n">
         <v>1.44</v>
@@ -18795,7 +18795,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR84" t="n">
         <v>1.49</v>
@@ -19010,7 +19010,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.75</v>
@@ -22283,7 +22283,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -24460,7 +24460,7 @@
         <v>0.75</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.56</v>
@@ -24678,7 +24678,7 @@
         <v>0.75</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.18</v>
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.75</v>
@@ -25553,7 +25553,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115" t="n">
         <v>1.38</v>
@@ -25771,7 +25771,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -27297,7 +27297,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR123" t="n">
         <v>1.52</v>
@@ -29038,10 +29038,10 @@
         <v>0</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR131" t="n">
         <v>1.06</v>
@@ -29477,7 +29477,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR133" t="n">
         <v>1.3</v>
@@ -30346,7 +30346,7 @@
         <v>0.6</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.18</v>
@@ -30782,7 +30782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.24</v>
@@ -31218,7 +31218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP141" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.93</v>
@@ -31657,7 +31657,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143" t="n">
         <v>1.43</v>
@@ -34709,7 +34709,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR157" t="n">
         <v>1.31</v>
@@ -35142,7 +35142,7 @@
         <v>1.17</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.88</v>
@@ -35799,7 +35799,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR162" t="n">
         <v>1.67</v>
@@ -36014,7 +36014,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.75</v>
@@ -37104,7 +37104,7 @@
         <v>1.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.13</v>
@@ -38197,7 +38197,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ173" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR173" t="n">
         <v>1.88</v>
@@ -38848,7 +38848,7 @@
         <v>1.29</v>
       </c>
       <c r="AP176" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ176" t="n">
         <v>0.9399999999999999</v>
@@ -39502,7 +39502,7 @@
         <v>0.43</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ179" t="n">
         <v>0.75</v>
@@ -39941,7 +39941,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR181" t="n">
         <v>1.68</v>
@@ -40377,7 +40377,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR183" t="n">
         <v>1.34</v>
@@ -42336,7 +42336,7 @@
         <v>1.57</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.63</v>
@@ -42557,7 +42557,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR193" t="n">
         <v>1.4</v>
@@ -43644,7 +43644,7 @@
         <v>0.75</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ198" t="n">
         <v>0.8100000000000001</v>
@@ -43865,7 +43865,7 @@
         <v>2.35</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR199" t="n">
         <v>1.39</v>
@@ -45170,7 +45170,7 @@
         <v>0.75</v>
       </c>
       <c r="AP205" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ205" t="n">
         <v>0.9399999999999999</v>
@@ -46481,7 +46481,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR211" t="n">
         <v>1.4</v>
@@ -47132,7 +47132,7 @@
         <v>1</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ214" t="n">
         <v>1</v>
@@ -49097,7 +49097,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR223" t="n">
         <v>1.39</v>
@@ -49969,7 +49969,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ227" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227" t="n">
         <v>1.69</v>
@@ -50838,7 +50838,7 @@
         <v>0.78</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.88</v>
@@ -51056,7 +51056,7 @@
         <v>0.88</v>
       </c>
       <c r="AP232" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.13</v>
@@ -51492,7 +51492,7 @@
         <v>1.3</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ234" t="n">
         <v>1.24</v>
@@ -52149,7 +52149,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR237" t="n">
         <v>1.3</v>
@@ -54326,7 +54326,7 @@
         <v>1.11</v>
       </c>
       <c r="AP247" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ247" t="n">
         <v>0.76</v>
@@ -54544,7 +54544,7 @@
         <v>0.9</v>
       </c>
       <c r="AP248" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ248" t="n">
         <v>0.76</v>
@@ -54765,7 +54765,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ249" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR249" t="n">
         <v>1.94</v>
@@ -55419,7 +55419,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ252" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR252" t="n">
         <v>1.68</v>
@@ -57160,7 +57160,7 @@
         <v>0.82</v>
       </c>
       <c r="AP260" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ260" t="n">
         <v>0.76</v>
@@ -57596,10 +57596,10 @@
         <v>0.82</v>
       </c>
       <c r="AP262" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ262" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR262" t="n">
         <v>1.64</v>
@@ -58689,7 +58689,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ267" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR267" t="n">
         <v>1.24</v>
@@ -60430,10 +60430,10 @@
         <v>2</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR275" t="n">
         <v>1.11</v>
@@ -62613,7 +62613,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR285" t="n">
         <v>1.4</v>
@@ -64354,7 +64354,7 @@
         <v>1.58</v>
       </c>
       <c r="AP293" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ293" t="n">
         <v>1.63</v>
@@ -65447,7 +65447,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ298" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR298" t="n">
         <v>1.38</v>
@@ -65665,7 +65665,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR299" t="n">
         <v>1.55</v>
@@ -65880,7 +65880,7 @@
         <v>1.08</v>
       </c>
       <c r="AP300" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ300" t="n">
         <v>1</v>
@@ -66752,7 +66752,7 @@
         <v>0.75</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ304" t="n">
         <v>0.88</v>
@@ -67845,7 +67845,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR309" t="n">
         <v>1.97</v>
@@ -70243,7 +70243,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ320" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR320" t="n">
         <v>1.3</v>
@@ -72420,7 +72420,7 @@
         <v>0.85</v>
       </c>
       <c r="AP330" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ330" t="n">
         <v>1</v>
@@ -72638,7 +72638,7 @@
         <v>0.92</v>
       </c>
       <c r="AP331" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ331" t="n">
         <v>1.13</v>
@@ -73295,7 +73295,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ334" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR334" t="n">
         <v>1.24</v>
@@ -74385,7 +74385,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ339" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR339" t="n">
         <v>1.44</v>
@@ -74600,7 +74600,7 @@
         <v>1.69</v>
       </c>
       <c r="AP340" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ340" t="n">
         <v>1.63</v>
@@ -75254,7 +75254,7 @@
         <v>0.79</v>
       </c>
       <c r="AP343" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ343" t="n">
         <v>1</v>
@@ -76344,7 +76344,7 @@
         <v>1.2</v>
       </c>
       <c r="AP348" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ348" t="n">
         <v>1.06</v>
@@ -79832,7 +79832,7 @@
         <v>1.4</v>
       </c>
       <c r="AP364" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ364" t="n">
         <v>1.24</v>
@@ -80268,10 +80268,10 @@
         <v>1.79</v>
       </c>
       <c r="AP366" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ366" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR366" t="n">
         <v>1.67</v>
@@ -80486,10 +80486,10 @@
         <v>0.79</v>
       </c>
       <c r="AP367" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ367" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR367" t="n">
         <v>1.5</v>
@@ -80925,7 +80925,7 @@
         <v>2</v>
       </c>
       <c r="AQ369" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR369" t="n">
         <v>1.23</v>
@@ -85064,7 +85064,7 @@
         <v>0.67</v>
       </c>
       <c r="AP388" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ388" t="n">
         <v>0.8100000000000001</v>
@@ -85361,6 +85361,660 @@
       </c>
       <c r="BP389" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>8216913</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E390" s="2" t="n">
+        <v>46077.69791666666</v>
+      </c>
+      <c r="F390" t="n">
+        <v>26</v>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="n">
+        <v>1</v>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>1</v>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q390" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R390" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S390" t="n">
+        <v>5</v>
+      </c>
+      <c r="T390" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U390" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V390" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="W390" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X390" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z390" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA390" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB390" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC390" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD390" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE390" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF390" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG390" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH390" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI390" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ390" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK390" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL390" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM390" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN390" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO390" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP390" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AQ390" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR390" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS390" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT390" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU390" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV390" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW390" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX390" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY390" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ390" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA390" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB390" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC390" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD390" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE390" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF390" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BG390" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH390" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BI390" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ390" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK390" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL390" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM390" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN390" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO390" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP390" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>8216853</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E391" s="2" t="n">
+        <v>46077.69791666666</v>
+      </c>
+      <c r="F391" t="n">
+        <v>26</v>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>1</v>
+      </c>
+      <c r="K391" t="n">
+        <v>1</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>1</v>
+      </c>
+      <c r="N391" t="n">
+        <v>1</v>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>['45+8']</t>
+        </is>
+      </c>
+      <c r="Q391" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R391" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S391" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="T391" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U391" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V391" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W391" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X391" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB391" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AC391" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD391" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE391" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF391" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG391" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH391" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI391" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ391" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK391" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL391" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM391" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN391" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO391" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP391" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ391" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR391" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS391" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT391" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU391" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV391" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW391" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX391" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY391" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ391" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA391" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB391" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC391" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD391" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE391" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF391" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BG391" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH391" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI391" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ391" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK391" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL391" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM391" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN391" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO391" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP391" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>8216964</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E392" s="2" t="n">
+        <v>46077.69791666666</v>
+      </c>
+      <c r="F392" t="n">
+        <v>32</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>3</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>3</v>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>['47', '55', '64']</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q392" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R392" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S392" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T392" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U392" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V392" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="W392" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X392" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB392" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC392" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD392" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE392" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF392" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AG392" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH392" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI392" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ392" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK392" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL392" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM392" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN392" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO392" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP392" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ392" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR392" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS392" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT392" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU392" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV392" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW392" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX392" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY392" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ392" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA392" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB392" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC392" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD392" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE392" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF392" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BG392" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH392" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI392" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ392" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK392" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL392" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM392" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN392" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO392" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP392" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/England EFL League One_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP392"/>
+  <dimension ref="A1:BP404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.13</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.76</v>
@@ -2445,7 +2445,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.9399999999999999</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.9399999999999999</v>
@@ -3317,7 +3317,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.6899999999999999</v>
@@ -4407,7 +4407,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.76</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.13</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.76</v>
@@ -6805,7 +6805,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29" t="n">
         <v>1.07</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR30" t="n">
         <v>1.63</v>
@@ -7241,7 +7241,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR31" t="n">
         <v>1.65</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR32" t="n">
         <v>2.17</v>
@@ -7674,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR33" t="n">
         <v>0.99</v>
@@ -8328,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR36" t="n">
         <v>0.85</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.88</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.75</v>
@@ -8985,7 +8985,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR39" t="n">
         <v>0.75</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.9399999999999999</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.06</v>
@@ -9857,7 +9857,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR43" t="n">
         <v>1.52</v>
@@ -10508,10 +10508,10 @@
         <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR46" t="n">
         <v>0.98</v>
@@ -10729,7 +10729,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>0.8</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.76</v>
@@ -11383,7 +11383,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR50" t="n">
         <v>1.31</v>
@@ -11819,7 +11819,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR52" t="n">
         <v>1.49</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>0.76</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.8100000000000001</v>
@@ -12691,7 +12691,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR56" t="n">
         <v>1.46</v>
@@ -12906,7 +12906,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.13</v>
@@ -13342,7 +13342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.9399999999999999</v>
@@ -13563,7 +13563,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR60" t="n">
         <v>1.44</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.6899999999999999</v>
@@ -13999,7 +13999,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14214,7 +14214,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.88</v>
@@ -14435,7 +14435,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR64" t="n">
         <v>1.19</v>
@@ -14871,7 +14871,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR66" t="n">
         <v>1.02</v>
@@ -15089,7 +15089,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR67" t="n">
         <v>1.61</v>
@@ -15304,10 +15304,10 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR68" t="n">
         <v>1.68</v>
@@ -15522,7 +15522,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.9399999999999999</v>
@@ -15740,10 +15740,10 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR70" t="n">
         <v>1.47</v>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.76</v>
@@ -16176,7 +16176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.13</v>
@@ -16394,10 +16394,10 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>1.35</v>
@@ -16615,7 +16615,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR74" t="n">
         <v>1.61</v>
@@ -16833,7 +16833,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR75" t="n">
         <v>1.44</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.13</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.76</v>
@@ -17487,7 +17487,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR78" t="n">
         <v>1.86</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.8100000000000001</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.9399999999999999</v>
@@ -18138,10 +18138,10 @@
         <v>0</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR81" t="n">
         <v>0.96</v>
@@ -18359,7 +18359,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -18574,7 +18574,7 @@
         <v>0.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.9399999999999999</v>
@@ -19231,7 +19231,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR86" t="n">
         <v>1.5</v>
@@ -19449,7 +19449,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR87" t="n">
         <v>1.61</v>
@@ -19882,10 +19882,10 @@
         <v>0.67</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.06</v>
@@ -20536,7 +20536,7 @@
         <v>2</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>2</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.88</v>
@@ -21193,7 +21193,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR95" t="n">
         <v>0.9399999999999999</v>
@@ -21408,7 +21408,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.9399999999999999</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.76</v>
@@ -21847,7 +21847,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ98" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR98" t="n">
         <v>1.5</v>
@@ -22062,7 +22062,7 @@
         <v>1</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.13</v>
@@ -22280,10 +22280,10 @@
         <v>1.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR100" t="n">
         <v>1.52</v>
@@ -22498,10 +22498,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR101" t="n">
         <v>1.4</v>
@@ -22719,7 +22719,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>1.94</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.8100000000000001</v>
@@ -23155,7 +23155,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR104" t="n">
         <v>1.41</v>
@@ -23370,7 +23370,7 @@
         <v>1.75</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.06</v>
@@ -23806,10 +23806,10 @@
         <v>0.75</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR107" t="n">
         <v>1.43</v>
@@ -24024,10 +24024,10 @@
         <v>2</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR108" t="n">
         <v>1.63</v>
@@ -24463,7 +24463,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR110" t="n">
         <v>1.47</v>
@@ -24678,10 +24678,10 @@
         <v>0.75</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR111" t="n">
         <v>1.01</v>
@@ -24899,7 +24899,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR112" t="n">
         <v>1.63</v>
@@ -25550,7 +25550,7 @@
         <v>0</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.6899999999999999</v>
@@ -26207,7 +26207,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR118" t="n">
         <v>1.92</v>
@@ -26422,10 +26422,10 @@
         <v>1.6</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR119" t="n">
         <v>1.33</v>
@@ -26640,10 +26640,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR120" t="n">
         <v>1.76</v>
@@ -26858,10 +26858,10 @@
         <v>1</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR121" t="n">
         <v>1.34</v>
@@ -27079,7 +27079,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR122" t="n">
         <v>1.04</v>
@@ -27297,7 +27297,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR123" t="n">
         <v>1.52</v>
@@ -27512,7 +27512,7 @@
         <v>0.75</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.76</v>
@@ -27730,7 +27730,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ125" t="n">
         <v>0.9399999999999999</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.13</v>
@@ -28166,7 +28166,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.88</v>
@@ -28605,7 +28605,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR129" t="n">
         <v>1.94</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.6899999999999999</v>
@@ -29256,7 +29256,7 @@
         <v>0.2</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.88</v>
@@ -29695,7 +29695,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR134" t="n">
         <v>1.55</v>
@@ -29910,7 +29910,7 @@
         <v>1.2</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ135" t="n">
         <v>1</v>
@@ -30128,7 +30128,7 @@
         <v>0.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.13</v>
@@ -30349,7 +30349,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR137" t="n">
         <v>1.48</v>
@@ -30567,7 +30567,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR138" t="n">
         <v>1.54</v>
@@ -30785,7 +30785,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>2</v>
       </c>
       <c r="AP140" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.06</v>
@@ -31221,7 +31221,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR141" t="n">
         <v>1.62</v>
@@ -31436,7 +31436,7 @@
         <v>0.8</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.76</v>
@@ -31654,7 +31654,7 @@
         <v>1.33</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.9399999999999999</v>
@@ -32529,7 +32529,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR147" t="n">
         <v>1.47</v>
@@ -32962,7 +32962,7 @@
         <v>1</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.8100000000000001</v>
@@ -33180,7 +33180,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150" t="n">
         <v>0.76</v>
@@ -33398,10 +33398,10 @@
         <v>1.2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR151" t="n">
         <v>1.34</v>
@@ -33616,7 +33616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.76</v>
@@ -33837,7 +33837,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR153" t="n">
         <v>1.95</v>
@@ -34052,10 +34052,10 @@
         <v>1.2</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR154" t="n">
         <v>1.67</v>
@@ -34270,10 +34270,10 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR155" t="n">
         <v>1.32</v>
@@ -34491,7 +34491,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ156" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR156" t="n">
         <v>1.26</v>
@@ -34924,7 +34924,7 @@
         <v>2</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ158" t="n">
         <v>1.75</v>
@@ -35142,7 +35142,7 @@
         <v>1.17</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.88</v>
@@ -35363,7 +35363,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR160" t="n">
         <v>1.1</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161" t="n">
         <v>1</v>
@@ -35796,10 +35796,10 @@
         <v>1.83</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR162" t="n">
         <v>1.67</v>
@@ -36232,10 +36232,10 @@
         <v>1</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR164" t="n">
         <v>1.46</v>
@@ -36450,10 +36450,10 @@
         <v>1.33</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ165" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR165" t="n">
         <v>1.27</v>
@@ -36668,7 +36668,7 @@
         <v>1.67</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.06</v>
@@ -36886,7 +36886,7 @@
         <v>0.86</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.8100000000000001</v>
@@ -37104,7 +37104,7 @@
         <v>1.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ168" t="n">
         <v>1.13</v>
@@ -37322,7 +37322,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.75</v>
@@ -37761,7 +37761,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR171" t="n">
         <v>1.33</v>
@@ -37976,7 +37976,7 @@
         <v>0.57</v>
       </c>
       <c r="AP172" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.76</v>
@@ -38415,7 +38415,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR174" t="n">
         <v>1.44</v>
@@ -38630,10 +38630,10 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR175" t="n">
         <v>1.37</v>
@@ -38851,7 +38851,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ176" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR176" t="n">
         <v>1.71</v>
@@ -39069,7 +39069,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR177" t="n">
         <v>0.95</v>
@@ -39284,7 +39284,7 @@
         <v>0.86</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ178" t="n">
         <v>0.9399999999999999</v>
@@ -39505,7 +39505,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR179" t="n">
         <v>1.55</v>
@@ -39720,7 +39720,7 @@
         <v>1</v>
       </c>
       <c r="AP180" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ180" t="n">
         <v>1</v>
@@ -40156,7 +40156,7 @@
         <v>0.71</v>
       </c>
       <c r="AP182" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ182" t="n">
         <v>0.88</v>
@@ -40377,7 +40377,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR183" t="n">
         <v>1.34</v>
@@ -40592,10 +40592,10 @@
         <v>0.75</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR184" t="n">
         <v>1.55</v>
@@ -40813,7 +40813,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR185" t="n">
         <v>1.89</v>
@@ -41246,7 +41246,7 @@
         <v>0.88</v>
       </c>
       <c r="AP187" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ187" t="n">
         <v>1</v>
@@ -41464,7 +41464,7 @@
         <v>1.38</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.75</v>
@@ -41900,10 +41900,10 @@
         <v>1</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR190" t="n">
         <v>1.44</v>
@@ -42118,10 +42118,10 @@
         <v>0.38</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR191" t="n">
         <v>1.16</v>
@@ -42336,10 +42336,10 @@
         <v>1.57</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR192" t="n">
         <v>1.06</v>
@@ -42554,7 +42554,7 @@
         <v>0.88</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.6899999999999999</v>
@@ -42993,7 +42993,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR195" t="n">
         <v>1.65</v>
@@ -43429,7 +43429,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR197" t="n">
         <v>1.55</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.9399999999999999</v>
@@ -44080,7 +44080,7 @@
         <v>0.75</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ200" t="n">
         <v>0.88</v>
@@ -44519,7 +44519,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR202" t="n">
         <v>1.58</v>
@@ -44737,7 +44737,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR203" t="n">
         <v>1.65</v>
@@ -44952,10 +44952,10 @@
         <v>0.86</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR204" t="n">
         <v>1.43</v>
@@ -45606,7 +45606,7 @@
         <v>1.63</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.06</v>
@@ -45824,10 +45824,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ208" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR208" t="n">
         <v>1.39</v>
@@ -46045,7 +46045,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR209" t="n">
         <v>1.93</v>
@@ -46263,7 +46263,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR210" t="n">
         <v>1.41</v>
@@ -46478,10 +46478,10 @@
         <v>1.75</v>
       </c>
       <c r="AP211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ211" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AQ211" t="n">
-        <v>1.56</v>
       </c>
       <c r="AR211" t="n">
         <v>1.4</v>
@@ -46696,7 +46696,7 @@
         <v>1.44</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ212" t="n">
         <v>0.88</v>
@@ -46914,10 +46914,10 @@
         <v>1.44</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR213" t="n">
         <v>1.4</v>
@@ -47132,10 +47132,10 @@
         <v>1</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR214" t="n">
         <v>1.13</v>
@@ -47350,10 +47350,10 @@
         <v>1</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR215" t="n">
         <v>1.77</v>
@@ -47568,10 +47568,10 @@
         <v>0.88</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR216" t="n">
         <v>1.38</v>
@@ -47786,10 +47786,10 @@
         <v>1.5</v>
       </c>
       <c r="AP217" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ217" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR217" t="n">
         <v>1.34</v>
@@ -48004,10 +48004,10 @@
         <v>0.75</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR218" t="n">
         <v>1.4</v>
@@ -48222,10 +48222,10 @@
         <v>1.75</v>
       </c>
       <c r="AP219" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR219" t="n">
         <v>1.22</v>
@@ -48440,10 +48440,10 @@
         <v>0.44</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ220" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR220" t="n">
         <v>1.36</v>
@@ -51274,7 +51274,7 @@
         <v>1.4</v>
       </c>
       <c r="AP233" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ233" t="n">
         <v>0.88</v>
@@ -51492,10 +51492,10 @@
         <v>1.3</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR234" t="n">
         <v>1.09</v>
@@ -51710,10 +51710,10 @@
         <v>1.33</v>
       </c>
       <c r="AP235" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ235" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR235" t="n">
         <v>1.12</v>
@@ -51928,10 +51928,10 @@
         <v>0.7</v>
       </c>
       <c r="AP236" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ236" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR236" t="n">
         <v>1.36</v>
@@ -52146,10 +52146,10 @@
         <v>1.89</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ237" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR237" t="n">
         <v>1.3</v>
@@ -52364,10 +52364,10 @@
         <v>1.33</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ238" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR238" t="n">
         <v>1.36</v>
@@ -52582,10 +52582,10 @@
         <v>1.11</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ239" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR239" t="n">
         <v>1.76</v>
@@ -52800,10 +52800,10 @@
         <v>1.56</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR240" t="n">
         <v>1.16</v>
@@ -53018,10 +53018,10 @@
         <v>1.2</v>
       </c>
       <c r="AP241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ241" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AQ241" t="n">
-        <v>1.56</v>
       </c>
       <c r="AR241" t="n">
         <v>1.34</v>
@@ -53236,10 +53236,10 @@
         <v>1.89</v>
       </c>
       <c r="AP242" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR242" t="n">
         <v>1.39</v>
@@ -53454,10 +53454,10 @@
         <v>1</v>
       </c>
       <c r="AP243" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR243" t="n">
         <v>1.54</v>
@@ -53672,10 +53672,10 @@
         <v>1</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR244" t="n">
         <v>1.41</v>
@@ -59122,10 +59122,10 @@
         <v>1.7</v>
       </c>
       <c r="AP269" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ269" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR269" t="n">
         <v>1.69</v>
@@ -59340,10 +59340,10 @@
         <v>1.3</v>
       </c>
       <c r="AP270" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ270" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR270" t="n">
         <v>1.37</v>
@@ -59558,10 +59558,10 @@
         <v>1</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ271" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR271" t="n">
         <v>1.35</v>
@@ -59776,10 +59776,10 @@
         <v>0.91</v>
       </c>
       <c r="AP272" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ272" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR272" t="n">
         <v>1.51</v>
@@ -59994,10 +59994,10 @@
         <v>1.18</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ273" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR273" t="n">
         <v>1.21</v>
@@ -60212,10 +60212,10 @@
         <v>1.2</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ274" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR274" t="n">
         <v>1.41</v>
@@ -60430,10 +60430,10 @@
         <v>2</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR275" t="n">
         <v>1.11</v>
@@ -60648,7 +60648,7 @@
         <v>1.27</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ276" t="n">
         <v>0.88</v>
@@ -60866,10 +60866,10 @@
         <v>1.18</v>
       </c>
       <c r="AP277" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR277" t="n">
         <v>1.45</v>
@@ -61084,10 +61084,10 @@
         <v>1.2</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR278" t="n">
         <v>1.35</v>
@@ -61302,10 +61302,10 @@
         <v>1.36</v>
       </c>
       <c r="AP279" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ279" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR279" t="n">
         <v>1.16</v>
@@ -61520,10 +61520,10 @@
         <v>1.4</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR280" t="n">
         <v>1.34</v>
@@ -61956,10 +61956,10 @@
         <v>1.36</v>
       </c>
       <c r="AP282" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ282" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR282" t="n">
         <v>1.48</v>
@@ -62392,10 +62392,10 @@
         <v>1.33</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR284" t="n">
         <v>1.63</v>
@@ -62610,10 +62610,10 @@
         <v>1.91</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR285" t="n">
         <v>1.4</v>
@@ -63049,7 +63049,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ287" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR287" t="n">
         <v>1.26</v>
@@ -63267,7 +63267,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ288" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR288" t="n">
         <v>1.33</v>
@@ -63485,7 +63485,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ289" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR289" t="n">
         <v>1.52</v>
@@ -63918,10 +63918,10 @@
         <v>1.64</v>
       </c>
       <c r="AP291" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ291" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR291" t="n">
         <v>1.17</v>
@@ -64139,7 +64139,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR292" t="n">
         <v>1.53</v>
@@ -64357,7 +64357,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ293" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR293" t="n">
         <v>1.62</v>
@@ -64572,10 +64572,10 @@
         <v>0.92</v>
       </c>
       <c r="AP294" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ294" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR294" t="n">
         <v>1.42</v>
@@ -64790,7 +64790,7 @@
         <v>1.38</v>
       </c>
       <c r="AP295" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ295" t="n">
         <v>1.06</v>
@@ -65008,7 +65008,7 @@
         <v>1</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ296" t="n">
         <v>1.13</v>
@@ -65444,7 +65444,7 @@
         <v>0.75</v>
       </c>
       <c r="AP298" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ298" t="n">
         <v>0.9399999999999999</v>
@@ -65883,7 +65883,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ300" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR300" t="n">
         <v>1.48</v>
@@ -66101,7 +66101,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ301" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR301" t="n">
         <v>1.56</v>
@@ -66319,7 +66319,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ302" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR302" t="n">
         <v>1.48</v>
@@ -66752,7 +66752,7 @@
         <v>0.75</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ304" t="n">
         <v>0.88</v>
@@ -66970,10 +66970,10 @@
         <v>1.08</v>
       </c>
       <c r="AP305" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ305" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR305" t="n">
         <v>1.16</v>
@@ -67188,10 +67188,10 @@
         <v>1.08</v>
       </c>
       <c r="AP306" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ306" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR306" t="n">
         <v>1.5</v>
@@ -67627,7 +67627,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR308" t="n">
         <v>1.72</v>
@@ -67845,7 +67845,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR309" t="n">
         <v>1.97</v>
@@ -68060,10 +68060,10 @@
         <v>1.23</v>
       </c>
       <c r="AP310" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ310" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR310" t="n">
         <v>1.31</v>
@@ -68278,7 +68278,7 @@
         <v>1.25</v>
       </c>
       <c r="AP311" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ311" t="n">
         <v>1.13</v>
@@ -68496,7 +68496,7 @@
         <v>0.77</v>
       </c>
       <c r="AP312" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ312" t="n">
         <v>0.9399999999999999</v>
@@ -68714,10 +68714,10 @@
         <v>1.18</v>
       </c>
       <c r="AP313" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ313" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR313" t="n">
         <v>1.38</v>
@@ -69150,7 +69150,7 @@
         <v>0.92</v>
       </c>
       <c r="AP315" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ315" t="n">
         <v>0.76</v>
@@ -69586,10 +69586,10 @@
         <v>1.25</v>
       </c>
       <c r="AP317" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ317" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR317" t="n">
         <v>1.64</v>
@@ -69807,7 +69807,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ318" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR318" t="n">
         <v>1.95</v>
@@ -70243,7 +70243,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ320" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR320" t="n">
         <v>1.3</v>
@@ -70458,10 +70458,10 @@
         <v>1.31</v>
       </c>
       <c r="AP321" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ321" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR321" t="n">
         <v>1.48</v>
@@ -70676,7 +70676,7 @@
         <v>0.93</v>
       </c>
       <c r="AP322" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ322" t="n">
         <v>0.76</v>
@@ -71115,7 +71115,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ324" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR324" t="n">
         <v>1.99</v>
@@ -71330,10 +71330,10 @@
         <v>1.38</v>
       </c>
       <c r="AP325" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ325" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR325" t="n">
         <v>1.19</v>
@@ -71548,7 +71548,7 @@
         <v>0.85</v>
       </c>
       <c r="AP326" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ326" t="n">
         <v>0.76</v>
@@ -71766,7 +71766,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP327" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ327" t="n">
         <v>0.8100000000000001</v>
@@ -71984,7 +71984,7 @@
         <v>0.93</v>
       </c>
       <c r="AP328" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ328" t="n">
         <v>0.9399999999999999</v>
@@ -72205,7 +72205,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ329" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR329" t="n">
         <v>1.12</v>
@@ -72638,7 +72638,7 @@
         <v>0.92</v>
       </c>
       <c r="AP331" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ331" t="n">
         <v>1.13</v>
@@ -72859,7 +72859,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ332" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR332" t="n">
         <v>1.51</v>
@@ -73292,7 +73292,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP334" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ334" t="n">
         <v>0.9399999999999999</v>
@@ -73513,7 +73513,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ335" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR335" t="n">
         <v>1.64</v>
@@ -73728,7 +73728,7 @@
         <v>0.92</v>
       </c>
       <c r="AP336" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ336" t="n">
         <v>0.88</v>
@@ -73949,7 +73949,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ337" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR337" t="n">
         <v>1.56</v>
@@ -74164,7 +74164,7 @@
         <v>1.46</v>
       </c>
       <c r="AP338" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ338" t="n">
         <v>1.75</v>
@@ -74382,7 +74382,7 @@
         <v>0.62</v>
       </c>
       <c r="AP339" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ339" t="n">
         <v>0.6899999999999999</v>
@@ -74603,7 +74603,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ340" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR340" t="n">
         <v>1.48</v>
@@ -74818,10 +74818,10 @@
         <v>1.21</v>
       </c>
       <c r="AP341" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ341" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR341" t="n">
         <v>1.53</v>
@@ -75475,7 +75475,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ344" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR344" t="n">
         <v>1.64</v>
@@ -75690,10 +75690,10 @@
         <v>0.93</v>
       </c>
       <c r="AP345" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ345" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR345" t="n">
         <v>1.51</v>
@@ -75908,7 +75908,7 @@
         <v>0.93</v>
       </c>
       <c r="AP346" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ346" t="n">
         <v>0.9399999999999999</v>
@@ -76344,7 +76344,7 @@
         <v>1.2</v>
       </c>
       <c r="AP348" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ348" t="n">
         <v>1.06</v>
@@ -76780,7 +76780,7 @@
         <v>0.93</v>
       </c>
       <c r="AP350" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ350" t="n">
         <v>1</v>
@@ -76998,10 +76998,10 @@
         <v>1.64</v>
       </c>
       <c r="AP351" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ351" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR351" t="n">
         <v>1.39</v>
@@ -77655,7 +77655,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ354" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR354" t="n">
         <v>1.97</v>
@@ -77873,7 +77873,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ355" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR355" t="n">
         <v>1.67</v>
@@ -78088,10 +78088,10 @@
         <v>1.29</v>
       </c>
       <c r="AP356" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ356" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR356" t="n">
         <v>1.34</v>
@@ -78306,7 +78306,7 @@
         <v>1</v>
       </c>
       <c r="AP357" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ357" t="n">
         <v>1.13</v>
@@ -78524,7 +78524,7 @@
         <v>0.93</v>
       </c>
       <c r="AP358" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ358" t="n">
         <v>0.88</v>
@@ -78742,10 +78742,10 @@
         <v>1.13</v>
       </c>
       <c r="AP359" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ359" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR359" t="n">
         <v>1.24</v>
@@ -79178,10 +79178,10 @@
         <v>1.2</v>
       </c>
       <c r="AP361" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ361" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR361" t="n">
         <v>1.52</v>
@@ -79399,7 +79399,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ362" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR362" t="n">
         <v>1.5</v>
@@ -79614,7 +79614,7 @@
         <v>0.8</v>
       </c>
       <c r="AP363" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ363" t="n">
         <v>0.76</v>
@@ -79835,7 +79835,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ364" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR364" t="n">
         <v>1.57</v>
@@ -80053,7 +80053,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ365" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR365" t="n">
         <v>1.25</v>
@@ -80271,7 +80271,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ366" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR366" t="n">
         <v>1.67</v>
@@ -80707,7 +80707,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ368" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR368" t="n">
         <v>1.94</v>
@@ -80922,7 +80922,7 @@
         <v>0.86</v>
       </c>
       <c r="AP369" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ369" t="n">
         <v>0.9399999999999999</v>
@@ -81140,10 +81140,10 @@
         <v>1.06</v>
       </c>
       <c r="AP370" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ370" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR370" t="n">
         <v>1.52</v>
@@ -81358,7 +81358,7 @@
         <v>0.87</v>
       </c>
       <c r="AP371" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ371" t="n">
         <v>0.88</v>
@@ -81576,7 +81576,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP372" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AQ372" t="n">
         <v>0.76</v>
@@ -81794,10 +81794,10 @@
         <v>1.47</v>
       </c>
       <c r="AP373" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AQ373" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR373" t="n">
         <v>1.24</v>
@@ -82015,7 +82015,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ374" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR374" t="n">
         <v>1.55</v>
@@ -82448,10 +82448,10 @@
         <v>1.19</v>
       </c>
       <c r="AP376" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ376" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR376" t="n">
         <v>1.34</v>
@@ -82666,7 +82666,7 @@
         <v>0.93</v>
       </c>
       <c r="AP377" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ377" t="n">
         <v>0.88</v>
@@ -82884,7 +82884,7 @@
         <v>1.13</v>
       </c>
       <c r="AP378" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ378" t="n">
         <v>1.06</v>
@@ -83105,7 +83105,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ379" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR379" t="n">
         <v>1.45</v>
@@ -83320,7 +83320,7 @@
         <v>0.88</v>
       </c>
       <c r="AP380" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AQ380" t="n">
         <v>1</v>
@@ -83538,7 +83538,7 @@
         <v>1.67</v>
       </c>
       <c r="AP381" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ381" t="n">
         <v>1.75</v>
@@ -83759,7 +83759,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ382" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR382" t="n">
         <v>1.64</v>
@@ -84195,7 +84195,7 @@
         <v>2.24</v>
       </c>
       <c r="AQ384" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR384" t="n">
         <v>1.99</v>
@@ -84410,7 +84410,7 @@
         <v>1.13</v>
       </c>
       <c r="AP385" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ385" t="n">
         <v>1.13</v>
@@ -84631,7 +84631,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ386" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR386" t="n">
         <v>1.18</v>
@@ -85064,7 +85064,7 @@
         <v>0.67</v>
       </c>
       <c r="AP388" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ388" t="n">
         <v>0.8100000000000001</v>
@@ -85285,7 +85285,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ389" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR389" t="n">
         <v>1.66</v>
@@ -85524,13 +85524,13 @@
         <v>11</v>
       </c>
       <c r="AX390" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY390" t="n">
         <v>14</v>
       </c>
       <c r="AZ390" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA390" t="n">
         <v>6</v>
@@ -85718,7 +85718,7 @@
         <v>0.8</v>
       </c>
       <c r="AP391" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ391" t="n">
         <v>0.9399999999999999</v>
@@ -85739,13 +85739,13 @@
         <v>2</v>
       </c>
       <c r="AW391" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX391" t="n">
         <v>4</v>
       </c>
       <c r="AY391" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ391" t="n">
         <v>6</v>
@@ -85939,7 +85939,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ392" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR392" t="n">
         <v>1.49</v>
@@ -86015,6 +86015,2622 @@
       </c>
       <c r="BP392" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>8217007</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E393" s="2" t="n">
+        <v>46081.39583333334</v>
+      </c>
+      <c r="F393" t="n">
+        <v>35</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Peterborough United</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>1</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K393" t="n">
+        <v>1</v>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="n">
+        <v>1</v>
+      </c>
+      <c r="N393" t="n">
+        <v>2</v>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q393" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R393" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S393" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T393" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U393" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V393" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W393" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X393" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB393" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AC393" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD393" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE393" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF393" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG393" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH393" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI393" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AJ393" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK393" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL393" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM393" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN393" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO393" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP393" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ393" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR393" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS393" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT393" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU393" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV393" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW393" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX393" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY393" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ393" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA393" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB393" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC393" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD393" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE393" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF393" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BG393" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH393" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BI393" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ393" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK393" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL393" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM393" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN393" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO393" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP393" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="n">
+        <v>8217004</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E394" s="2" t="n">
+        <v>46081.39583333334</v>
+      </c>
+      <c r="F394" t="n">
+        <v>35</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Barnsley</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>1</v>
+      </c>
+      <c r="J394" t="n">
+        <v>1</v>
+      </c>
+      <c r="K394" t="n">
+        <v>2</v>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="n">
+        <v>3</v>
+      </c>
+      <c r="N394" t="n">
+        <v>4</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>['10', '53', '62']</t>
+        </is>
+      </c>
+      <c r="Q394" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R394" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S394" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T394" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U394" t="n">
+        <v>3</v>
+      </c>
+      <c r="V394" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W394" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X394" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB394" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC394" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD394" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="AE394" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF394" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG394" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH394" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI394" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ394" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK394" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL394" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM394" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN394" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO394" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AP394" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ394" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR394" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS394" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT394" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU394" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV394" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW394" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX394" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY394" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ394" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA394" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB394" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC394" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD394" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE394" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF394" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG394" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH394" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BI394" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ394" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BK394" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL394" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM394" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN394" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO394" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BP394" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="n">
+        <v>8217010</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E395" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F395" t="n">
+        <v>35</v>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Port Vale</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Luton Town</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>1</v>
+      </c>
+      <c r="J395" t="n">
+        <v>1</v>
+      </c>
+      <c r="K395" t="n">
+        <v>2</v>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="n">
+        <v>1</v>
+      </c>
+      <c r="N395" t="n">
+        <v>2</v>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q395" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="R395" t="n">
+        <v>2</v>
+      </c>
+      <c r="S395" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T395" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U395" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V395" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W395" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X395" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z395" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA395" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB395" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC395" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD395" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE395" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF395" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG395" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AH395" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI395" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ395" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK395" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL395" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM395" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN395" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AO395" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP395" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ395" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR395" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS395" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT395" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU395" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV395" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW395" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX395" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY395" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ395" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA395" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB395" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC395" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD395" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE395" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF395" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG395" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH395" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BI395" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ395" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK395" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL395" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM395" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN395" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO395" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP395" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="n">
+        <v>8217011</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E396" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F396" t="n">
+        <v>35</v>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Wycombe Wanderers</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Burton Albion</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K396" t="n">
+        <v>1</v>
+      </c>
+      <c r="L396" t="n">
+        <v>3</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>3</v>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>['15', '81', '82']</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q396" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R396" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S396" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="T396" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U396" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="V396" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W396" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X396" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z396" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA396" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB396" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC396" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD396" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE396" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF396" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG396" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH396" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI396" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AJ396" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK396" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL396" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM396" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN396" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AO396" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP396" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ396" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR396" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS396" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT396" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU396" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV396" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW396" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX396" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY396" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ396" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA396" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB396" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC396" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD396" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE396" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF396" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG396" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH396" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI396" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ396" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK396" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL396" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM396" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN396" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO396" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP396" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="n">
+        <v>8217009</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E397" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F397" t="n">
+        <v>35</v>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>2</v>
+      </c>
+      <c r="M397" t="n">
+        <v>1</v>
+      </c>
+      <c r="N397" t="n">
+        <v>3</v>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>['90', '90+7']</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q397" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R397" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S397" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T397" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U397" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V397" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W397" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X397" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB397" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC397" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD397" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE397" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF397" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG397" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH397" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI397" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ397" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK397" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL397" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM397" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN397" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO397" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP397" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ397" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR397" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS397" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT397" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU397" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV397" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW397" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX397" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY397" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ397" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA397" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB397" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC397" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD397" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE397" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF397" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BG397" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH397" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI397" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ397" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK397" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL397" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM397" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN397" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO397" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP397" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="n">
+        <v>8217006</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E398" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F398" t="n">
+        <v>35</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>2</v>
+      </c>
+      <c r="J398" t="n">
+        <v>1</v>
+      </c>
+      <c r="K398" t="n">
+        <v>3</v>
+      </c>
+      <c r="L398" t="n">
+        <v>2</v>
+      </c>
+      <c r="M398" t="n">
+        <v>2</v>
+      </c>
+      <c r="N398" t="n">
+        <v>4</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>['7', '29']</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>['14', '58']</t>
+        </is>
+      </c>
+      <c r="Q398" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R398" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S398" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T398" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U398" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V398" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W398" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X398" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB398" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC398" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD398" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE398" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF398" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG398" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH398" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI398" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ398" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK398" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL398" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM398" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN398" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO398" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP398" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ398" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR398" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS398" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT398" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU398" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV398" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW398" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX398" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY398" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ398" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA398" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB398" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC398" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD398" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE398" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF398" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG398" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH398" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BI398" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ398" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK398" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL398" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM398" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN398" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO398" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP398" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>8217005</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E399" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F399" t="n">
+        <v>35</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Lincoln City</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>1</v>
+      </c>
+      <c r="L399" t="n">
+        <v>4</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>4</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>['38', '78', '85', '89']</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q399" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R399" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S399" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T399" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U399" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V399" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W399" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X399" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB399" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AC399" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD399" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE399" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF399" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AG399" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH399" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI399" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ399" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK399" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL399" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM399" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN399" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO399" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP399" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ399" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR399" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS399" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT399" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU399" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV399" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW399" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX399" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY399" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ399" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA399" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB399" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC399" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD399" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE399" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF399" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BG399" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH399" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BI399" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ399" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK399" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL399" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM399" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN399" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO399" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP399" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>8217003</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E400" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F400" t="n">
+        <v>35</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Exeter City</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1</v>
+      </c>
+      <c r="K400" t="n">
+        <v>1</v>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="n">
+        <v>5</v>
+      </c>
+      <c r="N400" t="n">
+        <v>6</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>['21', '60', '72', '77', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q400" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R400" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S400" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T400" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U400" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V400" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W400" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X400" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB400" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC400" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD400" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE400" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF400" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG400" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH400" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI400" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ400" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK400" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL400" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM400" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN400" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO400" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP400" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ400" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AR400" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS400" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT400" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU400" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV400" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW400" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX400" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY400" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ400" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA400" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB400" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC400" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD400" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE400" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF400" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG400" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH400" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="BI400" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ400" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK400" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL400" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM400" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN400" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO400" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP400" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="n">
+        <v>8217002</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E401" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F401" t="n">
+        <v>35</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Cardiff City</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" t="n">
+        <v>1</v>
+      </c>
+      <c r="K401" t="n">
+        <v>1</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>4</v>
+      </c>
+      <c r="N401" t="n">
+        <v>4</v>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>['26', '46', '56', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q401" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R401" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S401" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T401" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U401" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V401" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W401" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X401" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB401" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC401" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD401" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE401" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF401" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG401" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH401" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI401" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ401" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK401" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL401" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM401" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN401" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO401" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP401" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ401" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR401" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS401" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT401" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU401" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV401" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW401" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX401" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY401" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ401" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA401" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB401" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC401" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD401" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE401" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF401" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG401" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH401" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI401" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ401" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK401" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL401" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM401" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN401" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO401" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP401" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="n">
+        <v>8217012</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E402" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F402" t="n">
+        <v>35</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>1</v>
+      </c>
+      <c r="J402" t="n">
+        <v>1</v>
+      </c>
+      <c r="K402" t="n">
+        <v>2</v>
+      </c>
+      <c r="L402" t="n">
+        <v>2</v>
+      </c>
+      <c r="M402" t="n">
+        <v>1</v>
+      </c>
+      <c r="N402" t="n">
+        <v>3</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>['35', '57']</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q402" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R402" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S402" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T402" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U402" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V402" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W402" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X402" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z402" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA402" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB402" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC402" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD402" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE402" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF402" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AG402" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH402" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI402" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ402" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK402" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL402" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM402" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN402" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO402" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP402" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ402" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR402" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS402" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT402" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU402" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV402" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW402" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX402" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY402" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ402" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA402" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB402" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC402" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD402" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE402" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF402" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG402" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH402" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BI402" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ402" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK402" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL402" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM402" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN402" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO402" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BP402" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="n">
+        <v>8216945</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E403" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F403" t="n">
+        <v>35</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Rotherham United</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Plymouth Argyle</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>1</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0</v>
+      </c>
+      <c r="K403" t="n">
+        <v>1</v>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N403" t="n">
+        <v>1</v>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q403" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R403" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S403" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T403" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U403" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V403" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W403" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X403" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB403" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC403" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD403" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AE403" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF403" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AG403" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH403" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI403" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ403" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK403" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL403" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM403" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN403" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO403" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP403" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ403" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR403" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS403" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT403" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU403" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV403" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW403" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX403" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY403" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ403" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA403" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB403" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC403" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD403" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE403" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF403" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG403" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH403" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI403" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ403" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK403" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL403" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM403" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN403" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO403" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP403" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="n">
+        <v>8216914</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>England EFL League One</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E404" s="2" t="n">
+        <v>46081.5</v>
+      </c>
+      <c r="F404" t="n">
+        <v>35</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Huddersfield Town</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>1</v>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q404" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R404" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S404" t="n">
+        <v>3</v>
+      </c>
+      <c r="T404" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U404" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V404" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W404" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X404" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB404" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC404" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD404" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE404" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF404" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AG404" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH404" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI404" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ404" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK404" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL404" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM404" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN404" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO404" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP404" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ404" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR404" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS404" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT404" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU404" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV404" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW404" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX404" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY404" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ404" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA404" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB404" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC404" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD404" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE404" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF404" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG404" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH404" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI404" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ404" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK404" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL404" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM404" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN404" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO404" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP404" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
